--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1420" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7706D0D-5EF7-477A-B129-C1A767F7B328}"/>
+  <xr:revisionPtr revIDLastSave="1426" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F16A2B63-BB11-40F5-96D4-AE4A77C2ACD0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="1" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>
   <sheets>
     <sheet name="VW DAF" sheetId="9" r:id="rId1"/>
@@ -4559,7 +4559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5009,6 +5009,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5038,54 +5041,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7405,39 +7360,39 @@
       <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="29"/>
@@ -7514,18 +7469,18 @@
       <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="163"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="164"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="30"/>
@@ -7699,8 +7654,8 @@
   <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.45"/>
@@ -12659,58 +12614,58 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="15">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C52" s="181">
+      <c r="C52" s="154">
         <f>IFERROR((D52*1.5)/1440, "?")</f>
         <v>0.49791666666666667</v>
       </c>
-      <c r="D52" s="180">
+      <c r="D52" s="12">
         <v>478</v>
       </c>
-      <c r="E52" s="182">
+      <c r="E52" s="155">
         <f>IFERROR((D52*6),"?")</f>
         <v>2868</v>
       </c>
-      <c r="F52" s="183"/>
-      <c r="G52" s="180" t="s">
+      <c r="F52" s="156"/>
+      <c r="G52" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H52" s="184">
+      <c r="H52" s="157">
         <v>45978</v>
       </c>
-      <c r="I52" s="185" t="s">
+      <c r="I52" s="158" t="s">
         <v>281</v>
       </c>
-      <c r="J52" s="180" t="s">
+      <c r="J52" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K52" s="180" t="s">
+      <c r="K52" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L52" s="180" t="s">
+      <c r="L52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="M52" s="180" t="s">
+      <c r="M52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N52" s="179" t="s">
+      <c r="N52" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O52" s="180" t="s">
+      <c r="O52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P52" s="186" t="s">
+      <c r="P52" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="Q52" s="180" t="s">
+      <c r="Q52" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="R52" s="180" t="s">
+      <c r="R52" s="12" t="s">
         <v>101</v>
       </c>
       <c r="S52" s="2" t="str">
@@ -12763,58 +12718,58 @@
       </c>
     </row>
     <row r="53" spans="1:20" ht="15">
-      <c r="A53" s="179" t="s">
+      <c r="A53" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="181">
+      <c r="C53" s="154">
         <f>IFERROR((D53*1.5)/1440, "?")</f>
         <v>0.49791666666666667</v>
       </c>
-      <c r="D53" s="180">
+      <c r="D53" s="12">
         <v>478</v>
       </c>
-      <c r="E53" s="182">
+      <c r="E53" s="155">
         <f>IFERROR((D53*6),"?")</f>
         <v>2868</v>
       </c>
-      <c r="F53" s="183"/>
-      <c r="G53" s="180" t="s">
+      <c r="F53" s="156"/>
+      <c r="G53" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="H53" s="184">
+      <c r="H53" s="157">
         <v>45978</v>
       </c>
-      <c r="I53" s="185" t="s">
+      <c r="I53" s="158" t="s">
         <v>281</v>
       </c>
-      <c r="J53" s="180" t="s">
+      <c r="J53" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K53" s="180" t="s">
+      <c r="K53" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L53" s="180" t="s">
+      <c r="L53" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="M53" s="180" t="s">
+      <c r="M53" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N53" s="179" t="s">
+      <c r="N53" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O53" s="180" t="s">
+      <c r="O53" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P53" s="186" t="s">
+      <c r="P53" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="Q53" s="180" t="s">
+      <c r="Q53" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="R53" s="180" t="s">
+      <c r="R53" s="12" t="s">
         <v>101</v>
       </c>
       <c r="S53" s="2" t="str">
@@ -12867,58 +12822,58 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="15">
-      <c r="A54" s="179" t="s">
+      <c r="A54" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="181">
+      <c r="C54" s="154">
         <f>IFERROR((D54*1.5)/1440, "?")</f>
         <v>0.31874999999999998</v>
       </c>
-      <c r="D54" s="180">
+      <c r="D54" s="12">
         <v>306</v>
       </c>
-      <c r="E54" s="182">
+      <c r="E54" s="155">
         <f>IFERROR((D54*6),"?")</f>
         <v>1836</v>
       </c>
-      <c r="F54" s="183"/>
-      <c r="G54" s="180" t="s">
+      <c r="F54" s="156"/>
+      <c r="G54" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H54" s="184">
+      <c r="H54" s="157">
         <v>45978</v>
       </c>
-      <c r="I54" s="185" t="s">
+      <c r="I54" s="158" t="s">
         <v>281</v>
       </c>
-      <c r="J54" s="180" t="s">
+      <c r="J54" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K54" s="180" t="s">
+      <c r="K54" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L54" s="180" t="s">
+      <c r="L54" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="180" t="s">
+      <c r="M54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N54" s="179" t="s">
+      <c r="N54" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O54" s="180" t="s">
+      <c r="O54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P54" s="186" t="s">
+      <c r="P54" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="Q54" s="180" t="s">
+      <c r="Q54" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="R54" s="180" t="s">
+      <c r="R54" s="12" t="s">
         <v>148</v>
       </c>
       <c r="S54" s="2" t="str">
@@ -12964,58 +12919,58 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="15">
-      <c r="A55" s="179" t="s">
+      <c r="A55" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="181">
+      <c r="C55" s="154">
         <f>IFERROR((D55*1.5)/1440, "?")</f>
         <v>0.31874999999999998</v>
       </c>
-      <c r="D55" s="180">
+      <c r="D55" s="12">
         <v>306</v>
       </c>
-      <c r="E55" s="182">
+      <c r="E55" s="155">
         <f>IFERROR((D55*6),"?")</f>
         <v>1836</v>
       </c>
-      <c r="F55" s="183"/>
-      <c r="G55" s="180" t="s">
+      <c r="F55" s="156"/>
+      <c r="G55" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H55" s="184">
+      <c r="H55" s="157">
         <v>45978</v>
       </c>
-      <c r="I55" s="185" t="s">
+      <c r="I55" s="158" t="s">
         <v>281</v>
       </c>
-      <c r="J55" s="180" t="s">
+      <c r="J55" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="K55" s="180" t="s">
+      <c r="K55" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L55" s="180" t="s">
+      <c r="L55" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="M55" s="180" t="s">
+      <c r="M55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O55" s="180" t="s">
+      <c r="O55" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P55" s="186" t="s">
+      <c r="P55" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="Q55" s="180" t="s">
+      <c r="Q55" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="R55" s="180" t="s">
+      <c r="R55" s="12" t="s">
         <v>148</v>
       </c>
       <c r="S55" s="2" t="str">
@@ -18130,7 +18085,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1">
-      <c r="A69" s="171" t="s">
+      <c r="A69" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -18139,23 +18094,23 @@
       <c r="C69" s="18">
         <v>45971</v>
       </c>
-      <c r="D69" s="174" t="s">
+      <c r="D69" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="E69" s="172" t="str">
+      <c r="E69" s="1" t="str">
         <f>_xlfn.XLOOKUP(F69,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>056953013</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="G69" s="176">
+      <c r="G69" s="16">
         <v>884.29</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I69" s="175">
+      <c r="I69" s="17">
         <v>778</v>
       </c>
       <c r="J69" s="18">
@@ -18164,13 +18119,13 @@
       <c r="K69" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="L69" s="178" t="str">
+      <c r="L69" s="17" t="str">
         <f>TEXT($C69,"dd.mm") &amp; " -Ped " &amp; D69 &amp; " -" &amp; F69 &amp; " -R$" &amp; G69 &amp; IF(LEN(TRIM(I69))=0, "", " -NF " &amp; TRIM(I69))</f>
         <v>10.11 -Ped 047757 -CARGADEDICADA TRANS -R$884,29 -NF 778</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1">
-      <c r="A70" s="171" t="s">
+      <c r="A70" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -18179,23 +18134,23 @@
       <c r="C70" s="18">
         <v>45971</v>
       </c>
-      <c r="D70" s="174" t="s">
+      <c r="D70" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="E70" s="172" t="str">
+      <c r="E70" s="1" t="str">
         <f>_xlfn.XLOOKUP(F70,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>056953013</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="G70" s="176">
+      <c r="G70" s="16">
         <v>884.29</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I70" s="175">
+      <c r="I70" s="17">
         <v>779</v>
       </c>
       <c r="J70" s="18">
@@ -18204,13 +18159,13 @@
       <c r="K70" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="L70" s="178" t="str">
+      <c r="L70" s="17" t="str">
         <f>TEXT($C70,"dd.mm") &amp; " -Ped " &amp; D70 &amp; " -" &amp; F70 &amp; " -R$" &amp; G70 &amp; IF(LEN(TRIM(I70))=0, "", " -NF " &amp; TRIM(I70))</f>
         <v>10.11 -Ped 047757 -CARGADEDICADA TRANS -R$884,29 -NF 779</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1">
-      <c r="A71" s="171" t="s">
+      <c r="A71" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -18219,23 +18174,23 @@
       <c r="C71" s="18">
         <v>45971</v>
       </c>
-      <c r="D71" s="174" t="s">
+      <c r="D71" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="E71" s="172" t="str">
+      <c r="E71" s="1" t="str">
         <f>_xlfn.XLOOKUP(F71,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>056953013</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="G71" s="176">
+      <c r="G71" s="16">
         <v>884.29</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I71" s="175">
+      <c r="I71" s="17">
         <v>781</v>
       </c>
       <c r="J71" s="18">
@@ -18244,13 +18199,13 @@
       <c r="K71" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="L71" s="178" t="str">
+      <c r="L71" s="17" t="str">
         <f>TEXT($C71,"dd.mm") &amp; " -Ped " &amp; D71 &amp; " -" &amp; F71 &amp; " -R$" &amp; G71 &amp; IF(LEN(TRIM(I71))=0, "", " -NF " &amp; TRIM(I71))</f>
         <v>10.11 -Ped 047757 -CARGADEDICADA TRANS -R$884,29 -NF 781</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1">
-      <c r="A72" s="171" t="s">
+      <c r="A72" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -18259,23 +18214,23 @@
       <c r="C72" s="18">
         <v>45971</v>
       </c>
-      <c r="D72" s="174" t="s">
+      <c r="D72" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="E72" s="172" t="str">
+      <c r="E72" s="1" t="str">
         <f>_xlfn.XLOOKUP(F72,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>056953013</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="G72" s="176">
+      <c r="G72" s="16">
         <v>884.29</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I72" s="175">
+      <c r="I72" s="17">
         <v>782</v>
       </c>
       <c r="J72" s="18">
@@ -18284,7 +18239,7 @@
       <c r="K72" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="L72" s="178" t="str">
+      <c r="L72" s="17" t="str">
         <f>TEXT($C72,"dd.mm") &amp; " -Ped " &amp; D72 &amp; " -" &amp; F72 &amp; " -R$" &amp; G72 &amp; IF(LEN(TRIM(I72))=0, "", " -NF " &amp; TRIM(I72))</f>
         <v>10.11 -Ped 047757 -CARGADEDICADA TRANS -R$884,29 -NF 782</v>
       </c>
@@ -18293,545 +18248,381 @@
       <c r="A73" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B73" s="172" t="s">
+      <c r="B73" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C73" s="173">
+      <c r="C73" s="18">
         <v>45974</v>
       </c>
-      <c r="D73" s="174" t="s">
+      <c r="D73" s="82" t="s">
         <v>468</v>
       </c>
-      <c r="E73" s="172" t="str">
+      <c r="E73" s="1" t="str">
         <f>_xlfn.XLOOKUP(F73,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>061028125</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G73" s="176">
+      <c r="G73" s="16">
         <v>270</v>
       </c>
-      <c r="H73" s="171"/>
-      <c r="I73" s="175"/>
-      <c r="J73" s="173"/>
-      <c r="K73" s="177" t="s">
+      <c r="H73" s="4"/>
+      <c r="K73" s="81" t="s">
         <v>470</v>
       </c>
-      <c r="L73" s="178" t="str">
+      <c r="L73" s="17" t="str">
         <f t="shared" ref="L73:L76" si="2">TEXT($C73,"dd.mm") &amp; " -Ped " &amp; D73 &amp; " -" &amp; F73 &amp; " -R$" &amp; G73 &amp; IF(LEN(TRIM(I73))=0, "", " -NF " &amp; TRIM(I73))</f>
         <v>13.11 -Ped 047758 -INCOMESPMUNCK TRANSP -R$270</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1">
-      <c r="A74" s="171"/>
-      <c r="B74" s="172"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="174"/>
-      <c r="E74" s="172" t="str">
+      <c r="A74" s="4"/>
+      <c r="E74" s="1" t="str">
         <f>_xlfn.XLOOKUP(F74,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G74" s="176"/>
-      <c r="H74" s="171"/>
-      <c r="I74" s="175"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="177"/>
-      <c r="L74" s="178" t="str">
+      <c r="H74" s="4"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1">
-      <c r="A75" s="171"/>
-      <c r="B75" s="172"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="174"/>
-      <c r="E75" s="172" t="str">
+      <c r="A75" s="4"/>
+      <c r="E75" s="1" t="str">
         <f>_xlfn.XLOOKUP(F75,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G75" s="176"/>
-      <c r="H75" s="171"/>
-      <c r="I75" s="175"/>
-      <c r="J75" s="173"/>
-      <c r="K75" s="177"/>
-      <c r="L75" s="178" t="str">
+      <c r="H75" s="4"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1">
-      <c r="A76" s="171"/>
-      <c r="B76" s="172"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="174"/>
-      <c r="E76" s="172" t="str">
+      <c r="A76" s="4"/>
+      <c r="E76" s="1" t="str">
         <f>_xlfn.XLOOKUP(F76,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G76" s="176"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="175"/>
-      <c r="J76" s="173"/>
-      <c r="K76" s="177"/>
-      <c r="L76" s="178" t="str">
+      <c r="H76" s="4"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="17" t="str">
         <f t="shared" si="2"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1">
-      <c r="A77" s="171"/>
-      <c r="B77" s="172"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="174"/>
-      <c r="E77" s="172" t="str">
+      <c r="A77" s="4"/>
+      <c r="E77" s="1" t="str">
         <f>_xlfn.XLOOKUP(F77,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G77" s="176"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="175"/>
-      <c r="J77" s="173"/>
-      <c r="K77" s="177"/>
-      <c r="L77" s="178" t="str">
+      <c r="H77" s="4"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="17" t="str">
         <f t="shared" ref="L77:L99" si="3">TEXT($C77,"dd.mm") &amp; " -Ped " &amp; D77 &amp; " -" &amp; F77 &amp; " -R$" &amp; G77 &amp; IF(LEN(TRIM(I77))=0, "", " -NF " &amp; TRIM(I77))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1">
-      <c r="A78" s="171"/>
-      <c r="B78" s="172"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="174"/>
-      <c r="E78" s="172" t="str">
+      <c r="A78" s="4"/>
+      <c r="E78" s="1" t="str">
         <f>_xlfn.XLOOKUP(F78,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G78" s="176"/>
-      <c r="H78" s="171"/>
-      <c r="I78" s="175"/>
-      <c r="J78" s="173"/>
-      <c r="K78" s="177"/>
-      <c r="L78" s="178" t="str">
+      <c r="H78" s="4"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1">
-      <c r="A79" s="171"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="172" t="str">
+      <c r="A79" s="4"/>
+      <c r="E79" s="1" t="str">
         <f>_xlfn.XLOOKUP(F79,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G79" s="176"/>
-      <c r="H79" s="171"/>
-      <c r="I79" s="175"/>
-      <c r="J79" s="173"/>
-      <c r="K79" s="177"/>
-      <c r="L79" s="178" t="str">
+      <c r="H79" s="4"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1">
-      <c r="A80" s="171"/>
-      <c r="B80" s="172"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="174"/>
-      <c r="E80" s="172" t="str">
+      <c r="A80" s="4"/>
+      <c r="E80" s="1" t="str">
         <f>_xlfn.XLOOKUP(F80,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G80" s="176"/>
-      <c r="H80" s="171"/>
-      <c r="I80" s="175"/>
-      <c r="J80" s="173"/>
-      <c r="K80" s="177"/>
-      <c r="L80" s="178" t="str">
+      <c r="H80" s="4"/>
+      <c r="K80" s="81"/>
+      <c r="L80" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1">
-      <c r="A81" s="171"/>
-      <c r="B81" s="172"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="174"/>
-      <c r="E81" s="172" t="str">
+      <c r="A81" s="4"/>
+      <c r="E81" s="1" t="str">
         <f>_xlfn.XLOOKUP(F81,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G81" s="176"/>
-      <c r="H81" s="171"/>
-      <c r="I81" s="175"/>
-      <c r="J81" s="173"/>
-      <c r="K81" s="177"/>
-      <c r="L81" s="178" t="str">
+      <c r="H81" s="4"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1">
-      <c r="A82" s="171"/>
-      <c r="B82" s="172"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="172" t="str">
+      <c r="A82" s="4"/>
+      <c r="E82" s="1" t="str">
         <f>_xlfn.XLOOKUP(F82,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G82" s="176"/>
-      <c r="H82" s="171"/>
-      <c r="I82" s="175"/>
-      <c r="J82" s="173"/>
-      <c r="K82" s="177"/>
-      <c r="L82" s="178" t="str">
+      <c r="H82" s="4"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1">
-      <c r="A83" s="171"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="172" t="str">
+      <c r="A83" s="4"/>
+      <c r="E83" s="1" t="str">
         <f>_xlfn.XLOOKUP(F83,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G83" s="176"/>
-      <c r="H83" s="171"/>
-      <c r="I83" s="175"/>
-      <c r="J83" s="173"/>
-      <c r="K83" s="177"/>
-      <c r="L83" s="178" t="str">
+      <c r="H83" s="4"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1">
-      <c r="A84" s="171"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="174"/>
-      <c r="E84" s="172" t="str">
+      <c r="A84" s="4"/>
+      <c r="E84" s="1" t="str">
         <f>_xlfn.XLOOKUP(F84,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G84" s="176"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="175"/>
-      <c r="J84" s="173"/>
-      <c r="K84" s="177"/>
-      <c r="L84" s="178" t="str">
+      <c r="H84" s="4"/>
+      <c r="K84" s="81"/>
+      <c r="L84" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1">
-      <c r="A85" s="171"/>
-      <c r="B85" s="172"/>
-      <c r="C85" s="173"/>
-      <c r="D85" s="174"/>
-      <c r="E85" s="172" t="str">
+      <c r="A85" s="4"/>
+      <c r="E85" s="1" t="str">
         <f>_xlfn.XLOOKUP(F85,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G85" s="176"/>
-      <c r="H85" s="171"/>
-      <c r="I85" s="175"/>
-      <c r="J85" s="173"/>
-      <c r="K85" s="177"/>
-      <c r="L85" s="178" t="str">
+      <c r="H85" s="4"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1">
-      <c r="A86" s="171"/>
-      <c r="B86" s="172"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="174"/>
-      <c r="E86" s="172" t="str">
+      <c r="A86" s="4"/>
+      <c r="E86" s="1" t="str">
         <f>_xlfn.XLOOKUP(F86,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G86" s="176"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="175"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="177"/>
-      <c r="L86" s="178" t="str">
+      <c r="H86" s="4"/>
+      <c r="K86" s="81"/>
+      <c r="L86" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1">
-      <c r="A87" s="171"/>
-      <c r="B87" s="172"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="174"/>
-      <c r="E87" s="172" t="str">
+      <c r="A87" s="4"/>
+      <c r="E87" s="1" t="str">
         <f>_xlfn.XLOOKUP(F87,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G87" s="176"/>
-      <c r="H87" s="171"/>
-      <c r="I87" s="175"/>
-      <c r="J87" s="173"/>
-      <c r="K87" s="177"/>
-      <c r="L87" s="178" t="str">
+      <c r="H87" s="4"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1">
-      <c r="A88" s="171"/>
-      <c r="B88" s="172"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="172" t="str">
+      <c r="A88" s="4"/>
+      <c r="E88" s="1" t="str">
         <f>_xlfn.XLOOKUP(F88,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G88" s="176"/>
-      <c r="H88" s="171"/>
-      <c r="I88" s="175"/>
-      <c r="J88" s="173"/>
-      <c r="K88" s="177"/>
-      <c r="L88" s="178" t="str">
+      <c r="H88" s="4"/>
+      <c r="K88" s="81"/>
+      <c r="L88" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1">
-      <c r="A89" s="171"/>
-      <c r="B89" s="172"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="172" t="str">
+      <c r="A89" s="4"/>
+      <c r="E89" s="1" t="str">
         <f>_xlfn.XLOOKUP(F89,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G89" s="176"/>
-      <c r="H89" s="171"/>
-      <c r="I89" s="175"/>
-      <c r="J89" s="173"/>
-      <c r="K89" s="177"/>
-      <c r="L89" s="178" t="str">
+      <c r="H89" s="4"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1">
-      <c r="A90" s="171"/>
-      <c r="B90" s="172"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="174"/>
-      <c r="E90" s="172" t="str">
+      <c r="A90" s="4"/>
+      <c r="E90" s="1" t="str">
         <f>_xlfn.XLOOKUP(F90,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G90" s="176"/>
-      <c r="H90" s="171"/>
-      <c r="I90" s="175"/>
-      <c r="J90" s="173"/>
-      <c r="K90" s="177"/>
-      <c r="L90" s="178" t="str">
+      <c r="H90" s="4"/>
+      <c r="K90" s="81"/>
+      <c r="L90" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1">
-      <c r="A91" s="171"/>
-      <c r="B91" s="172"/>
-      <c r="C91" s="173"/>
-      <c r="D91" s="174"/>
-      <c r="E91" s="172" t="str">
+      <c r="A91" s="4"/>
+      <c r="E91" s="1" t="str">
         <f>_xlfn.XLOOKUP(F91,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G91" s="176"/>
-      <c r="H91" s="171"/>
-      <c r="I91" s="175"/>
-      <c r="J91" s="173"/>
-      <c r="K91" s="177"/>
-      <c r="L91" s="178" t="str">
+      <c r="H91" s="4"/>
+      <c r="K91" s="81"/>
+      <c r="L91" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1">
-      <c r="A92" s="171"/>
-      <c r="B92" s="172"/>
-      <c r="C92" s="173"/>
-      <c r="D92" s="174"/>
-      <c r="E92" s="172" t="str">
+      <c r="A92" s="4"/>
+      <c r="E92" s="1" t="str">
         <f>_xlfn.XLOOKUP(F92,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G92" s="176"/>
-      <c r="H92" s="171"/>
-      <c r="I92" s="175"/>
-      <c r="J92" s="173"/>
-      <c r="K92" s="177"/>
-      <c r="L92" s="178" t="str">
+      <c r="H92" s="4"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1">
-      <c r="A93" s="171"/>
-      <c r="B93" s="172"/>
-      <c r="C93" s="173"/>
-      <c r="D93" s="174"/>
-      <c r="E93" s="172" t="str">
+      <c r="A93" s="4"/>
+      <c r="E93" s="1" t="str">
         <f>_xlfn.XLOOKUP(F93,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G93" s="176"/>
-      <c r="H93" s="171"/>
-      <c r="I93" s="175"/>
-      <c r="J93" s="173"/>
-      <c r="K93" s="177"/>
-      <c r="L93" s="178" t="str">
+      <c r="H93" s="4"/>
+      <c r="K93" s="81"/>
+      <c r="L93" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1">
-      <c r="A94" s="171"/>
-      <c r="B94" s="172"/>
-      <c r="C94" s="173"/>
-      <c r="D94" s="174"/>
-      <c r="E94" s="172" t="str">
+      <c r="A94" s="4"/>
+      <c r="E94" s="1" t="str">
         <f>_xlfn.XLOOKUP(F94,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G94" s="176"/>
-      <c r="H94" s="171"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="173"/>
-      <c r="K94" s="177"/>
-      <c r="L94" s="178" t="str">
+      <c r="H94" s="4"/>
+      <c r="K94" s="81"/>
+      <c r="L94" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1">
-      <c r="A95" s="171"/>
-      <c r="B95" s="172"/>
-      <c r="C95" s="173"/>
-      <c r="D95" s="174"/>
-      <c r="E95" s="172" t="str">
+      <c r="A95" s="4"/>
+      <c r="E95" s="1" t="str">
         <f>_xlfn.XLOOKUP(F95,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G95" s="176"/>
-      <c r="H95" s="171"/>
-      <c r="I95" s="175"/>
-      <c r="J95" s="173"/>
-      <c r="K95" s="177"/>
-      <c r="L95" s="178" t="str">
+      <c r="H95" s="4"/>
+      <c r="K95" s="81"/>
+      <c r="L95" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1">
-      <c r="A96" s="171"/>
-      <c r="B96" s="172"/>
-      <c r="C96" s="173"/>
-      <c r="D96" s="174"/>
-      <c r="E96" s="172" t="str">
+      <c r="A96" s="4"/>
+      <c r="E96" s="1" t="str">
         <f>_xlfn.XLOOKUP(F96,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G96" s="176"/>
-      <c r="H96" s="171"/>
-      <c r="I96" s="175"/>
-      <c r="J96" s="173"/>
-      <c r="K96" s="177"/>
-      <c r="L96" s="178" t="str">
+      <c r="H96" s="4"/>
+      <c r="K96" s="81"/>
+      <c r="L96" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1">
-      <c r="A97" s="171"/>
-      <c r="B97" s="172"/>
-      <c r="C97" s="173"/>
-      <c r="D97" s="174"/>
-      <c r="E97" s="172" t="str">
+      <c r="A97" s="4"/>
+      <c r="E97" s="1" t="str">
         <f>_xlfn.XLOOKUP(F97,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G97" s="176"/>
-      <c r="H97" s="171"/>
-      <c r="I97" s="175"/>
-      <c r="J97" s="173"/>
-      <c r="K97" s="177"/>
-      <c r="L97" s="178" t="str">
+      <c r="H97" s="4"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" customHeight="1">
-      <c r="A98" s="171"/>
-      <c r="B98" s="172"/>
-      <c r="C98" s="173"/>
-      <c r="D98" s="174"/>
-      <c r="E98" s="172" t="str">
+      <c r="A98" s="4"/>
+      <c r="E98" s="1" t="str">
         <f>_xlfn.XLOOKUP(F98,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G98" s="176"/>
-      <c r="H98" s="171"/>
-      <c r="I98" s="175"/>
-      <c r="J98" s="173"/>
-      <c r="K98" s="177"/>
-      <c r="L98" s="178" t="str">
+      <c r="H98" s="4"/>
+      <c r="K98" s="81"/>
+      <c r="L98" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1">
-      <c r="A99" s="171"/>
-      <c r="B99" s="172"/>
-      <c r="C99" s="173"/>
-      <c r="D99" s="174"/>
-      <c r="E99" s="172" t="str">
+      <c r="A99" s="4"/>
+      <c r="E99" s="1" t="str">
         <f>_xlfn.XLOOKUP(F99,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G99" s="176"/>
-      <c r="H99" s="171"/>
-      <c r="I99" s="175"/>
-      <c r="J99" s="173"/>
-      <c r="K99" s="177"/>
-      <c r="L99" s="178" t="str">
+      <c r="H99" s="4"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="17" t="str">
         <f t="shared" si="3"/>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1">
-      <c r="A100" s="171"/>
-      <c r="B100" s="172"/>
-      <c r="C100" s="173"/>
-      <c r="D100" s="174"/>
-      <c r="E100" s="172" t="str">
+      <c r="A100" s="4"/>
+      <c r="E100" s="1" t="str">
         <f>_xlfn.XLOOKUP(F100,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>0</v>
       </c>
-      <c r="G100" s="176"/>
-      <c r="H100" s="171"/>
-      <c r="I100" s="175"/>
-      <c r="J100" s="173"/>
-      <c r="K100" s="177"/>
-      <c r="L100" s="178" t="str">
+      <c r="H100" s="4"/>
+      <c r="K100" s="81"/>
+      <c r="L100" s="17" t="str">
         <f>TEXT($C100,"dd.mm") &amp; " -Ped " &amp; D100 &amp; " -" &amp; F100 &amp; " -R$" &amp; G100 &amp; IF(LEN(TRIM(I100))=0, "", " -NF " &amp; TRIM(I100))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
@@ -18965,7 +18756,7 @@
       <c r="K1" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="L1" s="167" t="s">
+      <c r="L1" s="168" t="s">
         <v>329</v>
       </c>
       <c r="N1" s="19" t="s">
@@ -18983,7 +18774,7 @@
       <c r="R1" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="S1" s="167" t="s">
+      <c r="S1" s="168" t="s">
         <v>485</v>
       </c>
       <c r="U1" s="7">
@@ -19038,7 +18829,7 @@
         <f>"A:"&amp;TEXT(F2,"0,00")&amp;" x C:"&amp;TEXT(G2,"0,00")&amp;" x L:"&amp;TEXT(H2,"0,00")&amp;"-"&amp;TEXT(I2,"0,00")&amp;" x P:"&amp;TEXT(J2,"0.00")&amp;"kg"</f>
         <v>A:2,28 x C:3,10 x L:1,00-1,57 x P:1.200kg</v>
       </c>
-      <c r="L2" s="167"/>
+      <c r="L2" s="168"/>
       <c r="N2" s="20" t="str">
         <f t="shared" ref="N2:N65" si="0">"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O2,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>020920599</v>
@@ -19055,7 +18846,7 @@
       <c r="R2" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="S2" s="167"/>
+      <c r="S2" s="168"/>
       <c r="V2" s="8" t="s">
         <v>495</v>
       </c>
@@ -19102,7 +18893,7 @@
         <f t="shared" ref="K3:K66" si="1">"A:"&amp;TEXT(F3,"0,00")&amp;" x C:"&amp;TEXT(G3,"0,00")&amp;" x L:"&amp;TEXT(H3,"0,00")&amp;"-"&amp;TEXT(I3,"0,00")&amp;" x P:"&amp;TEXT(J3,"0.00")&amp;"kg"</f>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L3" s="167"/>
+      <c r="L3" s="168"/>
       <c r="N3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>019320206</v>
@@ -19119,7 +18910,7 @@
       <c r="R3" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="S3" s="167"/>
+      <c r="S3" s="168"/>
       <c r="U3" s="7">
         <v>2</v>
       </c>
@@ -19172,7 +18963,7 @@
         <f t="shared" si="1"/>
         <v>A:2,38 x C:4,08 x L:1,44-1,88 x P:2.710kg</v>
       </c>
-      <c r="L4" s="167"/>
+      <c r="L4" s="168"/>
       <c r="N4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>044160580</v>
@@ -19189,7 +18980,7 @@
       <c r="R4" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="S4" s="167"/>
+      <c r="S4" s="168"/>
       <c r="V4" s="8" t="s">
         <v>510</v>
       </c>
@@ -19236,7 +19027,7 @@
         <f t="shared" si="1"/>
         <v>A:2,38 x C:4,08 x L:1,44-1,88 x P:2.710kg</v>
       </c>
-      <c r="L5" s="167"/>
+      <c r="L5" s="168"/>
       <c r="N5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>048501079</v>
@@ -19253,7 +19044,7 @@
       <c r="R5" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="S5" s="167"/>
+      <c r="S5" s="168"/>
       <c r="U5" s="7">
         <v>3</v>
       </c>
@@ -19306,7 +19097,7 @@
         <f t="shared" si="1"/>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L6" s="167"/>
+      <c r="L6" s="168"/>
       <c r="N6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>031553361</v>
@@ -19323,7 +19114,7 @@
       <c r="R6" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="S6" s="167"/>
+      <c r="S6" s="168"/>
       <c r="V6" s="8" t="s">
         <v>526</v>
       </c>
@@ -19372,7 +19163,7 @@
         <f t="shared" si="1"/>
         <v>A:2,77 x C:4,17 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L7" s="167"/>
+      <c r="L7" s="168"/>
       <c r="N7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>050435638</v>
@@ -19389,7 +19180,7 @@
       <c r="R7" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="S7" s="167"/>
+      <c r="S7" s="168"/>
       <c r="U7" s="7">
         <v>4</v>
       </c>
@@ -19442,7 +19233,7 @@
         <f t="shared" si="1"/>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L8" s="167"/>
+      <c r="L8" s="168"/>
       <c r="N8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>046570181</v>
@@ -19459,7 +19250,7 @@
       <c r="R8" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="S8" s="167"/>
+      <c r="S8" s="168"/>
       <c r="V8" s="8" t="s">
         <v>541</v>
       </c>
@@ -19506,7 +19297,7 @@
         <f t="shared" si="1"/>
         <v>A:2,77 x C:4,17 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L9" s="167"/>
+      <c r="L9" s="168"/>
       <c r="N9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>061196032</v>
@@ -19523,7 +19314,7 @@
       <c r="R9" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="S9" s="167"/>
+      <c r="S9" s="168"/>
       <c r="U9" s="7">
         <v>5</v>
       </c>
@@ -19576,7 +19367,7 @@
         <f t="shared" si="1"/>
         <v>A:2,72 x C:4,56 x L:2,50-3,30 x P:5.600kg</v>
       </c>
-      <c r="L10" s="167"/>
+      <c r="L10" s="168"/>
       <c r="N10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>030712609</v>
@@ -19593,7 +19384,7 @@
       <c r="R10" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="S10" s="167"/>
+      <c r="S10" s="168"/>
       <c r="V10" s="8" t="s">
         <v>555</v>
       </c>
@@ -19640,7 +19431,7 @@
         <f t="shared" si="1"/>
         <v>A:2,72 x C:4,56 x L:2,60-3,30 x P:6.300kg</v>
       </c>
-      <c r="L11" s="167"/>
+      <c r="L11" s="168"/>
       <c r="N11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>018492099</v>
@@ -19657,7 +19448,7 @@
       <c r="R11" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="S11" s="167"/>
+      <c r="S11" s="168"/>
       <c r="U11" s="7">
         <v>6</v>
       </c>
@@ -19710,7 +19501,7 @@
         <f t="shared" si="1"/>
         <v>A:2,72 x C:4,56 x L:2,70-3,35 x P:6.800kg</v>
       </c>
-      <c r="L12" s="167"/>
+      <c r="L12" s="168"/>
       <c r="N12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>038052835</v>
@@ -19727,7 +19518,7 @@
       <c r="R12" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="S12" s="167"/>
+      <c r="S12" s="168"/>
       <c r="V12" s="8" t="s">
         <v>569</v>
       </c>
@@ -19774,7 +19565,7 @@
         <f t="shared" si="1"/>
         <v>A:2,74 x C:4,92 x L:2,87-3,45 x P:7.200kg</v>
       </c>
-      <c r="L13" s="167"/>
+      <c r="L13" s="168"/>
       <c r="N13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>055246903</v>
@@ -19791,7 +19582,7 @@
       <c r="R13" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="S13" s="167"/>
+      <c r="S13" s="168"/>
       <c r="U13" s="7">
         <v>7</v>
       </c>
@@ -19844,7 +19635,7 @@
         <f t="shared" si="1"/>
         <v>A:2,28 x C:4,56 x L:2,87-3,45 x P:7.500kg</v>
       </c>
-      <c r="L14" s="167"/>
+      <c r="L14" s="168"/>
       <c r="N14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -19861,7 +19652,7 @@
       <c r="R14" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="S14" s="167"/>
+      <c r="S14" s="168"/>
       <c r="V14" s="8" t="s">
         <v>583</v>
       </c>
@@ -19908,7 +19699,7 @@
         <f t="shared" si="1"/>
         <v>A:2,86 x C:4,96 x L:2,70-3,30 x P:7.800kg</v>
       </c>
-      <c r="L15" s="167"/>
+      <c r="L15" s="168"/>
       <c r="N15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -19925,7 +19716,7 @@
       <c r="R15" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="S15" s="167"/>
+      <c r="S15" s="168"/>
       <c r="U15" s="7">
         <v>8</v>
       </c>
@@ -19978,7 +19769,7 @@
         <f t="shared" si="1"/>
         <v>A:2,93 x C:4,65 x L:2,70-3,30 x P:8.500kg</v>
       </c>
-      <c r="L16" s="167"/>
+      <c r="L16" s="168"/>
       <c r="N16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -19995,7 +19786,7 @@
       <c r="R16" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="S16" s="167"/>
+      <c r="S16" s="168"/>
       <c r="V16" s="8" t="s">
         <v>595</v>
       </c>
@@ -20042,7 +19833,7 @@
         <f t="shared" si="1"/>
         <v>A:2,93 x C:5,42 x L:2,74-3,40 x P:8.500kg</v>
       </c>
-      <c r="L17" s="167"/>
+      <c r="L17" s="168"/>
       <c r="N17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -20059,7 +19850,7 @@
       <c r="R17" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="S17" s="167"/>
+      <c r="S17" s="168"/>
       <c r="V17" s="7"/>
       <c r="W17" s="54" t="s">
         <v>601</v>
@@ -20107,7 +19898,7 @@
         <f t="shared" si="1"/>
         <v>A:3,30 x C:5,24 x L:2,74-3,40 x P:9.550kg</v>
       </c>
-      <c r="L18" s="167"/>
+      <c r="L18" s="168"/>
       <c r="N18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -20124,7 +19915,7 @@
       <c r="R18" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="S18" s="167"/>
+      <c r="S18" s="168"/>
       <c r="V18" s="7"/>
       <c r="W18" s="54" t="s">
         <v>607</v>
@@ -20174,7 +19965,7 @@
         <f t="shared" si="1"/>
         <v>A:2,98 x C:5,42 x L:2,95-3,60 x P:9.800kg</v>
       </c>
-      <c r="L19" s="167"/>
+      <c r="L19" s="168"/>
       <c r="N19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -20191,7 +19982,7 @@
       <c r="R19" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="S19" s="167"/>
+      <c r="S19" s="168"/>
       <c r="V19" s="7"/>
       <c r="Y19" s="56" t="s">
         <v>615</v>
@@ -20238,7 +20029,7 @@
         <f t="shared" si="1"/>
         <v>A:3,30 x C:5,24 x L:2,95-3,60 x P:10.650kg</v>
       </c>
-      <c r="L20" s="167"/>
+      <c r="L20" s="168"/>
       <c r="N20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>006208105</v>
@@ -20255,7 +20046,7 @@
       <c r="R20" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="S20" s="167"/>
+      <c r="S20" s="168"/>
       <c r="V20" s="19" t="s">
         <v>620</v>
       </c>
@@ -20622,11 +20413,11 @@
         <v>657</v>
       </c>
       <c r="W26" s="7"/>
-      <c r="Y26" s="168" t="s">
+      <c r="Y26" s="169" t="s">
         <v>658</v>
       </c>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="20">
@@ -28061,10 +27852,10 @@
       <c r="G13" s="111"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="K15" s="170" t="s">
+      <c r="K15" s="171" t="s">
         <v>1215</v>
       </c>
-      <c r="L15" s="170"/>
+      <c r="L15" s="171"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="130" t="s">
@@ -28365,7 +28156,7 @@
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="90"/>
-      <c r="K33" s="169" t="s">
+      <c r="K33" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L33" s="139" t="s">
@@ -28373,7 +28164,7 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="14.45">
-      <c r="K34" s="169"/>
+      <c r="K34" s="170"/>
       <c r="L34" s="137" t="s">
         <v>248</v>
       </c>
@@ -28407,10 +28198,10 @@
       <c r="L38" s="142"/>
     </row>
     <row r="39" spans="2:12">
-      <c r="K39" s="170" t="s">
+      <c r="K39" s="171" t="s">
         <v>1240</v>
       </c>
-      <c r="L39" s="170"/>
+      <c r="L39" s="171"/>
     </row>
     <row r="40" spans="2:12">
       <c r="K40" s="139" t="s">
@@ -28477,7 +28268,7 @@
       </c>
     </row>
     <row r="49" spans="11:12">
-      <c r="K49" s="169" t="s">
+      <c r="K49" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L49" s="139" t="s">
@@ -28485,7 +28276,7 @@
       </c>
     </row>
     <row r="50" spans="11:12" ht="14.45">
-      <c r="K50" s="169"/>
+      <c r="K50" s="170"/>
       <c r="L50" s="137" t="s">
         <v>278</v>
       </c>
@@ -28519,10 +28310,10 @@
       <c r="L54" s="142"/>
     </row>
     <row r="55" spans="11:12">
-      <c r="K55" s="170" t="s">
+      <c r="K55" s="171" t="s">
         <v>1244</v>
       </c>
-      <c r="L55" s="170"/>
+      <c r="L55" s="171"/>
     </row>
     <row r="56" spans="11:12">
       <c r="K56" s="139" t="s">
@@ -28588,7 +28379,7 @@
       </c>
     </row>
     <row r="65" spans="11:12">
-      <c r="K65" s="169" t="s">
+      <c r="K65" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L65" s="139" t="s">
@@ -28596,7 +28387,7 @@
       </c>
     </row>
     <row r="66" spans="11:12" ht="14.45">
-      <c r="K66" s="169"/>
+      <c r="K66" s="170"/>
       <c r="L66" s="137" t="s">
         <v>286</v>
       </c>
@@ -28630,10 +28421,10 @@
       <c r="L70" s="142"/>
     </row>
     <row r="71" spans="11:12">
-      <c r="K71" s="170" t="s">
+      <c r="K71" s="171" t="s">
         <v>1248</v>
       </c>
-      <c r="L71" s="170"/>
+      <c r="L71" s="171"/>
     </row>
     <row r="72" spans="11:12">
       <c r="K72" s="139" t="s">
@@ -28700,7 +28491,7 @@
       </c>
     </row>
     <row r="81" spans="2:12">
-      <c r="K81" s="169" t="s">
+      <c r="K81" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L81" s="139" t="s">
@@ -28708,7 +28499,7 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="14.45">
-      <c r="K82" s="169"/>
+      <c r="K82" s="170"/>
       <c r="L82" s="146" t="s">
         <v>294</v>
       </c>
@@ -28742,10 +28533,10 @@
       <c r="L86" s="142"/>
     </row>
     <row r="87" spans="2:12">
-      <c r="K87" s="170" t="s">
+      <c r="K87" s="171" t="s">
         <v>1251</v>
       </c>
-      <c r="L87" s="170"/>
+      <c r="L87" s="171"/>
     </row>
     <row r="88" spans="2:12">
       <c r="K88" s="139" t="s">
@@ -28874,7 +28665,7 @@
       </c>
     </row>
     <row r="101" spans="6:12">
-      <c r="K101" s="169" t="s">
+      <c r="K101" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L101" s="139" t="s">
@@ -28882,7 +28673,7 @@
       </c>
     </row>
     <row r="102" spans="6:12" ht="20.25" customHeight="1">
-      <c r="K102" s="169"/>
+      <c r="K102" s="170"/>
       <c r="L102" s="146" t="s">
         <v>297</v>
       </c>
@@ -28918,10 +28709,10 @@
     <row r="107" spans="6:12">
       <c r="F107" s="123"/>
       <c r="G107" s="125"/>
-      <c r="K107" s="170" t="s">
+      <c r="K107" s="171" t="s">
         <v>1254</v>
       </c>
-      <c r="L107" s="170"/>
+      <c r="L107" s="171"/>
     </row>
     <row r="108" spans="6:12">
       <c r="F108" s="122"/>
@@ -29030,7 +28821,7 @@
       </c>
     </row>
     <row r="125" spans="11:12" ht="14.45">
-      <c r="K125" s="169" t="s">
+      <c r="K125" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L125" s="136" t="s">
@@ -29038,7 +28829,7 @@
       </c>
     </row>
     <row r="126" spans="11:12" ht="14.45">
-      <c r="K126" s="169"/>
+      <c r="K126" s="170"/>
       <c r="L126" s="146" t="s">
         <v>1256</v>
       </c>
@@ -29072,10 +28863,10 @@
       <c r="L130" s="142"/>
     </row>
     <row r="131" spans="11:12">
-      <c r="K131" s="170" t="s">
+      <c r="K131" s="171" t="s">
         <v>1257</v>
       </c>
-      <c r="L131" s="170"/>
+      <c r="L131" s="171"/>
     </row>
     <row r="132" spans="11:12">
       <c r="K132" s="139" t="s">
@@ -29182,7 +28973,7 @@
       </c>
     </row>
     <row r="149" spans="11:12" ht="14.45">
-      <c r="K149" s="169" t="s">
+      <c r="K149" s="170" t="s">
         <v>1234</v>
       </c>
       <c r="L149" s="136" t="s">
@@ -29190,7 +28981,7 @@
       </c>
     </row>
     <row r="150" spans="11:12" ht="14.45">
-      <c r="K150" s="169"/>
+      <c r="K150" s="170"/>
       <c r="L150" s="137" t="s">
         <v>305</v>
       </c>
@@ -29406,28 +29197,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="97552bd7-0050-4a40-a3e9-7eed99743892" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100165C9838A8BE0240B14ECB57A7D15C1B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b1e3a46b5aabf9910121de6df837e2f4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb" xmlns:ns3="97552bd7-0050-4a40-a3e9-7eed99743892" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8bcdd80e11db0abec65d927b8f8cf5e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100165C9838A8BE0240B14ECB57A7D15C1B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="38153ec566ff0f4bf479b7a6c9088949">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb" xmlns:ns3="97552bd7-0050-4a40-a3e9-7eed99743892" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05d834da23fbd08f588ccb0f92beec26" ns2:_="" ns3:_="">
     <xsd:import namespace="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb"/>
     <xsd:import namespace="97552bd7-0050-4a40-a3e9-7eed99743892"/>
     <xsd:element name="properties">
@@ -29620,8 +29391,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="97552bd7-0050-4a40-a3e9-7eed99743892" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245723BA-9722-4970-B575-35956A766521}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F68AB9D-41AE-4D08-9FF6-738980CEC4EB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29629,5 +29420,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4045654C-FB36-49BB-9133-FC21DAF655AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245723BA-9722-4970-B575-35956A766521}"/>
 </file>
--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3060" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13FBB986-DE6C-425B-B9A5-50025A215E63}"/>
+  <xr:revisionPtr revIDLastSave="3173" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383B76B1-8ECE-4AE5-80CF-7B4DA89AD69D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="DEMO NOV" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CUSTOS!$P$12:$Q$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CUSTOS!$S$2:$T$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FRETE MÁQUINAS'!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">UTIL!$N$1:$S$207</definedName>
   </definedNames>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="1378">
   <si>
     <t>ITEM</t>
   </si>
@@ -6075,7 +6075,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6542,9 +6542,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
@@ -8423,7 +8420,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -8433,22 +8430,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR" b="1">
+              <a:rPr lang="pt-BR" sz="1200" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>FRETE</a:t>
+              <a:t>CUSTOS </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-BR" b="1" baseline="0">
+              <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> DE MÁQUINAS 2026 - META VS REAL</a:t>
+              <a:t>MÁQUINAS 2026 - META VS REAL</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-BR" b="1">
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -8456,6 +8453,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25765642596617744"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8469,7 +8474,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -8492,7 +8497,7 @@
           <c:x val="2.3668800659176863E-2"/>
           <c:y val="0"/>
           <c:w val="0.95658180382869551"/>
-          <c:h val="0.80141674982025302"/>
+          <c:h val="0.90018211681837745"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8524,7 +8529,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="0"/>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -8690,7 +8695,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="0"/>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="F2C400"/>
@@ -9062,6 +9067,56 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1200" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CUSTOS MÁQUINAS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 2026 - SOMA TOTAL DOS TRANSPORTES DE MÁQUINA</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11888434518192303"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9093,7 +9148,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6682815953447781E-2"/>
+          <c:y val="9.5680018707635095E-2"/>
+          <c:w val="0.95024913329684058"/>
+          <c:h val="0.8077436648869506"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -9123,8 +9188,11 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -9137,12 +9205,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9152,7 +9217,7 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -9258,8 +9323,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8420410112589264E-17"/>
+                  <c:y val="-2.1500689587322156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D9B3-49EA-B7F1-760E1B6156DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="F2C400"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -9272,12 +9362,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9287,7 +9374,7 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -9297,21 +9384,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -9377,7 +9450,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="10"/>
         <c:overlap val="100"/>
         <c:axId val="1930699871"/>
         <c:axId val="1406328752"/>
@@ -9400,9 +9473,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="3175" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9413,7 +9486,9 @@
           </c:marker>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -9426,12 +9501,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9566,12 +9638,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9592,24 +9661,10 @@
         <c:axId val="1406328752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20000"/>
+          <c:max val="40000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9626,7 +9681,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9668,7 +9723,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9714,6 +9769,66 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F2C400"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9743,6 +9858,1295 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TRANPORTE DE PEÇAS MOTOBOY - PC 2026</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17948336060719952"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.79877536061031207"/>
+          <c:h val="0.8190277777777778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUSTOS!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="275317"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$M$3:$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>PONTA GROSSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CASTRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GUARAPUAVA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TIBAGI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PRUDENTÓPOLIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ARAPOTI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IRATI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>QUEDAS DO IGUAÇU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9145.6200000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDEF-4216-A054-0FCA7544EECB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="1978659183"/>
+        <c:axId val="1978661103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1978659183"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1978661103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1978661103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1978659183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TRANPORTE DE PEÇAS TRANSPORTADORAS - PC 2026</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17948336060719952"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.79877536061031207"/>
+          <c:h val="0.8190277777777778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUSTOS!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$M$3:$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>PONTA GROSSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CASTRO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GUARAPUAVA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TIBAGI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PRUDENTÓPOLIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ARAPOTI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IRATI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>QUEDAS DO IGUAÇU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FEB-4558-A3F0-0D0E8F018C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="1978659183"/>
+        <c:axId val="1978661103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1978659183"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1978661103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1978661103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1978659183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CUSTOS COM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> MUNCK - 2026</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10597141496744349"/>
+          <c:y val="0.15101211725381883"/>
+          <c:w val="0.7582010097083276"/>
+          <c:h val="0.81552029699031525"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D662-4F3B-93CE-DE20BE889E79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-D662-4F3B-93CE-DE20BE889E79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D662-4F3B-93CE-DE20BE889E79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D662-4F3B-93CE-DE20BE889E79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D662-4F3B-93CE-DE20BE889E79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D662-4F3B-93CE-DE20BE889E79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13723363979266096"/>
+                  <c:y val="0.13317612991053046"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D662-4F3B-93CE-DE20BE889E79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2013433920761693"/>
+                  <c:y val="-9.5683375869187265E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D662-4F3B-93CE-DE20BE889E79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D662-4F3B-93CE-DE20BE889E79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D662-4F3B-93CE-DE20BE889E79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D662-4F3B-93CE-DE20BE889E79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D662-4F3B-93CE-DE20BE889E79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$S$3:$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>PRUDENTÓPOLIS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IRATI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CASTRO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PONTA GROSSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARAPOTI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TIBAGI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GUARAPUAVA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>QUEDAS DO IGUAÇU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D662-4F3B-93CE-DE20BE889E79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9828,6 +11232,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10875,6 +12399,1535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10882,13 +13935,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>78105</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>6667</xdr:rowOff>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>148591</xdr:rowOff>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10916,15 +13969,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
+      <xdr:colOff>306704</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>122872</xdr:rowOff>
+      <xdr:rowOff>21905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>122872</xdr:rowOff>
+      <xdr:colOff>1471084</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>49529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10944,6 +13997,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A129447F-2CED-6850-55D6-060D640E2500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1472565</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D42269-FCD0-4655-BEF2-BAE0B5B94E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1429172</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>21165</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57D220E-3F7B-63E3-996F-9B0C0D3CD2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12317,108 +15482,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FFBD44-21DD-42C8-9198-98D8084F877D}">
   <dimension ref="B1:T52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="172" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="172" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="172" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="176" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="176" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="176" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="176" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="176" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="172" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="171" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="171" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="171" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="175" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="175" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="175" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="175" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="175" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="171" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="141" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" style="141" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="172" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="172" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" style="172" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.44140625" style="172" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" style="172" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="172" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" style="172" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="172" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" style="172" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="172"/>
+    <col min="12" max="12" width="2.33203125" style="171" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="171" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="171" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.44140625" style="171" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" style="171" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="171" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" style="171" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="171" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" style="171" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="171"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="178" t="s">
+      <c r="D2" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="177" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="177" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="177" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="177" t="s">
         <v>138</v>
       </c>
       <c r="J2" s="142"/>
       <c r="K2" s="142"/>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="202" t="s">
+      <c r="N2" s="201" t="s">
         <v>413</v>
       </c>
-      <c r="P2" s="202" t="s">
+      <c r="P2" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="202" t="s">
+      <c r="Q2" s="201" t="s">
         <v>413</v>
       </c>
-      <c r="S2" s="167" t="s">
+      <c r="S2" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="167"/>
+      <c r="T2" s="201" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="176" t="s">
         <v>1370</v>
       </c>
-      <c r="D3" s="182">
+      <c r="D3" s="181">
         <v>1500</v>
       </c>
-      <c r="E3" s="182">
+      <c r="E3" s="181">
         <v>1850</v>
       </c>
-      <c r="F3" s="182">
+      <c r="F3" s="181">
         <v>2000</v>
       </c>
-      <c r="G3" s="182">
+      <c r="G3" s="181">
         <v>800</v>
       </c>
-      <c r="H3" s="182">
+      <c r="H3" s="181">
         <v>2200</v>
       </c>
-      <c r="I3" s="182">
+      <c r="I3" s="181">
         <v>3000</v>
       </c>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="M3" s="180" t="s">
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="M3" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="181">
+      <c r="N3" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12436,10 +15603,10 @@
 0)</f>
         <v>9145.6200000000008</v>
       </c>
-      <c r="P3" s="180" t="s">
+      <c r="P3" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="181">
+      <c r="Q3" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12457,10 +15624,10 @@
 0)</f>
         <v>7232</v>
       </c>
-      <c r="S3" s="180" t="s">
-        <v>139</v>
-      </c>
-      <c r="T3" s="181">
+      <c r="S3" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12480,39 +15647,39 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C4" s="204" t="s">
+      <c r="C4" s="203" t="s">
         <v>1376</v>
       </c>
-      <c r="D4" s="205">
+      <c r="D4" s="204">
         <f>AVERAGE(D5:D6)</f>
         <v>2215.0812500000002</v>
       </c>
-      <c r="E4" s="205">
+      <c r="E4" s="204">
         <f t="shared" ref="E4:I4" si="0">AVERAGE(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="205">
+      <c r="F4" s="204">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="G4" s="205">
+      <c r="G4" s="204">
         <f t="shared" si="0"/>
         <v>284.375</v>
       </c>
-      <c r="H4" s="205">
+      <c r="H4" s="204">
         <f t="shared" si="0"/>
         <v>759.375</v>
       </c>
-      <c r="I4" s="205">
+      <c r="I4" s="204">
         <f t="shared" si="0"/>
         <v>1043.75</v>
       </c>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="M4" s="180" t="s">
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="M4" s="179" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="181">
+      <c r="N4" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12530,10 +15697,10 @@
 0)</f>
         <v>4770</v>
       </c>
-      <c r="P4" s="180" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="181">
+      <c r="P4" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12549,12 +15716,12 @@
     IF($P4="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>850</v>
-      </c>
-      <c r="S4" s="180" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" s="181">
+        <v>1100</v>
+      </c>
+      <c r="S4" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12570,43 +15737,43 @@
     IF($P4="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="179" t="s">
         <v>1372</v>
       </c>
-      <c r="D5" s="181">
+      <c r="D5" s="180">
         <f>AVERAGE(D14:D21)</f>
         <v>2426.25</v>
       </c>
-      <c r="E5" s="181">
+      <c r="E5" s="180">
         <f>AVERAGE(E14:E21)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="181">
+      <c r="F5" s="180">
         <f>AVERAGE(F14:F21)</f>
         <v>264</v>
       </c>
-      <c r="G5" s="181">
+      <c r="G5" s="180">
         <f>AVERAGE(G14:G21)</f>
         <v>187.5</v>
       </c>
-      <c r="H5" s="181">
+      <c r="H5" s="180">
         <f>AVERAGE(H14:H21)</f>
         <v>762.5</v>
       </c>
-      <c r="I5" s="181">
+      <c r="I5" s="180">
         <f>AVERAGE(I14:I21)</f>
         <v>950</v>
       </c>
-      <c r="J5" s="216"/>
-      <c r="K5" s="192"/>
-      <c r="M5" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="181">
+      <c r="J5" s="215"/>
+      <c r="K5" s="191"/>
+      <c r="M5" s="179" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12622,12 +15789,12 @@
     IF($M5="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>990</v>
-      </c>
-      <c r="P5" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="181">
+        <v>1800</v>
+      </c>
+      <c r="P5" s="179" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12645,10 +15812,10 @@
 0)</f>
         <v>1100</v>
       </c>
-      <c r="S5" s="180" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" s="181">
+      <c r="S5" s="179" t="s">
+        <v>140</v>
+      </c>
+      <c r="T5" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12664,43 +15831,43 @@
     IF($P5="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>1800</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="179" t="s">
         <v>1373</v>
       </c>
-      <c r="D6" s="181">
+      <c r="D6" s="180">
         <f>AVERAGE(D22:D29)</f>
         <v>2003.9124999999999</v>
       </c>
-      <c r="E6" s="181">
+      <c r="E6" s="180">
         <f>AVERAGE(E22:E29)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="181">
+      <c r="F6" s="180">
         <f>AVERAGE(F22:F29)</f>
         <v>1200</v>
       </c>
-      <c r="G6" s="181">
+      <c r="G6" s="180">
         <f>AVERAGE(G22:G29)</f>
         <v>381.25</v>
       </c>
-      <c r="H6" s="181">
+      <c r="H6" s="180">
         <f>AVERAGE(H22:H29)</f>
         <v>756.25</v>
       </c>
-      <c r="I6" s="181">
+      <c r="I6" s="180">
         <f>AVERAGE(I22:I29)</f>
         <v>1137.5</v>
       </c>
-      <c r="J6" s="216"/>
-      <c r="K6" s="192"/>
-      <c r="M6" s="180" t="s">
+      <c r="J6" s="215"/>
+      <c r="K6" s="191"/>
+      <c r="M6" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="N6" s="181">
+      <c r="N6" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12718,10 +15885,10 @@
 0)</f>
         <v>1760</v>
       </c>
-      <c r="P6" s="180" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="181">
+      <c r="P6" s="179" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12737,12 +15904,12 @@
     IF($P6="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>830</v>
-      </c>
-      <c r="S6" s="180" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="181">
+        <v>850</v>
+      </c>
+      <c r="S6" s="179" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12762,10 +15929,10 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="M7" s="180" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" s="181">
+      <c r="M7" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12781,12 +15948,12 @@
     IF($M7="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>360</v>
-      </c>
-      <c r="P7" s="180" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="181">
+        <v>1095</v>
+      </c>
+      <c r="P7" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12802,12 +15969,12 @@
     IF($P7="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>550</v>
-      </c>
-      <c r="S7" s="180" t="s">
-        <v>144</v>
-      </c>
-      <c r="T7" s="181">
+        <v>830</v>
+      </c>
+      <c r="S7" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12823,33 +15990,33 @@
     IF($P7="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>1262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="208" t="s">
+      <c r="C8" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="222" t="s">
+      <c r="E8" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="222" t="s">
+      <c r="F8" s="221" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="222" t="s">
+      <c r="G8" s="221" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="222" t="s">
+      <c r="H8" s="221" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="179"/>
-      <c r="M8" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" s="181">
+      <c r="I8" s="178"/>
+      <c r="M8" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12865,12 +16032,12 @@
     IF($M8="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>1095</v>
-      </c>
-      <c r="P8" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="181">
+        <v>990</v>
+      </c>
+      <c r="P8" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12888,10 +16055,10 @@
 0)</f>
         <v>550</v>
       </c>
-      <c r="S8" s="180" t="s">
-        <v>145</v>
-      </c>
-      <c r="T8" s="181">
+      <c r="S8" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12907,38 +16074,38 @@
     IF($P8="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>0</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="217" t="s">
         <v>1374</v>
       </c>
-      <c r="D9" s="219">
+      <c r="D9" s="218">
         <f>SUM(D14:D21)</f>
         <v>19410</v>
       </c>
-      <c r="E9" s="219">
+      <c r="E9" s="218">
         <f t="shared" ref="E9:H9" si="1">SUM(E14:E21)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="219">
+      <c r="F9" s="218">
         <f t="shared" si="1"/>
         <v>2112</v>
       </c>
-      <c r="G9" s="219">
+      <c r="G9" s="218">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="H9" s="219">
+      <c r="H9" s="218">
         <f>SUM(H14:H21)</f>
         <v>6100</v>
       </c>
-      <c r="I9" s="217"/>
-      <c r="M9" s="180" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="181">
+      <c r="I9" s="216"/>
+      <c r="M9" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12954,12 +16121,12 @@
     IF($M9="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>1800</v>
-      </c>
-      <c r="P9" s="180" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q9" s="181">
+        <v>360</v>
+      </c>
+      <c r="P9" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12975,12 +16142,12 @@
     IF($P9="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>1100</v>
-      </c>
-      <c r="S9" s="180" t="s">
+        <v>550</v>
+      </c>
+      <c r="S9" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="T9" s="181">
+      <c r="T9" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -12996,38 +16163,38 @@
     IF($P9="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="217" t="s">
         <v>1375</v>
       </c>
-      <c r="D10" s="219">
+      <c r="D10" s="218">
         <f>SUM(D22:D29)</f>
         <v>16031.3</v>
       </c>
-      <c r="E10" s="219">
+      <c r="E10" s="218">
         <f t="shared" ref="E10:H10" si="2">SUM(E22:E29)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="219">
+      <c r="F10" s="218">
         <f t="shared" si="2"/>
         <v>9600</v>
       </c>
-      <c r="G10" s="219">
+      <c r="G10" s="218">
         <f t="shared" si="2"/>
         <v>3050</v>
       </c>
-      <c r="H10" s="219">
+      <c r="H10" s="218">
         <f t="shared" si="2"/>
         <v>6050</v>
       </c>
-      <c r="I10" s="217"/>
-      <c r="M10" s="180" t="s">
+      <c r="I10" s="216"/>
+      <c r="M10" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="181">
+      <c r="N10" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -13045,10 +16212,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="180" t="s">
+      <c r="P10" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="Q10" s="181">
+      <c r="Q10" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -13066,10 +16233,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="180" t="s">
+      <c r="S10" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="T10" s="181">
+      <c r="T10" s="180">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -13089,30 +16256,30 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="219" t="s">
         <v>1377</v>
       </c>
-      <c r="D11" s="221">
+      <c r="D11" s="220">
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!D8)</f>
         <v>49</v>
       </c>
-      <c r="E11" s="221">
+      <c r="E11" s="220">
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!E8)</f>
         <v>2</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="220">
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!F8)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="221">
+      <c r="G11" s="220">
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!G8)</f>
         <v>13</v>
       </c>
-      <c r="H11" s="221">
+      <c r="H11" s="220">
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!H8)</f>
         <v>15</v>
       </c>
-      <c r="O11" s="183"/>
+      <c r="O11" s="182"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="M12" s="141" t="s">
@@ -13127,49 +16294,49 @@
       <c r="Q12" s="141" t="s">
         <v>413</v>
       </c>
-      <c r="S12" s="189" t="s">
+      <c r="S12" s="188" t="s">
         <v>1365</v>
       </c>
-      <c r="T12" s="190">
+      <c r="T12" s="189">
         <f>SUM(T13:T19)</f>
         <v>5853.79</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="210" t="s">
+      <c r="C13" s="209" t="s">
         <v>1369</v>
       </c>
-      <c r="D13" s="210" t="s">
+      <c r="D13" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="210" t="s">
+      <c r="E13" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="210" t="s">
+      <c r="F13" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="210" t="s">
+      <c r="G13" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="210" t="s">
+      <c r="H13" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="210" t="s">
+      <c r="I13" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="210" t="s">
+      <c r="J13" s="209" t="s">
         <v>1368</v>
       </c>
-      <c r="K13" s="203" t="s">
+      <c r="K13" s="202" t="s">
         <v>1371</v>
       </c>
-      <c r="M13" s="172" t="s">
+      <c r="M13" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="N13" s="184">
+      <c r="N13" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M13,
@@ -13178,10 +16345,10 @@
 0)</f>
         <v>11420</v>
       </c>
-      <c r="P13" s="172" t="s">
+      <c r="P13" s="171" t="s">
         <v>1289</v>
       </c>
-      <c r="Q13" s="184">
+      <c r="Q13" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P13,
@@ -13190,21 +16357,21 @@
 0)</f>
         <v>6190.03</v>
       </c>
-      <c r="S13" s="185" t="s">
+      <c r="S13" s="184" t="s">
         <v>148</v>
       </c>
-      <c r="T13" s="181">
+      <c r="T13" s="180">
         <v>5633.04</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="198" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="200">
+      <c r="D14" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13227,7 +16394,7 @@
 0)</f>
         <v>2634</v>
       </c>
-      <c r="E14" s="200">
+      <c r="E14" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13250,7 +16417,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="200">
+      <c r="F14" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13273,7 +16440,7 @@
 0)</f>
         <v>2112</v>
       </c>
-      <c r="G14" s="200">
+      <c r="G14" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13296,7 +16463,7 @@
 0)</f>
         <v>700</v>
       </c>
-      <c r="H14" s="200">
+      <c r="H14" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13319,22 +16486,22 @@
 0)</f>
         <v>1950</v>
       </c>
-      <c r="I14" s="200">
+      <c r="I14" s="199">
         <f>SUM(G14:H14)</f>
         <v>2650</v>
       </c>
-      <c r="J14" s="200">
+      <c r="J14" s="199">
         <f>SUM(D14:H14)</f>
         <v>7396</v>
       </c>
-      <c r="K14" s="209">
+      <c r="K14" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C14,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>14</v>
       </c>
-      <c r="M14" s="172" t="s">
+      <c r="M14" s="171" t="s">
         <v>500</v>
       </c>
-      <c r="N14" s="184">
+      <c r="N14" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M14,
@@ -13343,10 +16510,10 @@
 0)</f>
         <v>2390</v>
       </c>
-      <c r="P14" s="172" t="s">
+      <c r="P14" s="171" t="s">
         <v>1292</v>
       </c>
-      <c r="Q14" s="184">
+      <c r="Q14" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P14,
@@ -13355,21 +16522,21 @@
 0)</f>
         <v>5580</v>
       </c>
-      <c r="S14" s="185" t="s">
+      <c r="S14" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="T14" s="186">
+      <c r="T14" s="185">
         <v>87.62</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="198" t="s">
+      <c r="B15" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C15" s="199" t="s">
+      <c r="C15" s="198" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="200">
+      <c r="D15" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13392,7 +16559,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="200">
+      <c r="E15" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13415,7 +16582,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="200">
+      <c r="F15" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13438,7 +16605,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="200">
+      <c r="G15" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13461,7 +16628,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="200">
+      <c r="H15" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13484,22 +16651,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="200">
+      <c r="I15" s="199">
         <f t="shared" ref="I15:I21" si="3">SUM(G15:H15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="201">
+      <c r="J15" s="200">
         <f t="shared" ref="J15:J41" si="4">SUM(D15:H15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="209">
+      <c r="K15" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C15,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="172" t="s">
+      <c r="M15" s="171" t="s">
         <v>477</v>
       </c>
-      <c r="N15" s="184">
+      <c r="N15" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M15,
@@ -13508,10 +16675,10 @@
 0)</f>
         <v>1860</v>
       </c>
-      <c r="P15" s="172" t="s">
+      <c r="P15" s="171" t="s">
         <v>1349</v>
       </c>
-      <c r="Q15" s="184">
+      <c r="Q15" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P15,
@@ -13520,21 +16687,21 @@
 0)</f>
         <v>1342.59</v>
       </c>
-      <c r="S15" s="185" t="s">
+      <c r="S15" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="T15" s="186">
+      <c r="T15" s="185">
         <v>133.13</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="198" t="s">
+      <c r="B16" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13557,7 +16724,7 @@
 0)</f>
         <v>8544</v>
       </c>
-      <c r="E16" s="200">
+      <c r="E16" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13580,7 +16747,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13603,7 +16770,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="200">
+      <c r="G16" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13626,7 +16793,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="200">
+      <c r="H16" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13649,22 +16816,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="200">
+      <c r="I16" s="199">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="201">
+      <c r="J16" s="200">
         <f t="shared" si="4"/>
         <v>8544</v>
       </c>
-      <c r="K16" s="209">
+      <c r="K16" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C16,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>5</v>
       </c>
-      <c r="M16" s="172" t="s">
+      <c r="M16" s="171" t="s">
         <v>1360</v>
       </c>
-      <c r="N16" s="184">
+      <c r="N16" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M16,
@@ -13673,10 +16840,10 @@
 0)</f>
         <v>1770</v>
       </c>
-      <c r="P16" s="172" t="s">
+      <c r="P16" s="171" t="s">
         <v>1291</v>
       </c>
-      <c r="Q16" s="184">
+      <c r="Q16" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P16,
@@ -13685,19 +16852,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="185" t="s">
+      <c r="S16" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="186"/>
+      <c r="T16" s="185"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="198" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13720,7 +16887,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13743,7 +16910,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13766,7 +16933,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13789,7 +16956,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="200">
+      <c r="H17" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13812,22 +16979,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="200">
+      <c r="I17" s="199">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="201">
+      <c r="J17" s="200">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="209">
+      <c r="K17" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C17,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="172" t="s">
+      <c r="M17" s="171" t="s">
         <v>472</v>
       </c>
-      <c r="N17" s="184">
+      <c r="N17" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M17,
@@ -13836,10 +17003,10 @@
 0)</f>
         <v>880</v>
       </c>
-      <c r="P17" s="172" t="s">
+      <c r="P17" s="171" t="s">
         <v>1290</v>
       </c>
-      <c r="Q17" s="184">
+      <c r="Q17" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P17,
@@ -13848,19 +17015,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="185" t="s">
+      <c r="S17" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="T17" s="186"/>
+      <c r="T17" s="185"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C18" s="199" t="s">
+      <c r="C18" s="198" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="200">
+      <c r="D18" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13883,7 +17050,7 @@
 0)</f>
         <v>8232</v>
       </c>
-      <c r="E18" s="200">
+      <c r="E18" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13906,7 +17073,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="200">
+      <c r="F18" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13929,7 +17096,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="200">
+      <c r="G18" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13952,7 +17119,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="200">
+      <c r="H18" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -13975,22 +17142,22 @@
 0)</f>
         <v>1950</v>
       </c>
-      <c r="I18" s="200">
+      <c r="I18" s="199">
         <f t="shared" si="3"/>
         <v>1950</v>
       </c>
-      <c r="J18" s="201">
+      <c r="J18" s="200">
         <f t="shared" si="4"/>
         <v>10182</v>
       </c>
-      <c r="K18" s="209">
+      <c r="K18" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C18,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>8</v>
       </c>
-      <c r="M18" s="172" t="s">
+      <c r="M18" s="171" t="s">
         <v>457</v>
       </c>
-      <c r="N18" s="184">
+      <c r="N18" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M18,
@@ -13999,10 +17166,10 @@
 0)</f>
         <v>550</v>
       </c>
-      <c r="P18" s="172" t="s">
+      <c r="P18" s="171" t="s">
         <v>1293</v>
       </c>
-      <c r="Q18" s="184">
+      <c r="Q18" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P18,
@@ -14011,19 +17178,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="185" t="s">
+      <c r="S18" s="184" t="s">
         <v>1364</v>
       </c>
-      <c r="T18" s="186"/>
+      <c r="T18" s="185"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C19" s="199" t="s">
+      <c r="C19" s="198" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14046,7 +17213,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="200">
+      <c r="E19" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14069,7 +17236,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="200">
+      <c r="F19" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14092,7 +17259,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="200">
+      <c r="G19" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14115,7 +17282,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="200">
+      <c r="H19" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14138,22 +17305,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="200">
+      <c r="I19" s="199">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="201">
+      <c r="J19" s="200">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="209">
+      <c r="K19" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C19,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="172" t="s">
+      <c r="M19" s="171" t="s">
         <v>445</v>
       </c>
-      <c r="N19" s="184">
+      <c r="N19" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M19,
@@ -14162,10 +17329,10 @@
 0)</f>
         <v>150</v>
       </c>
-      <c r="P19" s="172" t="s">
+      <c r="P19" s="171" t="s">
         <v>1294</v>
       </c>
-      <c r="Q19" s="184">
+      <c r="Q19" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P19,
@@ -14174,19 +17341,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="185" t="s">
+      <c r="S19" s="184" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="186"/>
+      <c r="T19" s="185"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C20" s="199" t="s">
+      <c r="C20" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="200">
+      <c r="D20" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14209,7 +17376,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="200">
+      <c r="E20" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14232,7 +17399,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="200">
+      <c r="F20" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14255,7 +17422,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="200">
+      <c r="G20" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14278,7 +17445,7 @@
 0)</f>
         <v>800</v>
       </c>
-      <c r="H20" s="200">
+      <c r="H20" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14301,22 +17468,22 @@
 0)</f>
         <v>2200</v>
       </c>
-      <c r="I20" s="200">
+      <c r="I20" s="199">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="J20" s="201">
+      <c r="J20" s="200">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="K20" s="209">
+      <c r="K20" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C20,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>2</v>
       </c>
-      <c r="M20" s="172" t="s">
+      <c r="M20" s="171" t="s">
         <v>1351</v>
       </c>
-      <c r="N20" s="184">
+      <c r="N20" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M20,
@@ -14325,10 +17492,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="172" t="s">
+      <c r="P20" s="171" t="s">
         <v>1295</v>
       </c>
-      <c r="Q20" s="184">
+      <c r="Q20" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P20,
@@ -14337,16 +17504,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="184"/>
+      <c r="T20" s="183"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="197" t="s">
         <v>1366</v>
       </c>
-      <c r="C21" s="199" t="s">
+      <c r="C21" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14369,7 +17536,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="200">
+      <c r="E21" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14392,7 +17559,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="200">
+      <c r="F21" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14415,7 +17582,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="200">
+      <c r="G21" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14438,7 +17605,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="200">
+      <c r="H21" s="199">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$E:$E,
@@ -14461,22 +17628,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="200">
+      <c r="I21" s="199">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J21" s="201">
+      <c r="J21" s="200">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="209">
+      <c r="K21" s="208">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C21,'FRETE MÁQUINAS'!$B:$B, "PROPRIO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="172" t="s">
+      <c r="M21" s="171" t="s">
         <v>639</v>
       </c>
-      <c r="N21" s="184">
+      <c r="N21" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M21,
@@ -14485,10 +17652,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="172" t="s">
+      <c r="P21" s="171" t="s">
         <v>1294</v>
       </c>
-      <c r="Q21" s="184">
+      <c r="Q21" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P21,
@@ -14497,21 +17664,21 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="185" t="s">
+      <c r="S21" s="184" t="s">
         <v>1283</v>
       </c>
-      <c r="T21" s="186">
+      <c r="T21" s="185">
         <v>6520</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="212" t="s">
+      <c r="C22" s="211" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="213">
+      <c r="D22" s="212">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14534,7 +17701,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="213">
+      <c r="E22" s="212">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14557,7 +17724,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="213">
+      <c r="F22" s="212">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14580,7 +17747,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="213">
+      <c r="G22" s="212">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14603,7 +17770,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="213">
+      <c r="H22" s="212">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14626,22 +17793,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="213">
+      <c r="I22" s="212">
         <f>SUM(G22:H22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="214">
+      <c r="J22" s="213">
         <f>SUM(D22:H22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="215">
+      <c r="K22" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C22,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="172" t="s">
+      <c r="M22" s="171" t="s">
         <v>645</v>
       </c>
-      <c r="N22" s="184">
+      <c r="N22" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M22,
@@ -14650,10 +17817,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="172" t="s">
+      <c r="P22" s="171" t="s">
         <v>1296</v>
       </c>
-      <c r="Q22" s="184">
+      <c r="Q22" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P22,
@@ -14662,19 +17829,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="185" t="s">
+      <c r="S22" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="T22" s="186"/>
+      <c r="T22" s="185"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="196" t="s">
+      <c r="B23" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="195">
+      <c r="D23" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14697,7 +17864,7 @@
 0)</f>
         <v>3662.3</v>
       </c>
-      <c r="E23" s="195">
+      <c r="E23" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14720,7 +17887,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="195">
+      <c r="F23" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14743,7 +17910,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="195">
+      <c r="G23" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14766,7 +17933,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="195">
+      <c r="H23" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14789,22 +17956,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="195">
+      <c r="I23" s="194">
         <f t="shared" ref="I23:I29" si="5">SUM(G23:H23)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="197">
+      <c r="J23" s="196">
         <f>SUM(D23:H23)</f>
         <v>3662.3</v>
       </c>
-      <c r="K23" s="215">
+      <c r="K23" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C23,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="172" t="s">
+      <c r="M23" s="171" t="s">
         <v>1352</v>
       </c>
-      <c r="N23" s="184">
+      <c r="N23" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M23,
@@ -14813,10 +17980,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="172" t="s">
+      <c r="P23" s="171" t="s">
         <v>1297</v>
       </c>
-      <c r="Q23" s="184">
+      <c r="Q23" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P23,
@@ -14825,19 +17992,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="185" t="s">
+      <c r="S23" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="T23" s="186"/>
+      <c r="T23" s="185"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="194" t="s">
+      <c r="C24" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="195">
+      <c r="D24" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14860,7 +18027,7 @@
 0)</f>
         <v>3270</v>
       </c>
-      <c r="E24" s="195">
+      <c r="E24" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14883,7 +18050,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="195">
+      <c r="F24" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14906,7 +18073,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="195">
+      <c r="G24" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14929,7 +18096,7 @@
 0)</f>
         <v>2400</v>
       </c>
-      <c r="H24" s="195">
+      <c r="H24" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -14952,22 +18119,22 @@
 0)</f>
         <v>5400</v>
       </c>
-      <c r="I24" s="195">
+      <c r="I24" s="194">
         <f t="shared" si="5"/>
         <v>7800</v>
       </c>
-      <c r="J24" s="197">
+      <c r="J24" s="196">
         <f>SUM(D24:H24)</f>
         <v>11070</v>
       </c>
-      <c r="K24" s="215">
+      <c r="K24" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C24,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>15</v>
       </c>
-      <c r="M24" s="172" t="s">
+      <c r="M24" s="171" t="s">
         <v>1353</v>
       </c>
-      <c r="N24" s="184">
+      <c r="N24" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M24,
@@ -14976,10 +18143,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="172" t="s">
+      <c r="P24" s="171" t="s">
         <v>1298</v>
       </c>
-      <c r="Q24" s="184">
+      <c r="Q24" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P24,
@@ -14988,16 +18155,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="184"/>
+      <c r="T24" s="183"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="196" t="s">
+      <c r="B25" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="195">
+      <c r="D25" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15020,7 +18187,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="195">
+      <c r="E25" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15043,7 +18210,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="195">
+      <c r="F25" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15066,7 +18233,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="195">
+      <c r="G25" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15089,7 +18256,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="195">
+      <c r="H25" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15112,22 +18279,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="195">
+      <c r="I25" s="194">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J25" s="197">
+      <c r="J25" s="196">
         <f>SUM(D25:H25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="215">
+      <c r="K25" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C25,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="172" t="s">
+      <c r="M25" s="171" t="s">
         <v>1354</v>
       </c>
-      <c r="N25" s="184">
+      <c r="N25" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M25,
@@ -15136,10 +18303,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="172" t="s">
+      <c r="P25" s="171" t="s">
         <v>1299</v>
       </c>
-      <c r="Q25" s="184">
+      <c r="Q25" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P25,
@@ -15148,16 +18315,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="184"/>
+      <c r="T25" s="183"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="195">
+      <c r="D26" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15180,7 +18347,7 @@
 0)</f>
         <v>2010</v>
       </c>
-      <c r="E26" s="195">
+      <c r="E26" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15203,7 +18370,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="195">
+      <c r="F26" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15226,7 +18393,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="195">
+      <c r="G26" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15249,7 +18416,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="195">
+      <c r="H26" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15272,22 +18439,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="195">
+      <c r="I26" s="194">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J26" s="197">
+      <c r="J26" s="196">
         <f>SUM(D26:H26)</f>
         <v>2010</v>
       </c>
-      <c r="K26" s="215">
+      <c r="K26" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C26,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>6</v>
       </c>
-      <c r="M26" s="172" t="s">
+      <c r="M26" s="171" t="s">
         <v>1355</v>
       </c>
-      <c r="N26" s="184">
+      <c r="N26" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M26,
@@ -15296,10 +18463,10 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="172" t="s">
+      <c r="P26" s="171" t="s">
         <v>1350</v>
       </c>
-      <c r="Q26" s="184">
+      <c r="Q26" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $P26,
@@ -15308,22 +18475,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="189" t="s">
+      <c r="S26" s="188" t="s">
         <v>1365</v>
       </c>
-      <c r="T26" s="190">
+      <c r="T26" s="189">
         <f>SUM(T27:T33)</f>
         <v>4425.79</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="196" t="s">
+      <c r="B27" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="194" t="s">
+      <c r="C27" s="193" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="195">
+      <c r="D27" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15346,7 +18513,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="195">
+      <c r="E27" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15369,7 +18536,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="195">
+      <c r="F27" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15392,7 +18559,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="195">
+      <c r="G27" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15415,7 +18582,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="195">
+      <c r="H27" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15438,22 +18605,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="195">
+      <c r="I27" s="194">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J27" s="197">
+      <c r="J27" s="196">
         <f>SUM(D27:H27)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="215">
+      <c r="K27" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C27,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="172" t="s">
+      <c r="M27" s="171" t="s">
         <v>824</v>
       </c>
-      <c r="N27" s="184">
+      <c r="N27" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M27,
@@ -15462,21 +18629,21 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="185" t="s">
+      <c r="S27" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="T27" s="181">
+      <c r="T27" s="180">
         <v>4175</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="194" t="s">
+      <c r="C28" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="195">
+      <c r="D28" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15499,7 +18666,7 @@
 0)</f>
         <v>7089</v>
       </c>
-      <c r="E28" s="195">
+      <c r="E28" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15522,7 +18689,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="195">
+      <c r="F28" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15545,7 +18712,7 @@
 0)</f>
         <v>9600</v>
       </c>
-      <c r="G28" s="195">
+      <c r="G28" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15568,7 +18735,7 @@
 0)</f>
         <v>650</v>
       </c>
-      <c r="H28" s="195">
+      <c r="H28" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15591,22 +18758,22 @@
 0)</f>
         <v>650</v>
       </c>
-      <c r="I28" s="195">
+      <c r="I28" s="194">
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="J28" s="197">
+      <c r="J28" s="196">
         <f>SUM(D28:H28)</f>
         <v>17989</v>
       </c>
-      <c r="K28" s="215">
+      <c r="K28" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C28,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>7</v>
       </c>
-      <c r="M28" s="172" t="s">
+      <c r="M28" s="171" t="s">
         <v>838</v>
       </c>
-      <c r="N28" s="184">
+      <c r="N28" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M28,
@@ -15615,19 +18782,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="185" t="s">
+      <c r="S28" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="T28" s="186"/>
+      <c r="T28" s="185"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="196" t="s">
+      <c r="B29" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="194" t="s">
+      <c r="C29" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="195">
+      <c r="D29" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15650,7 +18817,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="195">
+      <c r="E29" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15673,7 +18840,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="195">
+      <c r="F29" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15696,7 +18863,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="195">
+      <c r="G29" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15719,7 +18886,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="195">
+      <c r="H29" s="194">
         <f>IFERROR(
   SUMIFS(
     'FRETE MÁQUINAS'!$F:$F,
@@ -15742,22 +18909,22 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="195">
+      <c r="I29" s="194">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J29" s="197">
+      <c r="J29" s="196">
         <f>SUM(D29:H29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="215">
+      <c r="K29" s="214">
         <f>IFERROR(COUNTIFS( 'FRETE MÁQUINAS'!$R:$R, CUSTOS!C29,'FRETE MÁQUINAS'!$B:$B, "TERCEIRO*" ), 0)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="172" t="s">
+      <c r="M29" s="171" t="s">
         <v>844</v>
       </c>
-      <c r="N29" s="184">
+      <c r="N29" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M29,
@@ -15766,16 +18933,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="185" t="s">
+      <c r="S29" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="T29" s="186"/>
+      <c r="T29" s="185"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="M30" s="172" t="s">
+      <c r="M30" s="171" t="s">
         <v>908</v>
       </c>
-      <c r="N30" s="184">
+      <c r="N30" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M30,
@@ -15784,16 +18951,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="185" t="s">
+      <c r="S30" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="T30" s="186"/>
+      <c r="T30" s="185"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="M31" s="172" t="s">
+      <c r="M31" s="171" t="s">
         <v>918</v>
       </c>
-      <c r="N31" s="184">
+      <c r="N31" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M31,
@@ -15802,18 +18969,18 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="185" t="s">
+      <c r="S31" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="T31" s="186"/>
+      <c r="T31" s="185"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="J32" s="192"/>
-      <c r="K32" s="192"/>
-      <c r="M32" s="172" t="s">
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="M32" s="171" t="s">
         <v>922</v>
       </c>
-      <c r="N32" s="184">
+      <c r="N32" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M32,
@@ -15822,29 +18989,29 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="185" t="s">
+      <c r="S32" s="184" t="s">
         <v>1364</v>
       </c>
-      <c r="T32" s="186">
+      <c r="T32" s="185">
         <v>250.79</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C33" s="207" t="s">
+      <c r="C33" s="206" t="s">
         <v>1367</v>
       </c>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="M33" s="172" t="s">
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="M33" s="171" t="s">
         <v>926</v>
       </c>
-      <c r="N33" s="184">
+      <c r="N33" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M33,
@@ -15853,16 +19020,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="185" t="s">
+      <c r="S33" s="184" t="s">
         <v>153</v>
       </c>
-      <c r="T33" s="186"/>
+      <c r="T33" s="185"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="186" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="188">
+      <c r="D34" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -15880,7 +19047,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="188">
+      <c r="E34" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -15898,7 +19065,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="188">
+      <c r="F34" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -15916,7 +19083,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="188">
+      <c r="G34" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -15934,7 +19101,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="188">
+      <c r="H34" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -15952,19 +19119,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="188">
+      <c r="I34" s="187">
         <f>SUM(G34:H34)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="193">
+      <c r="J34" s="192">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K34" s="193"/>
-      <c r="M34" s="172" t="s">
+      <c r="K34" s="192"/>
+      <c r="M34" s="171" t="s">
         <v>1356</v>
       </c>
-      <c r="N34" s="184">
+      <c r="N34" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M34,
@@ -15973,13 +19140,13 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="184"/>
+      <c r="T34" s="183"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="188">
+      <c r="D35" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -15997,7 +19164,7 @@
 0)</f>
         <v>3662.3</v>
       </c>
-      <c r="E35" s="188">
+      <c r="E35" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16015,7 +19182,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="188">
+      <c r="F35" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16033,7 +19200,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="188">
+      <c r="G35" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16051,7 +19218,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="188">
+      <c r="H35" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16069,19 +19236,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="188">
+      <c r="I35" s="187">
         <f t="shared" ref="I35:I41" si="6">SUM(G35:H35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="193">
+      <c r="J35" s="192">
         <f t="shared" si="4"/>
         <v>3662.3</v>
       </c>
-      <c r="K35" s="193"/>
-      <c r="M35" s="172" t="s">
+      <c r="K35" s="192"/>
+      <c r="M35" s="171" t="s">
         <v>944</v>
       </c>
-      <c r="N35" s="184">
+      <c r="N35" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M35,
@@ -16090,18 +19257,18 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S35" s="185" t="s">
+      <c r="S35" s="184" t="s">
         <v>1283</v>
       </c>
-      <c r="T35" s="186">
+      <c r="T35" s="185">
         <v>8720</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C36" s="187" t="s">
+      <c r="C36" s="186" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="188">
+      <c r="D36" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16119,7 +19286,7 @@
 0)</f>
         <v>3270</v>
       </c>
-      <c r="E36" s="188">
+      <c r="E36" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16137,7 +19304,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="188">
+      <c r="F36" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16155,7 +19322,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="188">
+      <c r="G36" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16173,7 +19340,7 @@
 0)</f>
         <v>2400</v>
       </c>
-      <c r="H36" s="188">
+      <c r="H36" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16191,19 +19358,19 @@
 0)</f>
         <v>5400</v>
       </c>
-      <c r="I36" s="188">
+      <c r="I36" s="187">
         <f t="shared" si="6"/>
         <v>7800</v>
       </c>
-      <c r="J36" s="193">
+      <c r="J36" s="192">
         <f t="shared" si="4"/>
         <v>11070</v>
       </c>
-      <c r="K36" s="193"/>
-      <c r="M36" s="172" t="s">
+      <c r="K36" s="192"/>
+      <c r="M36" s="171" t="s">
         <v>1357</v>
       </c>
-      <c r="N36" s="184">
+      <c r="N36" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M36,
@@ -16212,16 +19379,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="185" t="s">
+      <c r="S36" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="T36" s="186"/>
+      <c r="T36" s="185"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C37" s="187" t="s">
+      <c r="C37" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="188">
+      <c r="D37" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16239,7 +19406,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="188">
+      <c r="E37" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16257,7 +19424,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="188">
+      <c r="F37" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16275,7 +19442,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="188">
+      <c r="G37" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16293,7 +19460,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="188">
+      <c r="H37" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16311,19 +19478,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="188">
+      <c r="I37" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J37" s="193">
+      <c r="J37" s="192">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K37" s="193"/>
-      <c r="M37" s="172" t="s">
+      <c r="K37" s="192"/>
+      <c r="M37" s="171" t="s">
         <v>1358</v>
       </c>
-      <c r="N37" s="184">
+      <c r="N37" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M37,
@@ -16332,16 +19499,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S37" s="185" t="s">
+      <c r="S37" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="T37" s="186"/>
+      <c r="T37" s="185"/>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="188">
+      <c r="D38" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16359,7 +19526,7 @@
 0)</f>
         <v>2010</v>
       </c>
-      <c r="E38" s="188">
+      <c r="E38" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16377,7 +19544,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="188">
+      <c r="F38" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16395,7 +19562,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="188">
+      <c r="G38" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16413,7 +19580,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="188">
+      <c r="H38" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16431,19 +19598,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="188">
+      <c r="I38" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J38" s="193">
+      <c r="J38" s="192">
         <f t="shared" si="4"/>
         <v>2010</v>
       </c>
-      <c r="K38" s="193"/>
-      <c r="M38" s="172" t="s">
+      <c r="K38" s="192"/>
+      <c r="M38" s="171" t="s">
         <v>969</v>
       </c>
-      <c r="N38" s="184">
+      <c r="N38" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M38,
@@ -16454,10 +19621,10 @@
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="186" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="188">
+      <c r="D39" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16475,7 +19642,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="188">
+      <c r="E39" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16493,7 +19660,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="188">
+      <c r="F39" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16511,7 +19678,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="188">
+      <c r="G39" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16529,7 +19696,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="188">
+      <c r="H39" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16547,19 +19714,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="188">
+      <c r="I39" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J39" s="193">
+      <c r="J39" s="192">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K39" s="193"/>
-      <c r="M39" s="172" t="s">
+      <c r="K39" s="192"/>
+      <c r="M39" s="171" t="s">
         <v>977</v>
       </c>
-      <c r="N39" s="184">
+      <c r="N39" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M39,
@@ -16570,10 +19737,10 @@
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="186" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="188">
+      <c r="D40" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16591,7 +19758,7 @@
 0)</f>
         <v>7089</v>
       </c>
-      <c r="E40" s="188">
+      <c r="E40" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16609,7 +19776,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="188">
+      <c r="F40" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16627,7 +19794,7 @@
 0)</f>
         <v>9600</v>
       </c>
-      <c r="G40" s="188">
+      <c r="G40" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16645,7 +19812,7 @@
 0)</f>
         <v>650</v>
       </c>
-      <c r="H40" s="188">
+      <c r="H40" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16663,19 +19830,19 @@
 0)</f>
         <v>650</v>
       </c>
-      <c r="I40" s="188">
+      <c r="I40" s="187">
         <f t="shared" si="6"/>
         <v>1300</v>
       </c>
-      <c r="J40" s="193">
+      <c r="J40" s="192">
         <f t="shared" si="4"/>
         <v>17989</v>
       </c>
-      <c r="K40" s="193"/>
-      <c r="M40" s="172" t="s">
+      <c r="K40" s="192"/>
+      <c r="M40" s="171" t="s">
         <v>984</v>
       </c>
-      <c r="N40" s="184">
+      <c r="N40" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M40,
@@ -16686,10 +19853,10 @@
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C41" s="187" t="s">
+      <c r="C41" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="188">
+      <c r="D41" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16707,7 +19874,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="188">
+      <c r="E41" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16725,7 +19892,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="188">
+      <c r="F41" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16743,7 +19910,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="188">
+      <c r="G41" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16761,7 +19928,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="188">
+      <c r="H41" s="187">
         <f>IFERROR(
   SUMIFS(
     'PEDIDO COMPRA'!$G:$G,
@@ -16779,19 +19946,19 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="188">
+      <c r="I41" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J41" s="193">
+      <c r="J41" s="192">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K41" s="193"/>
-      <c r="M41" s="172" t="s">
+      <c r="K41" s="192"/>
+      <c r="M41" s="171" t="s">
         <v>988</v>
       </c>
-      <c r="N41" s="184">
+      <c r="N41" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M41,
@@ -16802,10 +19969,10 @@
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M42" s="172" t="s">
+      <c r="M42" s="171" t="s">
         <v>1012</v>
       </c>
-      <c r="N42" s="184">
+      <c r="N42" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M42,
@@ -16816,10 +19983,10 @@
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M43" s="172" t="s">
+      <c r="M43" s="171" t="s">
         <v>1027</v>
       </c>
-      <c r="N43" s="184">
+      <c r="N43" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M43,
@@ -16830,10 +19997,10 @@
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M44" s="172" t="s">
+      <c r="M44" s="171" t="s">
         <v>1359</v>
       </c>
-      <c r="N44" s="184">
+      <c r="N44" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M44,
@@ -16844,10 +20011,10 @@
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M45" s="172" t="s">
+      <c r="M45" s="171" t="s">
         <v>1046</v>
       </c>
-      <c r="N45" s="184">
+      <c r="N45" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M45,
@@ -16858,10 +20025,10 @@
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M46" s="172" t="s">
+      <c r="M46" s="171" t="s">
         <v>1053</v>
       </c>
-      <c r="N46" s="184">
+      <c r="N46" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M46,
@@ -16872,10 +20039,10 @@
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M47" s="172" t="s">
+      <c r="M47" s="171" t="s">
         <v>1097</v>
       </c>
-      <c r="N47" s="184">
+      <c r="N47" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M47,
@@ -16886,10 +20053,10 @@
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="M48" s="172" t="s">
+      <c r="M48" s="171" t="s">
         <v>1361</v>
       </c>
-      <c r="N48" s="184">
+      <c r="N48" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M48,
@@ -16900,10 +20067,10 @@
       </c>
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M49" s="172" t="s">
+      <c r="M49" s="171" t="s">
         <v>1362</v>
       </c>
-      <c r="N49" s="184">
+      <c r="N49" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M49,
@@ -16914,10 +20081,10 @@
       </c>
     </row>
     <row r="50" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M50" s="172" t="s">
+      <c r="M50" s="171" t="s">
         <v>1176</v>
       </c>
-      <c r="N50" s="184">
+      <c r="N50" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M50,
@@ -16928,10 +20095,10 @@
       </c>
     </row>
     <row r="51" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M51" s="172" t="s">
+      <c r="M51" s="171" t="s">
         <v>1191</v>
       </c>
-      <c r="N51" s="184">
+      <c r="N51" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M51,
@@ -16942,10 +20109,10 @@
       </c>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M52" s="172" t="s">
+      <c r="M52" s="171" t="s">
         <v>1195</v>
       </c>
-      <c r="N52" s="184">
+      <c r="N52" s="183">
         <f>IFERROR(
   SUMIF(
     'PEDIDO COMPRA'!$F:$F, $M52,
@@ -16956,9 +20123,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="S2:T2"/>
-  </mergeCells>
   <conditionalFormatting sqref="D34:I41 D15:J29 J32:K41">
     <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
       <formula>0</formula>
@@ -28964,7 +32128,7 @@
       <c r="K1" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="L1" s="168" t="s">
+      <c r="L1" s="167" t="s">
         <v>550</v>
       </c>
       <c r="N1" s="17" t="s">
@@ -28982,10 +32146,10 @@
       <c r="R1" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="S1" s="174" t="s">
+      <c r="S1" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="T1" s="168" t="s">
+      <c r="T1" s="167" t="s">
         <v>573</v>
       </c>
       <c r="V1" s="7">
@@ -29040,7 +32204,7 @@
         <f>"A:"&amp;TEXT(F2,"0,00")&amp;" x C:"&amp;TEXT(G2,"0,00")&amp;" x L:"&amp;TEXT(H2,"0,00")&amp;"-"&amp;TEXT(I2,"0,00")&amp;" x P:"&amp;TEXT(J2,"0.00")&amp;"kg"</f>
         <v>A:2,28 x C:3,10 x L:1,00-1,57 x P:1.200kg</v>
       </c>
-      <c r="L2" s="168"/>
+      <c r="L2" s="167"/>
       <c r="N2" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O2,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>044160580</v>
@@ -29060,7 +32224,7 @@
       <c r="S2" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="T2" s="168"/>
+      <c r="T2" s="167"/>
       <c r="W2" s="8" t="s">
         <v>583</v>
       </c>
@@ -29107,7 +32271,7 @@
         <f t="shared" ref="K3:K66" si="0">"A:"&amp;TEXT(F3,"0,00")&amp;" x C:"&amp;TEXT(G3,"0,00")&amp;" x L:"&amp;TEXT(H3,"0,00")&amp;"-"&amp;TEXT(I3,"0,00")&amp;" x P:"&amp;TEXT(J3,"0.00")&amp;"kg"</f>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L3" s="168"/>
+      <c r="L3" s="167"/>
       <c r="N3" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O3,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>061196032</v>
@@ -29127,7 +32291,7 @@
       <c r="S3" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="T3" s="168"/>
+      <c r="T3" s="167"/>
       <c r="V3" s="7">
         <v>2</v>
       </c>
@@ -29180,7 +32344,7 @@
         <f t="shared" si="0"/>
         <v>A:2,38 x C:4,08 x L:1,44-1,88 x P:2.710kg</v>
       </c>
-      <c r="L4" s="168"/>
+      <c r="L4" s="167"/>
       <c r="N4" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O4,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>030712609</v>
@@ -29197,10 +32361,10 @@
       <c r="R4" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S4" s="175" t="s">
+      <c r="S4" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T4" s="168"/>
+      <c r="T4" s="167"/>
       <c r="W4" s="8" t="s">
         <v>598</v>
       </c>
@@ -29247,7 +32411,7 @@
         <f t="shared" si="0"/>
         <v>A:2,38 x C:4,08 x L:1,44-1,88 x P:2.710kg</v>
       </c>
-      <c r="L5" s="168"/>
+      <c r="L5" s="167"/>
       <c r="N5" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O5,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>018492099</v>
@@ -29267,7 +32431,7 @@
       <c r="S5" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="T5" s="168"/>
+      <c r="T5" s="167"/>
       <c r="V5" s="7">
         <v>3</v>
       </c>
@@ -29320,7 +32484,7 @@
         <f t="shared" si="0"/>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L6" s="168"/>
+      <c r="L6" s="167"/>
       <c r="N6" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O6,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>045428882</v>
@@ -29340,7 +32504,7 @@
       <c r="S6" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="T6" s="168"/>
+      <c r="T6" s="167"/>
       <c r="W6" s="8" t="s">
         <v>612</v>
       </c>
@@ -29389,7 +32553,7 @@
         <f t="shared" si="0"/>
         <v>A:2,77 x C:4,17 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L7" s="168"/>
+      <c r="L7" s="167"/>
       <c r="N7" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O7,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>043196595</v>
@@ -29406,10 +32570,10 @@
       <c r="R7" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="S7" s="175" t="s">
+      <c r="S7" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T7" s="168"/>
+      <c r="T7" s="167"/>
       <c r="V7" s="7">
         <v>4</v>
       </c>
@@ -29462,7 +32626,7 @@
         <f t="shared" si="0"/>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L8" s="168"/>
+      <c r="L8" s="167"/>
       <c r="N8" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O8,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>029866343</v>
@@ -29479,10 +32643,10 @@
       <c r="R8" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="S8" s="175" t="s">
+      <c r="S8" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T8" s="168"/>
+      <c r="T8" s="167"/>
       <c r="W8" s="8" t="s">
         <v>626</v>
       </c>
@@ -29529,7 +32693,7 @@
         <f t="shared" si="0"/>
         <v>A:2,77 x C:4,17 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L9" s="168"/>
+      <c r="L9" s="167"/>
       <c r="N9" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O9,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>033144048</v>
@@ -29546,10 +32710,10 @@
       <c r="R9" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="S9" s="175" t="s">
+      <c r="S9" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T9" s="168"/>
+      <c r="T9" s="167"/>
       <c r="V9" s="7">
         <v>5</v>
       </c>
@@ -29602,7 +32766,7 @@
         <f t="shared" si="0"/>
         <v>A:2,72 x C:4,56 x L:2,50-3,30 x P:5.600kg</v>
       </c>
-      <c r="L10" s="168"/>
+      <c r="L10" s="167"/>
       <c r="N10" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O10,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>049138592</v>
@@ -29619,10 +32783,10 @@
       <c r="R10" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S10" s="175" t="s">
+      <c r="S10" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T10" s="168"/>
+      <c r="T10" s="167"/>
       <c r="W10" s="8" t="s">
         <v>640</v>
       </c>
@@ -29669,7 +32833,7 @@
         <f t="shared" si="0"/>
         <v>A:2,72 x C:4,56 x L:2,60-3,30 x P:6.300kg</v>
       </c>
-      <c r="L11" s="168"/>
+      <c r="L11" s="167"/>
       <c r="N11" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O11,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>051308170</v>
@@ -29686,10 +32850,10 @@
       <c r="R11" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="S11" s="175" t="s">
+      <c r="S11" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T11" s="168"/>
+      <c r="T11" s="167"/>
       <c r="V11" s="7">
         <v>6</v>
       </c>
@@ -29742,7 +32906,7 @@
         <f t="shared" si="0"/>
         <v>A:2,72 x C:4,56 x L:2,70-3,35 x P:6.800kg</v>
       </c>
-      <c r="L12" s="168"/>
+      <c r="L12" s="167"/>
       <c r="N12" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O12,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>037717850</v>
@@ -29759,10 +32923,10 @@
       <c r="R12" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S12" s="175" t="s">
+      <c r="S12" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T12" s="168"/>
+      <c r="T12" s="167"/>
       <c r="W12" s="8" t="s">
         <v>654</v>
       </c>
@@ -29809,7 +32973,7 @@
         <f t="shared" si="0"/>
         <v>A:2,74 x C:4,92 x L:2,87-3,45 x P:7.200kg</v>
       </c>
-      <c r="L13" s="168"/>
+      <c r="L13" s="167"/>
       <c r="N13" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O13,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>051836272</v>
@@ -29826,10 +32990,10 @@
       <c r="R13" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S13" s="175" t="s">
+      <c r="S13" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T13" s="168"/>
+      <c r="T13" s="167"/>
       <c r="V13" s="7">
         <v>7</v>
       </c>
@@ -29882,7 +33046,7 @@
         <f t="shared" si="0"/>
         <v>A:2,28 x C:4,56 x L:2,87-3,45 x P:7.500kg</v>
       </c>
-      <c r="L14" s="168"/>
+      <c r="L14" s="167"/>
       <c r="N14" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O14,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>052184344</v>
@@ -29899,10 +33063,10 @@
       <c r="R14" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="S14" s="175" t="s">
+      <c r="S14" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T14" s="168"/>
+      <c r="T14" s="167"/>
       <c r="W14" s="8" t="s">
         <v>666</v>
       </c>
@@ -29949,7 +33113,7 @@
         <f t="shared" si="0"/>
         <v>A:2,86 x C:4,96 x L:2,70-3,30 x P:7.800kg</v>
       </c>
-      <c r="L15" s="168"/>
+      <c r="L15" s="167"/>
       <c r="N15" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O15,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>046406936</v>
@@ -29966,10 +33130,10 @@
       <c r="R15" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="S15" s="175" t="s">
+      <c r="S15" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T15" s="168"/>
+      <c r="T15" s="167"/>
       <c r="V15" s="7">
         <v>8</v>
       </c>
@@ -30022,7 +33186,7 @@
         <f t="shared" si="0"/>
         <v>A:2,93 x C:4,65 x L:2,70-3,30 x P:8.500kg</v>
       </c>
-      <c r="L16" s="168"/>
+      <c r="L16" s="167"/>
       <c r="N16" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O16,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>036949062</v>
@@ -30039,10 +33203,10 @@
       <c r="R16" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S16" s="175" t="s">
+      <c r="S16" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T16" s="168"/>
+      <c r="T16" s="167"/>
       <c r="W16" s="8" t="s">
         <v>678</v>
       </c>
@@ -30089,7 +33253,7 @@
         <f t="shared" si="0"/>
         <v>A:2,93 x C:5,42 x L:2,74-3,40 x P:8.500kg</v>
       </c>
-      <c r="L17" s="168"/>
+      <c r="L17" s="167"/>
       <c r="N17" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O17,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>004799973</v>
@@ -30106,10 +33270,10 @@
       <c r="R17" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="S17" s="175" t="s">
+      <c r="S17" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T17" s="168"/>
+      <c r="T17" s="167"/>
       <c r="W17" s="7"/>
       <c r="X17" s="52" t="s">
         <v>684</v>
@@ -30157,7 +33321,7 @@
         <f t="shared" si="0"/>
         <v>A:3,30 x C:5,24 x L:2,74-3,40 x P:9.550kg</v>
       </c>
-      <c r="L18" s="168"/>
+      <c r="L18" s="167"/>
       <c r="N18" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O18,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>041772779</v>
@@ -30174,10 +33338,10 @@
       <c r="R18" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S18" s="175" t="s">
+      <c r="S18" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T18" s="168"/>
+      <c r="T18" s="167"/>
       <c r="W18" s="7"/>
       <c r="X18" s="52" t="s">
         <v>690</v>
@@ -30227,7 +33391,7 @@
         <f t="shared" si="0"/>
         <v>A:2,98 x C:5,42 x L:2,95-3,60 x P:9.800kg</v>
       </c>
-      <c r="L19" s="168"/>
+      <c r="L19" s="167"/>
       <c r="N19" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O19,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>028829399</v>
@@ -30244,10 +33408,10 @@
       <c r="R19" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="S19" s="175" t="s">
+      <c r="S19" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T19" s="168"/>
+      <c r="T19" s="167"/>
       <c r="W19" s="7"/>
       <c r="Z19" s="54" t="s">
         <v>698</v>
@@ -30294,7 +33458,7 @@
         <f t="shared" si="0"/>
         <v>A:3,30 x C:5,24 x L:2,95-3,60 x P:10.650kg</v>
       </c>
-      <c r="L20" s="168"/>
+      <c r="L20" s="167"/>
       <c r="N20" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O20,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>017726086</v>
@@ -30311,10 +33475,10 @@
       <c r="R20" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="S20" s="175" t="s">
+      <c r="S20" s="174" t="s">
         <v>1287</v>
       </c>
-      <c r="T20" s="168"/>
+      <c r="T20" s="167"/>
       <c r="W20" s="17" t="s">
         <v>703</v>
       </c>
@@ -30377,7 +33541,7 @@
       <c r="R21" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="S21" s="175" t="s">
+      <c r="S21" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W21" s="18" t="s">
@@ -30442,7 +33606,7 @@
       <c r="R22" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S22" s="175" t="s">
+      <c r="S22" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W22" s="18" t="s">
@@ -30508,7 +33672,7 @@
       <c r="R23" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="S23" s="175" t="s">
+      <c r="S23" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W23" s="18" t="s">
@@ -30633,7 +33797,7 @@
       <c r="R25" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="S25" s="175" t="s">
+      <c r="S25" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -30692,18 +33856,18 @@
       <c r="R26" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="S26" s="175" t="s">
+      <c r="S26" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W26" s="18" t="s">
         <v>739</v>
       </c>
       <c r="X26" s="7"/>
-      <c r="Z26" s="169" t="s">
+      <c r="Z26" s="168" t="s">
         <v>740</v>
       </c>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
@@ -30756,7 +33920,7 @@
       <c r="R27" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="S27" s="175" t="s">
+      <c r="S27" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W27" s="18" t="s">
@@ -31232,7 +34396,7 @@
       <c r="R34" s="18" t="s">
         <v>1054</v>
       </c>
-      <c r="S34" s="175" t="s">
+      <c r="S34" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W34" s="65" t="s">
@@ -31300,7 +34464,7 @@
       <c r="R35" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="S35" s="175" t="s">
+      <c r="S35" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W35" s="65" t="s">
@@ -31486,7 +34650,7 @@
       <c r="R38" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S38" s="175" t="s">
+      <c r="S38" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W38" s="7"/>
@@ -31546,7 +34710,7 @@
       <c r="R39" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S39" s="175" t="s">
+      <c r="S39" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W39" s="7"/>
@@ -31603,7 +34767,7 @@
       <c r="R40" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S40" s="175" t="s">
+      <c r="S40" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W40" s="7"/>
@@ -31660,7 +34824,7 @@
       <c r="R41" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S41" s="175" t="s">
+      <c r="S41" s="174" t="s">
         <v>1287</v>
       </c>
       <c r="W41" s="7"/>
@@ -31774,7 +34938,7 @@
       <c r="R43" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S43" s="175" t="s">
+      <c r="S43" s="174" t="s">
         <v>1347</v>
       </c>
       <c r="W43" s="7"/>
@@ -31888,7 +35052,7 @@
       <c r="R45" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S45" s="175" t="s">
+      <c r="S45" s="174" t="s">
         <v>1347</v>
       </c>
       <c r="W45" s="7"/>
@@ -32002,7 +35166,7 @@
       <c r="R47" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="S47" s="175" t="s">
+      <c r="S47" s="174" t="s">
         <v>1347</v>
       </c>
       <c r="W47" s="7"/>
@@ -32116,7 +35280,7 @@
       <c r="R49" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S49" s="175" t="s">
+      <c r="S49" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -32171,7 +35335,7 @@
       <c r="R50" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S50" s="175" t="s">
+      <c r="S50" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -32226,7 +35390,7 @@
       <c r="R51" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="S51" s="175" t="s">
+      <c r="S51" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -32281,7 +35445,7 @@
       <c r="R52" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="S52" s="175" t="s">
+      <c r="S52" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33271,7 +36435,7 @@
       <c r="R70" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S70" s="175" t="s">
+      <c r="S70" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33326,7 +36490,7 @@
       <c r="R71" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S71" s="175" t="s">
+      <c r="S71" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33381,7 +36545,7 @@
       <c r="R72" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S72" s="175" t="s">
+      <c r="S72" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33436,7 +36600,7 @@
       <c r="R73" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S73" s="175" t="s">
+      <c r="S73" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33491,7 +36655,7 @@
       <c r="R74" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S74" s="175" t="s">
+      <c r="S74" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33546,7 +36710,7 @@
       <c r="R75" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S75" s="175" t="s">
+      <c r="S75" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33601,7 +36765,7 @@
       <c r="R76" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S76" s="175" t="s">
+      <c r="S76" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33656,7 +36820,7 @@
       <c r="R77" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S77" s="175" t="s">
+      <c r="S77" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33711,7 +36875,7 @@
       <c r="R78" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S78" s="175" t="s">
+      <c r="S78" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33766,7 +36930,7 @@
       <c r="R79" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S79" s="175" t="s">
+      <c r="S79" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33821,7 +36985,7 @@
       <c r="R80" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S80" s="175" t="s">
+      <c r="S80" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -33931,7 +37095,7 @@
       <c r="R82" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S82" s="175" t="s">
+      <c r="S82" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34041,7 +37205,7 @@
       <c r="R84" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S84" s="175" t="s">
+      <c r="S84" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34096,7 +37260,7 @@
       <c r="R85" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S85" s="175" t="s">
+      <c r="S85" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34151,7 +37315,7 @@
       <c r="R86" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S86" s="175" t="s">
+      <c r="S86" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34206,7 +37370,7 @@
       <c r="R87" s="18" t="s">
         <v>1165</v>
       </c>
-      <c r="S87" s="175" t="s">
+      <c r="S87" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34261,7 +37425,7 @@
       <c r="R88" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="S88" s="175" t="s">
+      <c r="S88" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34316,7 +37480,7 @@
       <c r="R89" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S89" s="175" t="s">
+      <c r="S89" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34371,7 +37535,7 @@
       <c r="R90" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S90" s="175" t="s">
+      <c r="S90" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34426,7 +37590,7 @@
       <c r="R91" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S91" s="175" t="s">
+      <c r="S91" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34481,7 +37645,7 @@
       <c r="R92" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S92" s="175" t="s">
+      <c r="S92" s="174" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -34536,7 +37700,7 @@
       <c r="R93" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="S93" s="175" t="s">
+      <c r="S93" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -34591,7 +37755,7 @@
       <c r="R94" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S94" s="175" t="s">
+      <c r="S94" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -34646,7 +37810,7 @@
       <c r="R95" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S95" s="175" t="s">
+      <c r="S95" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -34701,7 +37865,7 @@
       <c r="R96" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="S96" s="175" t="s">
+      <c r="S96" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -34756,7 +37920,7 @@
       <c r="R97" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="S97" s="175" t="s">
+      <c r="S97" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -34976,7 +38140,7 @@
       <c r="R101" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="S101" s="175" t="s">
+      <c r="S101" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35031,7 +38195,7 @@
       <c r="R102" s="18" t="s">
         <v>697</v>
       </c>
-      <c r="S102" s="175" t="s">
+      <c r="S102" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35251,7 +38415,7 @@
       <c r="R106" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="S106" s="175" t="s">
+      <c r="S106" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35526,7 +38690,7 @@
       <c r="R111" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="S111" s="175" t="s">
+      <c r="S111" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35581,7 +38745,7 @@
       <c r="R112" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="S112" s="175" t="s">
+      <c r="S112" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35636,7 +38800,7 @@
       <c r="R113" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="S113" s="175" t="s">
+      <c r="S113" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -35746,7 +38910,7 @@
       <c r="R115" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="S115" s="175" t="s">
+      <c r="S115" s="174" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -37384,7 +40548,7 @@
       <c r="R159" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="S159" s="175" t="s">
+      <c r="S159" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -37405,7 +40569,7 @@
       <c r="R160" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="S160" s="175" t="s">
+      <c r="S160" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -37951,7 +41115,7 @@
       <c r="R186" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="S186" s="175" t="s">
+      <c r="S186" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -37972,7 +41136,7 @@
       <c r="R187" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="S187" s="175" t="s">
+      <c r="S187" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -37993,7 +41157,7 @@
       <c r="R188" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="S188" s="175" t="s">
+      <c r="S188" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -38014,7 +41178,7 @@
       <c r="R189" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="S189" s="175" t="s">
+      <c r="S189" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -38035,7 +41199,7 @@
       <c r="R190" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="S190" s="175" t="s">
+      <c r="S190" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -38056,7 +41220,7 @@
       <c r="R191" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="S191" s="175" t="s">
+      <c r="S191" s="174" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -38353,13 +41517,13 @@
       <c r="R207" s="18"/>
     </row>
     <row r="208" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="S208" s="173"/>
+      <c r="S208" s="172"/>
     </row>
     <row r="209" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S209" s="173"/>
+      <c r="S209" s="172"/>
     </row>
     <row r="210" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S210" s="173"/>
+      <c r="S210" s="172"/>
     </row>
   </sheetData>
   <autoFilter ref="N1:S207" xr:uid="{47BC257A-4798-4D53-BA44-0BF931D1E497}">
@@ -38399,10 +41563,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="169" t="s">
         <v>1204</v>
       </c>
-      <c r="B1" s="170"/>
+      <c r="B1" s="169"/>
       <c r="E1" s="111" t="s">
         <v>1205</v>
       </c>
@@ -38788,7 +41952,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="171" t="s">
+      <c r="A19" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B19" s="97" t="s">
@@ -38808,7 +41972,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
+      <c r="A20" s="170"/>
       <c r="B20" s="95" t="s">
         <v>312</v>
       </c>
@@ -38902,10 +42066,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="169" t="s">
         <v>1258</v>
       </c>
-      <c r="B25" s="170"/>
+      <c r="B25" s="169"/>
       <c r="E25" s="134" t="s">
         <v>370</v>
       </c>
@@ -39072,7 +42236,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="171" t="s">
+      <c r="A35" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B35" s="97" t="s">
@@ -39080,7 +42244,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="171"/>
+      <c r="A36" s="170"/>
       <c r="B36" s="95" t="s">
         <v>345</v>
       </c>
@@ -39114,10 +42278,10 @@
       <c r="B40" s="100"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="170" t="s">
+      <c r="A41" s="169" t="s">
         <v>1267</v>
       </c>
-      <c r="B41" s="170"/>
+      <c r="B41" s="169"/>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="97" t="s">
@@ -39184,7 +42348,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="171" t="s">
+      <c r="A51" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B51" s="97" t="s">
@@ -39192,7 +42356,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="171"/>
+      <c r="A52" s="170"/>
       <c r="B52" s="95" t="s">
         <v>368</v>
       </c>
@@ -39226,10 +42390,10 @@
       <c r="B56" s="100"/>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="170" t="s">
+      <c r="A57" s="169" t="s">
         <v>1271</v>
       </c>
-      <c r="B57" s="170"/>
+      <c r="B57" s="169"/>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="97" t="s">
@@ -39296,7 +42460,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="171" t="s">
+      <c r="A67" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B67" s="97" t="s">
@@ -39304,7 +42468,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="171"/>
+      <c r="A68" s="170"/>
       <c r="B68" s="104" t="s">
         <v>386</v>
       </c>
@@ -39338,10 +42502,10 @@
       <c r="B72" s="100"/>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="170" t="s">
+      <c r="A73" s="169" t="s">
         <v>1274</v>
       </c>
-      <c r="B73" s="170"/>
+      <c r="B73" s="169"/>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="97" t="s">
@@ -39436,7 +42600,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B87" s="97" t="s">
@@ -39444,7 +42608,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="171"/>
+      <c r="A88" s="170"/>
       <c r="B88" s="104" t="s">
         <v>381</v>
       </c>
@@ -39478,10 +42642,10 @@
       <c r="B92" s="100"/>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="170" t="s">
+      <c r="A93" s="169" t="s">
         <v>1277</v>
       </c>
-      <c r="B93" s="170"/>
+      <c r="B93" s="169"/>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="97" t="s">
@@ -39604,7 +42768,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="171" t="s">
+      <c r="A111" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B111" s="94" t="s">
@@ -39612,7 +42776,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="171"/>
+      <c r="A112" s="170"/>
       <c r="B112" s="104" t="s">
         <v>1279</v>
       </c>
@@ -39646,10 +42810,10 @@
       <c r="B116" s="100"/>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="170" t="s">
+      <c r="A117" s="169" t="s">
         <v>1280</v>
       </c>
-      <c r="B117" s="170"/>
+      <c r="B117" s="169"/>
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="97" t="s">
@@ -39772,7 +42936,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="171" t="s">
+      <c r="A135" s="170" t="s">
         <v>1247</v>
       </c>
       <c r="B135" s="94" t="s">
@@ -39780,7 +42944,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="171"/>
+      <c r="A136" s="170"/>
       <c r="B136" s="95" t="s">
         <v>394</v>
       </c>

--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3173" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383B76B1-8ECE-4AE5-80CF-7B4DA89AD69D}"/>
+  <xr:revisionPtr revIDLastSave="3285" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFAA7E6-FC59-49AF-B117-E6CBB75629D9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3697" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1378">
   <si>
     <t>ITEM</t>
   </si>
@@ -4947,9 +4947,6 @@
     <t>Conexão JD - Ortigueira -Sindicato Rural</t>
   </si>
   <si>
-    <t>COMBUSTÍVEL (MÉDIA)</t>
-  </si>
-  <si>
     <t>POR TRANSPORTADORA</t>
   </si>
   <si>
@@ -5230,6 +5227,9 @@
   </si>
   <si>
     <t>QTD FRETE</t>
+  </si>
+  <si>
+    <t>COMBUSTÍVEL (médiaMês)</t>
   </si>
 </sst>
 </file>
@@ -6688,17 +6688,7 @@
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{A28B0942-7AC2-424A-8E0C-1E4749708F6E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.249977111117893"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.249977111117893"/>
-      </font>
-    </dxf>
+  <dxfs count="127">
     <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
@@ -7346,6 +7336,11 @@
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.249977111117893"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -8373,7 +8368,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="JD" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="JD" pivot="0" count="1" xr9:uid="{E672CA73-22C0-4798-94C1-1C25F9451519}">
-      <tableStyleElement type="headerRow" dxfId="127"/>
+      <tableStyleElement type="headerRow" dxfId="126"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -9024,12 +9019,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -9874,12 +9864,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10254,12 +10239,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10636,12 +10616,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -10751,8 +10726,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10597141496744349"/>
-          <c:y val="0.15101211725381883"/>
+          <c:x val="0.15981373539603624"/>
+          <c:y val="9.5441423270750017E-2"/>
           <c:w val="0.7582010097083276"/>
           <c:h val="0.81552029699031525"/>
         </c:manualLayout>
@@ -10767,7 +10742,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -10787,7 +10762,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -11163,12 +11140,1852 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>GASTOS COM FROTA PRÓPRIA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> - CAMINHÃO VW ATV6639  </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32030633217155741"/>
+          <c:y val="0.23139435695538055"/>
+          <c:w val="0.35938711666048001"/>
+          <c:h val="0.59822980460775732"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUSTOS!$T$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-E735-4DA0-9608-FCF6EC8C3873}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="62000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E735-4DA0-9608-FCF6EC8C3873}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E735-4DA0-9608-FCF6EC8C3873}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="93000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="61000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-E735-4DA0-9608-FCF6EC8C3873}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8685048231742432E-2"/>
+                  <c:y val="-2.7777777777777776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-E735-4DA0-9608-FCF6EC8C3873}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.737009646348467E-2"/>
+                  <c:y val="-1.8518518518518687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E735-4DA0-9608-FCF6EC8C3873}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6486071324951447E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E735-4DA0-9608-FCF6EC8C3873}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1292779889173485E-2"/>
+                  <c:y val="-2.3148148148148234E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-E735-4DA0-9608-FCF6EC8C3873}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="F2C400"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$S$13:$S$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Manutenção VW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AET DNIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AET DER</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IPVA 2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CRLV 2026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MULTAS 2025/2026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DPVAT 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>COMBUSTÍVEL (médiaMês)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$T$13:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5633.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E735-4DA0-9608-FCF6EC8C3873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>GASTOS COM FROTA PRÓPRIA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> - CAMINHÃO DAF SDY9A72</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32030633217155741"/>
+          <c:y val="0.23139435695538055"/>
+          <c:w val="0.35938711666048001"/>
+          <c:h val="0.59822980460775732"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUSTOS!$T$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="62000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="93000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="61000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3403-4C39-A15F-CD8AFBD0C668}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6536826675911058E-2"/>
+                  <c:y val="-4.2437781360066642E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3403-4C39-A15F-CD8AFBD0C668}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8707506673930194E-2"/>
+                  <c:y val="4.1666666666666581E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3403-4C39-A15F-CD8AFBD0C668}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9146600009904831E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3403-4C39-A15F-CD8AFBD0C668}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="F2C400"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$S$27:$S$34</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Manutenção DAF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AET DNIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AET DER</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IPVA 2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CRLV 2026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MULTAS 2025/2026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DPVAT 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>COMBUSTÍVEL (médiaMês)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$T$27:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-3403-4C39-A15F-CD8AFBD0C668}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CUSTOS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> COM TRANSPORTADORA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUSTOS!$Q$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$P$13:$P$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CARGADEDICADA -TR PEÇA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ESC -TR PEÇA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PRINCESA -TR PEÇA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$Q$13:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6190.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5580</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1342.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9F1-422C-ADAA-23351F316B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1577780480"/>
+        <c:axId val="1577786720"/>
+        <c:axId val="1665694080"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1577780480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577786720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1577786720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1577780480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1665694080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1577786720"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CUSTOS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> COM MOTOBOY</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1723143671290752E-2"/>
+          <c:y val="1.7838995752270364E-4"/>
+          <c:w val="0.90827685632870925"/>
+          <c:h val="0.60714473713069983"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUSTOS!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUSTOS!$M$13:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>DELTA MOTOS COURIER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JOSEAMILTON1 COURIER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UNIBOY COURIER</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MARCOS D. COURIER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JORGE LUIZ 2 COURIER</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ANDREIA R. COURIER  </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JOHN ELVIS COURIER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUSTOS!$N$13:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D24-4AEE-A291-82675B0705CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1892241599"/>
+        <c:axId val="1892242079"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1892241599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892242079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1892242079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1892241599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -11352,6 +13169,98 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13928,6 +15837,2032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14043,15 +17978,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>288174</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1472565</xdr:colOff>
+      <xdr:colOff>1524519</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14080,16 +18015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1429172</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54004</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>21165</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:colOff>188201</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14114,6 +18049,152 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206172</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>134649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302375</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>134649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0A6BEE-EBEC-28D9-B32B-28C281A2D160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>268085</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>17666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>358573</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>17666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934ACFCB-238C-450A-A4FE-9BF400FE55DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268344</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>801744</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA649257-D0E3-076A-F4D0-F03B1ACB0D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20016</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>53563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325235</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>92112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F6FB00-3B3B-5AE1-13E9-4E83C4FDD60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14122,7 +18203,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}" name="MÁQUINAS" displayName="MÁQUINAS" ref="A1:S85" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}" name="MÁQUINAS" displayName="MÁQUINAS" ref="A1:S85" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:S85" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}">
     <filterColumn colId="17">
       <filters>
@@ -14134,55 +18215,55 @@
     <sortCondition ref="H1:H85"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{74088FA4-9F2D-4E29-80DA-4FFA894E77F4}" name="STATUS" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{8BF83C7C-9ED1-47DD-BC5F-63DA1560216C}" name="FRETE" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{B758A2AA-452E-4F91-A2A6-E8CD9100E3DE}" name="HR" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{74088FA4-9F2D-4E29-80DA-4FFA894E77F4}" name="STATUS" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{8BF83C7C-9ED1-47DD-BC5F-63DA1560216C}" name="FRETE" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{B758A2AA-452E-4F91-A2A6-E8CD9100E3DE}" name="HR" dataDxfId="121">
       <calculatedColumnFormula>IFERROR((D2*1.5)/1440, "?")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65BC45AA-44C5-4933-ADBD-7603EB922BE5}" name="KM" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{276116FF-109D-41D4-97B8-33BDEC97F408}" name="R$ PROP" dataDxfId="120">
+    <tableColumn id="4" xr3:uid="{65BC45AA-44C5-4933-ADBD-7603EB922BE5}" name="KM" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{276116FF-109D-41D4-97B8-33BDEC97F408}" name="R$ PROP" dataDxfId="119">
       <calculatedColumnFormula>IFERROR((D2*6),"?")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{70534257-D783-4146-96E1-2E685CBB89A4}" name="R$ TERC" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{3D60D21C-F567-43A3-8E40-BE7F689ECF34}" name="CHASSI" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{52559DB2-54FE-4292-B44C-9CD4CF656213}" name="PREV" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{83C52D74-44DB-466D-8572-853956B9E720}" name="REAL" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{F096729E-B5E6-4D3D-B03C-234DF10FC38E}" name="CLIENTE/NOTA" dataDxfId="115"/>
-    <tableColumn id="11" xr3:uid="{9AD47A28-9E98-4261-BB4E-53A18FCF11A6}" name="SOLICITANTE" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{797C4B0D-8EC2-4476-9B1D-9680399D22D2}" name="ESTÁ:" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{78010355-1A74-41F4-AEBD-3035D2289546}" name="VAI:" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{77527C27-6C98-47E9-848B-1D141B3F645A}" name="TIPO" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{7B83F651-80C0-40BF-A436-446D32DB61AE}" name="ESTÁ EM:" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{26BED5E2-C25C-4647-855D-C4EE6753E61E}" name="VAI PARA:" dataDxfId="109"/>
-    <tableColumn id="17" xr3:uid="{22FC017A-B677-426F-90FC-92BAB89D9B4A}" name="OBS" dataDxfId="108"/>
-    <tableColumn id="18" xr3:uid="{5AC9D283-0F34-4EF4-A53A-85F8F57E85F2}" name="FILIAL CUSTOS" dataDxfId="107"/>
-    <tableColumn id="19" xr3:uid="{DC4F9CD0-326F-411D-8AC9-ED6CAB7FB1E9}" name="EQUIP" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{70534257-D783-4146-96E1-2E685CBB89A4}" name="R$ TERC" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{3D60D21C-F567-43A3-8E40-BE7F689ECF34}" name="CHASSI" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{52559DB2-54FE-4292-B44C-9CD4CF656213}" name="PREV" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{83C52D74-44DB-466D-8572-853956B9E720}" name="REAL" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{F096729E-B5E6-4D3D-B03C-234DF10FC38E}" name="CLIENTE/NOTA" dataDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{9AD47A28-9E98-4261-BB4E-53A18FCF11A6}" name="SOLICITANTE" dataDxfId="113"/>
+    <tableColumn id="12" xr3:uid="{797C4B0D-8EC2-4476-9B1D-9680399D22D2}" name="ESTÁ:" dataDxfId="112"/>
+    <tableColumn id="13" xr3:uid="{78010355-1A74-41F4-AEBD-3035D2289546}" name="VAI:" dataDxfId="111"/>
+    <tableColumn id="14" xr3:uid="{77527C27-6C98-47E9-848B-1D141B3F645A}" name="TIPO" dataDxfId="110"/>
+    <tableColumn id="15" xr3:uid="{7B83F651-80C0-40BF-A436-446D32DB61AE}" name="ESTÁ EM:" dataDxfId="109"/>
+    <tableColumn id="16" xr3:uid="{26BED5E2-C25C-4647-855D-C4EE6753E61E}" name="VAI PARA:" dataDxfId="108"/>
+    <tableColumn id="17" xr3:uid="{22FC017A-B677-426F-90FC-92BAB89D9B4A}" name="OBS" dataDxfId="107"/>
+    <tableColumn id="18" xr3:uid="{5AC9D283-0F34-4EF4-A53A-85F8F57E85F2}" name="FILIAL CUSTOS" dataDxfId="106"/>
+    <tableColumn id="19" xr3:uid="{DC4F9CD0-326F-411D-8AC9-ED6CAB7FB1E9}" name="EQUIP" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="JD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}" name="PEDIDOS" displayName="PEDIDOS" ref="A1:L90" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}" name="PEDIDOS" displayName="PEDIDOS" ref="A1:L90" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:L90" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L76">
     <sortCondition ref="F1:F90"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{54382593-1F81-433D-9F93-B76C818187F0}" name="TIPO" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{4398062D-7437-47E0-8D47-2FB2DD82042D}" name="FILIAL" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{5B021649-4C1E-448A-856D-B68EBD29FE35}" name="DATA" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{20475BEE-899B-4456-A60C-6E5E5830D60A}" name="PDDO" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{52167736-38DB-447F-ABA5-F7F3030C6685}" name="CÓD" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{54382593-1F81-433D-9F93-B76C818187F0}" name="TIPO" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{4398062D-7437-47E0-8D47-2FB2DD82042D}" name="FILIAL" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{5B021649-4C1E-448A-856D-B68EBD29FE35}" name="DATA" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{20475BEE-899B-4456-A60C-6E5E5830D60A}" name="PDDO" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{52167736-38DB-447F-ABA5-F7F3030C6685}" name="CÓD" dataDxfId="98">
       <calculatedColumnFormula>_xlfn.XLOOKUP(F2,UTIL!Q:Q,UTIL!N:N,"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EC59F397-0DDF-40D5-9D4F-3232B9F3E3AA}" name="FORNECEDOR" dataDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{B62521F7-8D78-4799-9138-F4577472D985}" name="VALOR" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{0C453D36-D8CB-40C7-924E-11F2DFA712D7}" name="STATUS PC" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{48F02895-65FB-49A4-90AC-03012C204F59}" name="Nº NOTA" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{09FC5BAE-1C5A-4726-9E49-5D8CA8695440}" name="LANÇADA" dataDxfId="94"/>
-    <tableColumn id="11" xr3:uid="{B1E9C8B8-2111-4A21-9D28-51C2A1C336F9}" name="OBSERVAÇÕES" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{B0E66A71-C06E-4E69-B75F-5C2A26766683}" name="SALVAR COMO" dataDxfId="92">
+    <tableColumn id="6" xr3:uid="{EC59F397-0DDF-40D5-9D4F-3232B9F3E3AA}" name="FORNECEDOR" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{B62521F7-8D78-4799-9138-F4577472D985}" name="VALOR" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{0C453D36-D8CB-40C7-924E-11F2DFA712D7}" name="STATUS PC" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{48F02895-65FB-49A4-90AC-03012C204F59}" name="Nº NOTA" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{09FC5BAE-1C5A-4726-9E49-5D8CA8695440}" name="LANÇADA" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{B1E9C8B8-2111-4A21-9D28-51C2A1C336F9}" name="OBSERVAÇÕES" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{B0E66A71-C06E-4E69-B75F-5C2A26766683}" name="SALVAR COMO" dataDxfId="91">
       <calculatedColumnFormula>TEXT($C2,"dd.mm") &amp; " -Ped " &amp; D2 &amp; " -" &amp; F2 &amp; " -R$" &amp; G2 &amp; IF(LEN(TRIM(I2))=0, "", " -NF " &amp; TRIM(I2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14191,24 +18272,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96ED262C-7768-4BDA-8D29-F168B9CAB568}" name="PEÇAS" displayName="PEÇAS" ref="A1:O2" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96ED262C-7768-4BDA-8D29-F168B9CAB568}" name="PEÇAS" displayName="PEÇAS" ref="A1:O2" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:O2" xr:uid="{96ED262C-7768-4BDA-8D29-F168B9CAB568}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B69EFEFF-F887-4E78-AED9-36BFD47C2163}" name="STATUS" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{511D0392-1B92-4D5F-98DD-1C91F6205B11}" name="SOLICITANTE" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{B8F596C2-530A-4F4E-B3EA-DA7EFDD27017}" name="DATA DA COLETA" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{335FD71F-F30D-4127-A0A4-D426AF2905F5}" name="ENTREGAR ATÉ" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{D7065B1F-B165-4C67-A25B-3F3D59C82514}" name="MOTOBOY OU DEDICADO?" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{9B4C8DC0-A002-44B4-A11D-9A85D683BD3B}" name="ESCOLHA O MOTOBOY" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{9EB62DF8-D35F-4A19-AB06-D3EE65940E69}" name="VALOR DO SERVIÇO" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{C3036426-E777-46AB-84E5-08F83C7C9F53}" name="QUEM IRÁ PAGAR?" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{0390CDD6-5242-4A5E-9D53-EED122D1E773}" name="DESCRIÇÃO" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{FBE8999B-D804-4BFB-A0E7-72089F3212C5}" name="PC PARA LOJA" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{16B4FCA8-5A17-4B38-9C2F-3C425FA1D0A3}" name="ENVIAR PC PARA" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{B5E3C04A-C416-406E-A41C-9B7D05AF6671}" name="DIMENSÕES" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{53E9EDB7-BFDB-4482-B5CF-080269012427}" name="LOC COLETA" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{04D10BCA-DA76-463F-8C98-1877641F1A10}" name="LOC ENTREGA" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{71FE7848-F2AE-4B15-AC80-5B18D6B94E26}" name="SUGESTÃO TRANSP" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{B69EFEFF-F887-4E78-AED9-36BFD47C2163}" name="STATUS" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{511D0392-1B92-4D5F-98DD-1C91F6205B11}" name="SOLICITANTE" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{B8F596C2-530A-4F4E-B3EA-DA7EFDD27017}" name="DATA DA COLETA" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{335FD71F-F30D-4127-A0A4-D426AF2905F5}" name="ENTREGAR ATÉ" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{D7065B1F-B165-4C67-A25B-3F3D59C82514}" name="MOTOBOY OU DEDICADO?" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{9B4C8DC0-A002-44B4-A11D-9A85D683BD3B}" name="ESCOLHA O MOTOBOY" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{9EB62DF8-D35F-4A19-AB06-D3EE65940E69}" name="VALOR DO SERVIÇO" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{C3036426-E777-46AB-84E5-08F83C7C9F53}" name="QUEM IRÁ PAGAR?" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{0390CDD6-5242-4A5E-9D53-EED122D1E773}" name="DESCRIÇÃO" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{FBE8999B-D804-4BFB-A0E7-72089F3212C5}" name="PC PARA LOJA" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{16B4FCA8-5A17-4B38-9C2F-3C425FA1D0A3}" name="ENVIAR PC PARA" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{B5E3C04A-C416-406E-A41C-9B7D05AF6671}" name="DIMENSÕES" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{53E9EDB7-BFDB-4482-B5CF-080269012427}" name="LOC COLETA" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{04D10BCA-DA76-463F-8C98-1877641F1A10}" name="LOC ENTREGA" dataDxfId="75"/>
+    <tableColumn id="15" xr3:uid="{71FE7848-F2AE-4B15-AC80-5B18D6B94E26}" name="SUGESTÃO TRANSP" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="JD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14537,7 +18618,7 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15482,8 +19563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FFBD44-21DD-42C8-9198-98D8084F877D}">
   <dimension ref="B1:T52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T82" sqref="T82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE106" sqref="AE106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -15560,7 +19641,7 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C3" s="176" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D3" s="181">
         <v>1500</v>
@@ -15648,7 +19729,7 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C4" s="203" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D4" s="204">
         <f>AVERAGE(D5:D6)</f>
@@ -15742,7 +19823,7 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C5" s="179" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D5" s="180">
         <f>AVERAGE(D14:D21)</f>
@@ -15836,7 +19917,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C6" s="179" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D6" s="180">
         <f>AVERAGE(D22:D29)</f>
@@ -16079,7 +20160,7 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C9" s="217" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D9" s="218">
         <f>SUM(D14:D21)</f>
@@ -16168,7 +20249,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C10" s="217" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D10" s="218">
         <f>SUM(D22:D29)</f>
@@ -16257,7 +20338,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C11" s="219" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D11" s="220">
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!D8)</f>
@@ -16283,23 +20364,22 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="M12" s="141" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="N12" s="141" t="s">
         <v>413</v>
       </c>
       <c r="P12" s="141" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q12" s="141" t="s">
         <v>413</v>
       </c>
       <c r="S12" s="188" t="s">
-        <v>1365</v>
-      </c>
-      <c r="T12" s="189">
-        <f>SUM(T13:T19)</f>
-        <v>5853.79</v>
+        <v>1364</v>
+      </c>
+      <c r="T12" s="189" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
@@ -16307,7 +20387,7 @@
         <v>170</v>
       </c>
       <c r="C13" s="209" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D13" s="209" t="s">
         <v>133</v>
@@ -16328,10 +20408,10 @@
         <v>138</v>
       </c>
       <c r="J13" s="209" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="K13" s="202" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="M13" s="171" t="s">
         <v>448</v>
@@ -16346,7 +20426,7 @@
         <v>11420</v>
       </c>
       <c r="P13" s="171" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Q13" s="183">
         <f>IFERROR(
@@ -16366,7 +20446,7 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C14" s="198" t="s">
         <v>139</v>
@@ -16511,7 +20591,7 @@
         <v>2390</v>
       </c>
       <c r="P14" s="171" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Q14" s="183">
         <f>IFERROR(
@@ -16531,7 +20611,7 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C15" s="198" t="s">
         <v>140</v>
@@ -16676,7 +20756,7 @@
         <v>1860</v>
       </c>
       <c r="P15" s="171" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Q15" s="183">
         <f>IFERROR(
@@ -16696,7 +20776,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C16" s="198" t="s">
         <v>141</v>
@@ -16829,7 +20909,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="171" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="N16" s="183">
         <f>IFERROR(
@@ -16841,7 +20921,7 @@
         <v>1770</v>
       </c>
       <c r="P16" s="171" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Q16" s="183">
         <f>IFERROR(
@@ -16859,7 +20939,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C17" s="198" t="s">
         <v>142</v>
@@ -17004,7 +21084,7 @@
         <v>880</v>
       </c>
       <c r="P17" s="171" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q17" s="183">
         <f>IFERROR(
@@ -17022,7 +21102,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C18" s="198" t="s">
         <v>144</v>
@@ -17167,7 +21247,7 @@
         <v>550</v>
       </c>
       <c r="P18" s="171" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Q18" s="183">
         <f>IFERROR(
@@ -17179,13 +21259,13 @@
         <v>0</v>
       </c>
       <c r="S18" s="184" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="T18" s="185"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C19" s="198" t="s">
         <v>145</v>
@@ -17330,7 +21410,7 @@
         <v>150</v>
       </c>
       <c r="P19" s="171" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Q19" s="183">
         <f>IFERROR(
@@ -17348,7 +21428,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C20" s="198" t="s">
         <v>146</v>
@@ -17481,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="171" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="N20" s="183">
         <f>IFERROR(
@@ -17493,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="171" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Q20" s="183">
         <f>IFERROR(
@@ -17504,11 +21584,16 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="183"/>
+      <c r="S20" s="184" t="s">
+        <v>1377</v>
+      </c>
+      <c r="T20" s="185">
+        <v>6520</v>
+      </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="197" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C21" s="198" t="s">
         <v>147</v>
@@ -17653,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="171" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Q21" s="183">
         <f>IFERROR(
@@ -17663,12 +21748,6 @@
   ),
 0)</f>
         <v>0</v>
-      </c>
-      <c r="S21" s="184" t="s">
-        <v>1283</v>
-      </c>
-      <c r="T21" s="185">
-        <v>6520</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
@@ -17818,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="171" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q22" s="183">
         <f>IFERROR(
@@ -17969,7 +22048,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="171" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="N23" s="183">
         <f>IFERROR(
@@ -17981,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="171" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q23" s="183">
         <f>IFERROR(
@@ -18132,7 +22211,7 @@
         <v>15</v>
       </c>
       <c r="M24" s="171" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="N24" s="183">
         <f>IFERROR(
@@ -18144,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="171" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Q24" s="183">
         <f>IFERROR(
@@ -18292,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="171" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="N25" s="183">
         <f>IFERROR(
@@ -18304,7 +22383,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="171" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Q25" s="183">
         <f>IFERROR(
@@ -18452,7 +22531,7 @@
         <v>6</v>
       </c>
       <c r="M26" s="171" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="N26" s="183">
         <f>IFERROR(
@@ -18464,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="171" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Q26" s="183">
         <f>IFERROR(
@@ -18476,11 +22555,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="188" t="s">
-        <v>1365</v>
-      </c>
-      <c r="T26" s="189">
-        <f>SUM(T27:T33)</f>
-        <v>4425.79</v>
+        <v>1364</v>
+      </c>
+      <c r="T26" s="189" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
@@ -18990,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="184" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="T32" s="185">
         <v>250.79</v>
@@ -18998,7 +23076,7 @@
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33" s="206" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D33" s="206"/>
       <c r="E33" s="206"/>
@@ -19129,7 +23207,7 @@
       </c>
       <c r="K34" s="192"/>
       <c r="M34" s="171" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="N34" s="183">
         <f>IFERROR(
@@ -19140,7 +23218,12 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="183"/>
+      <c r="S34" s="184" t="s">
+        <v>1377</v>
+      </c>
+      <c r="T34" s="185">
+        <v>8720</v>
+      </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" s="186" t="s">
@@ -19257,12 +23340,6 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S35" s="184" t="s">
-        <v>1283</v>
-      </c>
-      <c r="T35" s="185">
-        <v>8720</v>
-      </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" s="186" t="s">
@@ -19368,7 +23445,7 @@
       </c>
       <c r="K36" s="192"/>
       <c r="M36" s="171" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="N36" s="183">
         <f>IFERROR(
@@ -19488,7 +23565,7 @@
       </c>
       <c r="K37" s="192"/>
       <c r="M37" s="171" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="N37" s="183">
         <f>IFERROR(
@@ -19998,7 +24075,7 @@
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="M44" s="171" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="N44" s="183">
         <f>IFERROR(
@@ -20054,7 +24131,7 @@
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="M48" s="171" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="N48" s="183">
         <f>IFERROR(
@@ -20068,7 +24145,7 @@
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M49" s="171" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="N49" s="183">
         <f>IFERROR(
@@ -20124,42 +24201,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D34:I41 D15:J29 J32:K41">
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:K7 D14:K14 J13:K13 K15:K29">
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N10">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q10">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T10">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:I10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28606,43 +32683,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S1001">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>$A2="EM ROTA (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>$A2="CONCLUIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>MID(TRIM($A2), LEN(TRIM($A2))-2, 3)="(D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND(INT($H2)=TODAY()+1, COUNTIF($A2:$A2,"CONCLUIDO*")+COUNTIF($A2:$A2,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="5">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>AND(INT($H2)=TODAY(), COUNTIF($A2:$A2,"CONCLUIDO*")+COUNTIF($A2:$A2,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="6">
+    <cfRule type="expression" dxfId="60" priority="6">
       <formula>$A2="RECEBIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="7">
+    <cfRule type="expression" dxfId="59" priority="7">
       <formula>$A2="EM ROTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>$A2="RECEBIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="10">
+    <cfRule type="expression" dxfId="57" priority="10">
       <formula>$A2="SUSPENSO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="11">
+    <cfRule type="expression" dxfId="56" priority="11">
       <formula>$A2="PROGRAMADO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>$A2="PROGRAMADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="54" priority="13">
       <formula>$A2="CONCLUIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="14">
+    <cfRule type="expression" dxfId="53" priority="14">
       <formula>$A2="CONCLUIDO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28734,7 +32811,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -29013,7 +33090,7 @@
         <v>027525938</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G7" s="14">
         <v>1100</v>
@@ -29053,7 +33130,7 @@
         <v>027525938</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G8" s="14">
         <v>550</v>
@@ -29093,7 +33170,7 @@
         <v>027525938</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G9" s="14">
         <v>600</v>
@@ -29133,7 +33210,7 @@
         <v>027525938</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G10" s="14">
         <v>550</v>
@@ -29173,7 +33250,7 @@
         <v>027525938</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G11" s="14">
         <v>850</v>
@@ -29213,7 +33290,7 @@
         <v>027525938</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G12" s="14">
         <v>1100</v>
@@ -29253,7 +33330,7 @@
         <v>027525938</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G13" s="14">
         <v>830</v>
@@ -29411,7 +33488,7 @@
         <v>032878844</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G17" s="14">
         <v>910</v>
@@ -29451,7 +33528,7 @@
         <v>051496564</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G18" s="14">
         <v>520</v>
@@ -29491,7 +33568,7 @@
         <v>051496564</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G19" s="14">
         <v>180</v>
@@ -29531,7 +33608,7 @@
         <v>080227796</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G20" s="14">
         <v>529.48</v>
@@ -29571,7 +33648,7 @@
         <v>080227796</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G21" s="14">
         <v>371.14</v>
@@ -29649,7 +33726,7 @@
         <v>006914002</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G23" s="14">
         <v>1295</v>
@@ -29689,7 +33766,7 @@
         <v>006914002</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G24" s="14">
         <v>975</v>
@@ -30039,7 +34116,7 @@
         <v>051496564</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G33" s="14">
         <v>400</v>
@@ -30153,7 +34230,7 @@
         <v>051496564</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G36" s="14">
         <v>420</v>
@@ -30231,7 +34308,7 @@
         <v>051496564</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G38" s="14">
         <v>250</v>
@@ -30311,7 +34388,7 @@
         <v>080227796</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G40" s="14">
         <v>345.91</v>
@@ -30351,7 +34428,7 @@
         <v>080227796</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G41" s="14">
         <v>49.74</v>
@@ -30391,7 +34468,7 @@
         <v>080227796</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G42" s="14">
         <v>46.32</v>
@@ -30431,7 +34508,7 @@
         <v>056953013</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G43" s="14">
         <v>884.29</v>
@@ -30471,7 +34548,7 @@
         <v>056953013</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G44" s="14">
         <v>884.29</v>
@@ -30511,7 +34588,7 @@
         <v>056953013</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G45" s="14">
         <v>884.29</v>
@@ -30551,7 +34628,7 @@
         <v>056953013</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G46" s="14">
         <v>884.29</v>
@@ -30591,7 +34668,7 @@
         <v>056953013</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G47" s="14">
         <v>884.29</v>
@@ -30631,7 +34708,7 @@
         <v>056953013</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G48" s="14">
         <v>884.29</v>
@@ -30671,7 +34748,7 @@
         <v>056953013</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G49" s="14">
         <v>884.29</v>
@@ -30750,7 +34827,7 @@
         <v>006914002</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G51" s="14">
         <v>800</v>
@@ -30790,7 +34867,7 @@
         <v>046304055</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G52" s="14">
         <v>500</v>
@@ -30822,7 +34899,7 @@
         <v>046304055</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G53" s="14">
         <v>300</v>
@@ -30854,7 +34931,7 @@
         <v>046304055</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G54" s="14">
         <v>300</v>
@@ -30886,7 +34963,7 @@
         <v>006914002</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G55" s="14">
         <v>1000</v>
@@ -30954,7 +35031,7 @@
         <v>030877442</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G57" s="14">
         <v>1262</v>
@@ -30988,7 +35065,7 @@
         <v>019320206</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G58" s="14">
         <v>1000</v>
@@ -31022,7 +35099,7 @@
         <v>061028125</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G59" s="14">
         <v>270</v>
@@ -31056,7 +35133,7 @@
         <v>019320206</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G60" s="14">
         <v>300</v>
@@ -31088,7 +35165,7 @@
         <v>019320206</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G61" s="14">
         <v>300</v>
@@ -31120,7 +35197,7 @@
         <v>019320206</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G62" s="14">
         <v>800</v>
@@ -31152,7 +35229,7 @@
         <v>019320206</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G63" s="14">
         <v>800</v>
@@ -31184,7 +35261,7 @@
         <v>019320206</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G64" s="14">
         <v>400</v>
@@ -31216,7 +35293,7 @@
         <v>019320206</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G65" s="14">
         <v>400</v>
@@ -31288,7 +35365,7 @@
         <v>018725298</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G67" s="14">
         <v>1352</v>
@@ -31322,7 +35399,7 @@
         <v>018725298</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G68" s="14">
         <v>650</v>
@@ -31356,7 +35433,7 @@
         <v>018725298</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G69" s="14">
         <v>650</v>
@@ -31390,7 +35467,7 @@
         <v>018725298</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G70" s="14">
         <v>1458</v>
@@ -31424,7 +35501,7 @@
         <v>018725298</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G71" s="14">
         <v>2890</v>
@@ -31458,7 +35535,7 @@
         <v>018725298</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G72" s="14">
         <v>1389</v>
@@ -31526,7 +35603,7 @@
         <v>018725298</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G74" s="14">
         <v>3662.3</v>
@@ -31662,7 +35739,7 @@
         <v>032603119</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G78" s="14">
         <v>3800</v>
@@ -31694,7 +35771,7 @@
         <v>032603119</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G79" s="14">
         <v>1600</v>
@@ -31726,7 +35803,7 @@
         <v>006233947</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G80" s="14">
         <v>9600</v>
@@ -31872,23 +35949,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H9996">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>$H2="APROVADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>$H2="AGUARDANDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L9996">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>LEN(TRIM($A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="6">
+    <cfRule type="expression" dxfId="49" priority="6">
       <formula>LEN(TRIM($J2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L9996">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>LEN(TRIM($J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32031,10 +36108,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:O9997">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>$A2="REGISTRADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>$A2="CONCLUIDO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32057,7 +36134,7 @@
   </sheetPr>
   <dimension ref="A1:AB210"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C162" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q152" sqref="Q152:Q203"/>
     </sheetView>
   </sheetViews>
@@ -32216,13 +36293,13 @@
         <v>596</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="R2" s="18" t="s">
         <v>597</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T2" s="167"/>
       <c r="W2" s="8" t="s">
@@ -32289,7 +36366,7 @@
         <v>631</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T3" s="167"/>
       <c r="V3" s="7">
@@ -32362,7 +36439,7 @@
         <v>603</v>
       </c>
       <c r="S4" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T4" s="167"/>
       <c r="W4" s="8" t="s">
@@ -32429,7 +36506,7 @@
         <v>646</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T5" s="167"/>
       <c r="V5" s="7">
@@ -32496,13 +36573,13 @@
         <v>743</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="R6" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T6" s="167"/>
       <c r="W6" s="8" t="s">
@@ -32565,13 +36642,13 @@
         <v>750</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="R7" s="18" t="s">
         <v>590</v>
       </c>
       <c r="S7" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T7" s="167"/>
       <c r="V7" s="7">
@@ -32638,13 +36715,13 @@
         <v>807</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>808</v>
       </c>
       <c r="S8" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T8" s="167"/>
       <c r="W8" s="8" t="s">
@@ -32705,13 +36782,13 @@
         <v>810</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S9" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T9" s="167"/>
       <c r="V9" s="7">
@@ -32784,7 +36861,7 @@
         <v>582</v>
       </c>
       <c r="S10" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T10" s="167"/>
       <c r="W10" s="8" t="s">
@@ -32851,7 +36928,7 @@
         <v>799</v>
       </c>
       <c r="S11" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T11" s="167"/>
       <c r="V11" s="7">
@@ -32924,7 +37001,7 @@
         <v>603</v>
       </c>
       <c r="S12" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T12" s="167"/>
       <c r="W12" s="8" t="s">
@@ -32991,7 +37068,7 @@
         <v>603</v>
       </c>
       <c r="S13" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T13" s="167"/>
       <c r="V13" s="7">
@@ -33064,7 +37141,7 @@
         <v>590</v>
       </c>
       <c r="S14" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T14" s="167"/>
       <c r="W14" s="8" t="s">
@@ -33131,7 +37208,7 @@
         <v>590</v>
       </c>
       <c r="S15" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T15" s="167"/>
       <c r="V15" s="7">
@@ -33204,7 +37281,7 @@
         <v>611</v>
       </c>
       <c r="S16" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T16" s="167"/>
       <c r="W16" s="8" t="s">
@@ -33271,7 +37348,7 @@
         <v>927</v>
       </c>
       <c r="S17" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T17" s="167"/>
       <c r="W17" s="7"/>
@@ -33333,13 +37410,13 @@
         <v>933</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="R18" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S18" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T18" s="167"/>
       <c r="W18" s="7"/>
@@ -33409,7 +37486,7 @@
         <v>763</v>
       </c>
       <c r="S19" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T19" s="167"/>
       <c r="W19" s="7"/>
@@ -33470,13 +37547,13 @@
         <v>960</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>961</v>
       </c>
       <c r="S20" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="T20" s="167"/>
       <c r="W20" s="17" t="s">
@@ -33536,13 +37613,13 @@
         <v>963</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="R21" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S21" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W21" s="18" t="s">
         <v>709</v>
@@ -33607,7 +37684,7 @@
         <v>603</v>
       </c>
       <c r="S22" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W22" s="18" t="s">
         <v>714</v>
@@ -33673,7 +37750,7 @@
         <v>970</v>
       </c>
       <c r="S23" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W23" s="18" t="s">
         <v>722</v>
@@ -33739,7 +37816,7 @@
         <v>811</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W24" s="18" t="s">
         <v>729</v>
@@ -33798,7 +37875,7 @@
         <v>811</v>
       </c>
       <c r="S25" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W25" s="18" t="s">
         <v>733</v>
@@ -33857,7 +37934,7 @@
         <v>799</v>
       </c>
       <c r="S26" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W26" s="18" t="s">
         <v>739</v>
@@ -33921,7 +37998,7 @@
         <v>799</v>
       </c>
       <c r="S27" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>744</v>
@@ -33989,7 +38066,7 @@
         <v>799</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W28" s="18" t="s">
         <v>751</v>
@@ -34057,7 +38134,7 @@
         <v>799</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W29" s="18" t="s">
         <v>758</v>
@@ -34125,7 +38202,7 @@
         <v>603</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W30" s="18" t="s">
         <v>764</v>
@@ -34187,13 +38264,13 @@
         <v>1041</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="R31" s="18" t="s">
         <v>961</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W31" s="18" t="s">
         <v>769</v>
@@ -34255,13 +38332,13 @@
         <v>1043</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="R32" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W32" s="18" t="s">
         <v>774</v>
@@ -34329,7 +38406,7 @@
         <v>1047</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W33" s="18" t="s">
         <v>779</v>
@@ -34397,7 +38474,7 @@
         <v>1054</v>
       </c>
       <c r="S34" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W34" s="65" t="s">
         <v>785</v>
@@ -34465,7 +38542,7 @@
         <v>738</v>
       </c>
       <c r="S35" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W35" s="65" t="s">
         <v>791</v>
@@ -34527,13 +38604,13 @@
         <v>1158</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="R36" s="18" t="s">
         <v>631</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W36" s="65" t="s">
         <v>795</v>
@@ -34586,13 +38663,13 @@
         <v>1173</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="R37" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W37" s="65" t="s">
         <v>800</v>
@@ -34651,7 +38728,7 @@
         <v>603</v>
       </c>
       <c r="S38" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
@@ -34711,7 +38788,7 @@
         <v>582</v>
       </c>
       <c r="S39" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
@@ -34768,7 +38845,7 @@
         <v>582</v>
       </c>
       <c r="S40" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
@@ -34825,7 +38902,7 @@
         <v>611</v>
       </c>
       <c r="S41" s="174" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
@@ -34882,7 +38959,7 @@
         <v>702</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
@@ -34939,7 +39016,7 @@
         <v>582</v>
       </c>
       <c r="S43" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
@@ -34996,7 +39073,7 @@
         <v>582</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
@@ -35053,7 +39130,7 @@
         <v>582</v>
       </c>
       <c r="S45" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
@@ -35110,7 +39187,7 @@
         <v>757</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
@@ -35167,7 +39244,7 @@
         <v>763</v>
       </c>
       <c r="S47" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
@@ -35224,7 +39301,7 @@
         <v>702</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
@@ -35281,7 +39358,7 @@
         <v>611</v>
       </c>
       <c r="S49" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -35336,7 +39413,7 @@
         <v>582</v>
       </c>
       <c r="S50" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -35391,7 +39468,7 @@
         <v>784</v>
       </c>
       <c r="S51" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -35446,7 +39523,7 @@
         <v>799</v>
       </c>
       <c r="S52" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -35501,7 +39578,7 @@
         <v>582</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -35556,7 +39633,7 @@
         <v>702</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -35611,7 +39688,7 @@
         <v>827</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -35663,10 +39740,10 @@
         <v>832</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -35721,7 +39798,7 @@
         <v>582</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -35776,7 +39853,7 @@
         <v>1024</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -35831,7 +39908,7 @@
         <v>1035</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -35886,7 +39963,7 @@
         <v>582</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -35941,7 +40018,7 @@
         <v>582</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -35996,7 +40073,7 @@
         <v>582</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -36051,7 +40128,7 @@
         <v>582</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -36106,7 +40183,7 @@
         <v>582</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -36161,7 +40238,7 @@
         <v>582</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -36216,7 +40293,7 @@
         <v>582</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -36271,7 +40348,7 @@
         <v>590</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -36326,7 +40403,7 @@
         <v>582</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -36381,7 +40458,7 @@
         <v>582</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -36436,7 +40513,7 @@
         <v>611</v>
       </c>
       <c r="S70" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -36491,7 +40568,7 @@
         <v>611</v>
       </c>
       <c r="S71" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -36546,7 +40623,7 @@
         <v>611</v>
       </c>
       <c r="S72" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -36601,7 +40678,7 @@
         <v>582</v>
       </c>
       <c r="S73" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -36656,7 +40733,7 @@
         <v>582</v>
       </c>
       <c r="S74" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -36711,7 +40788,7 @@
         <v>582</v>
       </c>
       <c r="S75" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -36766,7 +40843,7 @@
         <v>582</v>
       </c>
       <c r="S76" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -36821,7 +40898,7 @@
         <v>582</v>
       </c>
       <c r="S77" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -36876,7 +40953,7 @@
         <v>582</v>
       </c>
       <c r="S78" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -36931,7 +41008,7 @@
         <v>582</v>
       </c>
       <c r="S79" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -36986,7 +41063,7 @@
         <v>582</v>
       </c>
       <c r="S80" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -37041,7 +41118,7 @@
         <v>799</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -37096,7 +41173,7 @@
         <v>582</v>
       </c>
       <c r="S82" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -37151,7 +41228,7 @@
         <v>582</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -37206,7 +41283,7 @@
         <v>582</v>
       </c>
       <c r="S84" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -37261,7 +41338,7 @@
         <v>582</v>
       </c>
       <c r="S85" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -37316,7 +41393,7 @@
         <v>582</v>
       </c>
       <c r="S86" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -37371,7 +41448,7 @@
         <v>1165</v>
       </c>
       <c r="S87" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -37426,7 +41503,7 @@
         <v>671</v>
       </c>
       <c r="S88" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -37481,7 +41558,7 @@
         <v>582</v>
       </c>
       <c r="S89" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -37536,7 +41613,7 @@
         <v>582</v>
       </c>
       <c r="S90" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -37591,7 +41668,7 @@
         <v>582</v>
       </c>
       <c r="S91" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -37646,7 +41723,7 @@
         <v>611</v>
       </c>
       <c r="S92" s="174" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
@@ -37695,13 +41772,13 @@
         <v>589</v>
       </c>
       <c r="Q93" s="18" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="R93" s="18" t="s">
         <v>590</v>
       </c>
       <c r="S93" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
@@ -37750,13 +41827,13 @@
         <v>602</v>
       </c>
       <c r="Q94" s="18" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="R94" s="18" t="s">
         <v>603</v>
       </c>
       <c r="S94" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -37805,13 +41882,13 @@
         <v>610</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="R95" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S95" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
@@ -37860,13 +41937,13 @@
         <v>625</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="R96" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S96" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
@@ -37915,13 +41992,13 @@
         <v>664</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R97" s="18" t="s">
         <v>665</v>
       </c>
       <c r="S97" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
@@ -37970,13 +42047,13 @@
         <v>670</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R98" s="18" t="s">
         <v>671</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -38025,13 +42102,13 @@
         <v>676</v>
       </c>
       <c r="Q99" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R99" s="18" t="s">
         <v>677</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -38080,13 +42157,13 @@
         <v>682</v>
       </c>
       <c r="Q100" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R100" s="18" t="s">
         <v>683</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -38135,13 +42212,13 @@
         <v>688</v>
       </c>
       <c r="Q101" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R101" s="18" t="s">
         <v>689</v>
       </c>
       <c r="S101" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -38190,13 +42267,13 @@
         <v>696</v>
       </c>
       <c r="Q102" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R102" s="18" t="s">
         <v>697</v>
       </c>
       <c r="S102" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -38245,13 +42322,13 @@
         <v>676</v>
       </c>
       <c r="Q103" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R103" s="18" t="s">
         <v>702</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
@@ -38300,13 +42377,13 @@
         <v>707</v>
       </c>
       <c r="Q104" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R104" s="18" t="s">
         <v>708</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
@@ -38355,13 +42432,13 @@
         <v>682</v>
       </c>
       <c r="Q105" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R105" s="18" t="s">
         <v>713</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
@@ -38410,13 +42487,13 @@
         <v>720</v>
       </c>
       <c r="Q106" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R106" s="18" t="s">
         <v>721</v>
       </c>
       <c r="S106" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
@@ -38465,13 +42542,13 @@
         <v>804</v>
       </c>
       <c r="Q107" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="R107" s="18" t="s">
         <v>805</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -38520,13 +42597,13 @@
         <v>818</v>
       </c>
       <c r="Q108" s="18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="R108" s="18" t="s">
         <v>819</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
@@ -38575,13 +42652,13 @@
         <v>829</v>
       </c>
       <c r="Q109" s="18" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="R109" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
@@ -38630,13 +42707,13 @@
         <v>834</v>
       </c>
       <c r="Q110" s="18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="R110" s="18" t="s">
         <v>835</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
@@ -38685,13 +42762,13 @@
         <v>840</v>
       </c>
       <c r="Q111" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="R111" s="18" t="s">
         <v>841</v>
       </c>
       <c r="S111" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
@@ -38740,13 +42817,13 @@
         <v>901</v>
       </c>
       <c r="Q112" s="18" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="R112" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S112" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -38795,13 +42872,13 @@
         <v>904</v>
       </c>
       <c r="Q113" s="18" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="R113" s="18" t="s">
         <v>603</v>
       </c>
       <c r="S113" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
@@ -38850,13 +42927,13 @@
         <v>911</v>
       </c>
       <c r="Q114" s="18" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="R114" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
@@ -38905,13 +42982,13 @@
         <v>914</v>
       </c>
       <c r="Q115" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="R115" s="18" t="s">
         <v>671</v>
       </c>
       <c r="S115" s="174" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -38960,13 +43037,13 @@
         <v>930</v>
       </c>
       <c r="Q116" s="18" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R116" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
@@ -39015,13 +43092,13 @@
         <v>936</v>
       </c>
       <c r="Q117" s="18" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R117" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
@@ -39070,13 +43147,13 @@
         <v>1203</v>
       </c>
       <c r="Q118" s="18" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="R118" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
@@ -39125,13 +43202,13 @@
         <v>951</v>
       </c>
       <c r="Q119" s="18" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="R119" s="18" t="s">
         <v>799</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
@@ -39180,13 +43257,13 @@
         <v>954</v>
       </c>
       <c r="Q120" s="18" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="R120" s="18" t="s">
         <v>799</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
@@ -39235,13 +43312,13 @@
         <v>956</v>
       </c>
       <c r="Q121" s="18" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="R121" s="18" t="s">
         <v>957</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
@@ -39290,13 +43367,13 @@
         <v>992</v>
       </c>
       <c r="Q122" s="18" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="R122" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
@@ -39345,13 +43422,13 @@
         <v>1016</v>
       </c>
       <c r="Q123" s="18" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="R123" s="18" t="s">
         <v>1017</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
@@ -39400,13 +43477,13 @@
         <v>1030</v>
       </c>
       <c r="Q124" s="18" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="R124" s="18" t="s">
         <v>1031</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
@@ -39455,13 +43532,13 @@
         <v>1056</v>
       </c>
       <c r="Q125" s="18" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="R125" s="18" t="s">
         <v>1057</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
@@ -39510,13 +43587,13 @@
         <v>1059</v>
       </c>
       <c r="Q126" s="18" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="R126" s="18" t="s">
         <v>738</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
@@ -39565,13 +43642,13 @@
         <v>1061</v>
       </c>
       <c r="Q127" s="18" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="R127" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
@@ -39620,13 +43697,13 @@
         <v>1066</v>
       </c>
       <c r="Q128" s="18" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="R128" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
@@ -39675,13 +43752,13 @@
         <v>1068</v>
       </c>
       <c r="Q129" s="18" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="R129" s="18" t="s">
         <v>799</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.3">
@@ -39730,13 +43807,13 @@
         <v>1070</v>
       </c>
       <c r="Q130" s="18" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="R130" s="18" t="s">
         <v>799</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.3">
@@ -39785,13 +43862,13 @@
         <v>1075</v>
       </c>
       <c r="Q131" s="18" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="R131" s="18" t="s">
         <v>1076</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.3">
@@ -39840,13 +43917,13 @@
         <v>1090</v>
       </c>
       <c r="Q132" s="18" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="R132" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
@@ -39895,13 +43972,13 @@
         <v>1104</v>
       </c>
       <c r="Q133" s="18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="R133" s="18" t="s">
         <v>1105</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
@@ -39950,13 +44027,13 @@
         <v>1135</v>
       </c>
       <c r="Q134" s="18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R134" s="18" t="s">
         <v>799</v>
       </c>
       <c r="S134" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
@@ -40005,13 +44082,13 @@
         <v>1138</v>
       </c>
       <c r="Q135" s="18" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="R135" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
@@ -40060,13 +44137,13 @@
         <v>1154</v>
       </c>
       <c r="Q136" s="18" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="R136" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
@@ -40081,13 +44158,13 @@
         <v>1157</v>
       </c>
       <c r="Q137" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="R137" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
@@ -40102,13 +44179,13 @@
         <v>1168</v>
       </c>
       <c r="Q138" s="18" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="R138" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
@@ -40123,13 +44200,13 @@
         <v>1171</v>
       </c>
       <c r="Q139" s="18" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="R139" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
@@ -40144,13 +44221,13 @@
         <v>1172</v>
       </c>
       <c r="Q140" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="R140" s="18" t="s">
         <v>611</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
@@ -40165,13 +44242,13 @@
         <v>1174</v>
       </c>
       <c r="Q141" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="R141" s="18" t="s">
         <v>702</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.3">
@@ -40186,13 +44263,13 @@
         <v>1179</v>
       </c>
       <c r="Q142" s="18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="R142" s="18" t="s">
         <v>590</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.3">
@@ -40207,13 +44284,13 @@
         <v>1184</v>
       </c>
       <c r="Q143" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="R143" s="18" t="s">
         <v>1185</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.3">
@@ -40228,13 +44305,13 @@
         <v>1196</v>
       </c>
       <c r="Q144" s="18" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="R144" s="18" t="s">
         <v>1197</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="145" spans="14:19" x14ac:dyDescent="0.3">
@@ -40249,13 +44326,13 @@
         <v>1198</v>
       </c>
       <c r="Q145" s="18" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="R145" s="18" t="s">
         <v>631</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="146" spans="14:19" x14ac:dyDescent="0.3">
@@ -40270,13 +44347,13 @@
         <v>1199</v>
       </c>
       <c r="Q146" s="18" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="R146" s="18" t="s">
         <v>799</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="147" spans="14:19" x14ac:dyDescent="0.3">
@@ -40291,13 +44368,13 @@
         <v>1200</v>
       </c>
       <c r="Q147" s="18" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="R147" s="18" t="s">
         <v>1201</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="148" spans="14:19" x14ac:dyDescent="0.3">
@@ -40318,7 +44395,7 @@
         <v>582</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="149" spans="14:19" x14ac:dyDescent="0.3">
@@ -40339,7 +44416,7 @@
         <v>611</v>
       </c>
       <c r="S149" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="150" spans="14:19" x14ac:dyDescent="0.3">
@@ -40360,7 +44437,7 @@
         <v>582</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="151" spans="14:19" x14ac:dyDescent="0.3">
@@ -40375,13 +44452,13 @@
         <v>581</v>
       </c>
       <c r="Q151" s="18" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="R151" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="152" spans="14:19" x14ac:dyDescent="0.3">
@@ -40396,13 +44473,13 @@
         <v>658</v>
       </c>
       <c r="Q152" s="18" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="R152" s="18" t="s">
         <v>659</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="153" spans="14:19" x14ac:dyDescent="0.3">
@@ -40417,13 +44494,13 @@
         <v>737</v>
       </c>
       <c r="Q153" s="18" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="R153" s="18" t="s">
         <v>738</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="154" spans="14:19" x14ac:dyDescent="0.3">
@@ -40438,13 +44515,13 @@
         <v>790</v>
       </c>
       <c r="Q154" s="18" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="R154" s="18" t="s">
         <v>702</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="155" spans="14:19" x14ac:dyDescent="0.3">
@@ -40459,13 +44536,13 @@
         <v>790</v>
       </c>
       <c r="Q155" s="18" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="R155" s="18" t="s">
         <v>702</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="156" spans="14:19" x14ac:dyDescent="0.3">
@@ -40480,13 +44557,13 @@
         <v>848</v>
       </c>
       <c r="Q156" s="18" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="R156" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="157" spans="14:19" x14ac:dyDescent="0.3">
@@ -40501,13 +44578,13 @@
         <v>995</v>
       </c>
       <c r="Q157" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="R157" s="18" t="s">
         <v>811</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="158" spans="14:19" x14ac:dyDescent="0.3">
@@ -40522,13 +44599,13 @@
         <v>999</v>
       </c>
       <c r="Q158" s="18" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="R158" s="18" t="s">
         <v>1000</v>
       </c>
       <c r="S158" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="159" spans="14:19" x14ac:dyDescent="0.3">
@@ -40543,13 +44620,13 @@
         <v>1003</v>
       </c>
       <c r="Q159" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="R159" s="18" t="s">
         <v>1004</v>
       </c>
       <c r="S159" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="160" spans="14:19" x14ac:dyDescent="0.3">
@@ -40564,13 +44641,13 @@
         <v>1019</v>
       </c>
       <c r="Q160" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="R160" s="18" t="s">
         <v>1004</v>
       </c>
       <c r="S160" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="161" spans="14:19" x14ac:dyDescent="0.3">
@@ -40585,13 +44662,13 @@
         <v>1099</v>
       </c>
       <c r="Q161" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R161" s="18" t="s">
         <v>1100</v>
       </c>
       <c r="S161" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="162" spans="14:19" x14ac:dyDescent="0.3">
@@ -40606,13 +44683,13 @@
         <v>1139</v>
       </c>
       <c r="Q162" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R162" s="18" t="s">
         <v>1004</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="163" spans="14:19" x14ac:dyDescent="0.3">
@@ -40627,13 +44704,13 @@
         <v>1140</v>
       </c>
       <c r="Q163" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R163" s="18" t="s">
         <v>864</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="164" spans="14:19" x14ac:dyDescent="0.3">
@@ -40648,13 +44725,13 @@
         <v>1141</v>
       </c>
       <c r="Q164" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R164" s="18" t="s">
         <v>1142</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="165" spans="14:19" x14ac:dyDescent="0.3">
@@ -40669,13 +44746,13 @@
         <v>1141</v>
       </c>
       <c r="Q165" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R165" s="18" t="s">
         <v>1004</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="166" spans="14:19" x14ac:dyDescent="0.3">
@@ -40690,13 +44767,13 @@
         <v>1143</v>
       </c>
       <c r="Q166" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R166" s="18" t="s">
         <v>1144</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="167" spans="14:19" x14ac:dyDescent="0.3">
@@ -40711,13 +44788,13 @@
         <v>1141</v>
       </c>
       <c r="Q167" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R167" s="18" t="s">
         <v>1145</v>
       </c>
       <c r="S167" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="168" spans="14:19" x14ac:dyDescent="0.3">
@@ -40732,13 +44809,13 @@
         <v>1146</v>
       </c>
       <c r="Q168" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R168" s="18" t="s">
         <v>763</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="169" spans="14:19" x14ac:dyDescent="0.3">
@@ -40753,13 +44830,13 @@
         <v>1147</v>
       </c>
       <c r="Q169" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R169" s="18" t="s">
         <v>1148</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="170" spans="14:19" x14ac:dyDescent="0.3">
@@ -40774,13 +44851,13 @@
         <v>1146</v>
       </c>
       <c r="Q170" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R170" s="18" t="s">
         <v>876</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="171" spans="14:19" x14ac:dyDescent="0.3">
@@ -40795,13 +44872,13 @@
         <v>1149</v>
       </c>
       <c r="Q171" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R171" s="18" t="s">
         <v>1150</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="172" spans="14:19" x14ac:dyDescent="0.3">
@@ -40816,13 +44893,13 @@
         <v>1151</v>
       </c>
       <c r="Q172" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R172" s="18" t="s">
         <v>1057</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="173" spans="14:19" x14ac:dyDescent="0.3">
@@ -40837,13 +44914,13 @@
         <v>1152</v>
       </c>
       <c r="Q173" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R173" s="18" t="s">
         <v>1153</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="174" spans="14:19" x14ac:dyDescent="0.3">
@@ -40858,13 +44935,13 @@
         <v>1169</v>
       </c>
       <c r="Q174" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="R174" s="18" t="s">
         <v>1170</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="175" spans="14:19" x14ac:dyDescent="0.3">
@@ -40879,13 +44956,13 @@
         <v>1169</v>
       </c>
       <c r="Q175" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="R175" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S175" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="176" spans="14:19" x14ac:dyDescent="0.3">
@@ -40900,13 +44977,13 @@
         <v>1180</v>
       </c>
       <c r="Q176" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="R176" s="18" t="s">
         <v>1181</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="177" spans="14:19" x14ac:dyDescent="0.3">
@@ -40921,13 +44998,13 @@
         <v>1180</v>
       </c>
       <c r="Q177" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="R177" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="178" spans="14:19" x14ac:dyDescent="0.3">
@@ -40942,13 +45019,13 @@
         <v>1182</v>
       </c>
       <c r="Q178" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="R178" s="18" t="s">
         <v>659</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="179" spans="14:19" x14ac:dyDescent="0.3">
@@ -40963,13 +45040,13 @@
         <v>1183</v>
       </c>
       <c r="Q179" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="R179" s="18" t="s">
         <v>1057</v>
       </c>
       <c r="S179" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="180" spans="14:19" x14ac:dyDescent="0.3">
@@ -40984,13 +45061,13 @@
         <v>1183</v>
       </c>
       <c r="Q180" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="R180" s="18" t="s">
         <v>1057</v>
       </c>
       <c r="S180" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="181" spans="14:19" x14ac:dyDescent="0.3">
@@ -41005,13 +45082,13 @@
         <v>1188</v>
       </c>
       <c r="Q181" s="18" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="R181" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S181" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="182" spans="14:19" x14ac:dyDescent="0.3">
@@ -41026,13 +45103,13 @@
         <v>851</v>
       </c>
       <c r="Q182" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R182" s="18" t="s">
         <v>853</v>
       </c>
       <c r="S182" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="183" spans="14:19" x14ac:dyDescent="0.3">
@@ -41047,13 +45124,13 @@
         <v>852</v>
       </c>
       <c r="Q183" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R183" s="18" t="s">
         <v>856</v>
       </c>
       <c r="S183" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="184" spans="14:19" x14ac:dyDescent="0.3">
@@ -41068,13 +45145,13 @@
         <v>852</v>
       </c>
       <c r="Q184" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R184" s="18" t="s">
         <v>856</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="185" spans="14:19" x14ac:dyDescent="0.3">
@@ -41089,13 +45166,13 @@
         <v>852</v>
       </c>
       <c r="Q185" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R185" s="18" t="s">
         <v>861</v>
       </c>
       <c r="S185" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="186" spans="14:19" x14ac:dyDescent="0.3">
@@ -41110,13 +45187,13 @@
         <v>851</v>
       </c>
       <c r="Q186" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R186" s="18" t="s">
         <v>864</v>
       </c>
       <c r="S186" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="187" spans="14:19" x14ac:dyDescent="0.3">
@@ -41131,13 +45208,13 @@
         <v>851</v>
       </c>
       <c r="Q187" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R187" s="18" t="s">
         <v>867</v>
       </c>
       <c r="S187" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="188" spans="14:19" x14ac:dyDescent="0.3">
@@ -41152,13 +45229,13 @@
         <v>851</v>
       </c>
       <c r="Q188" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R188" s="18" t="s">
         <v>870</v>
       </c>
       <c r="S188" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="189" spans="14:19" x14ac:dyDescent="0.3">
@@ -41173,13 +45250,13 @@
         <v>851</v>
       </c>
       <c r="Q189" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R189" s="18" t="s">
         <v>873</v>
       </c>
       <c r="S189" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="190" spans="14:19" x14ac:dyDescent="0.3">
@@ -41194,13 +45271,13 @@
         <v>851</v>
       </c>
       <c r="Q190" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R190" s="18" t="s">
         <v>876</v>
       </c>
       <c r="S190" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="191" spans="14:19" x14ac:dyDescent="0.3">
@@ -41215,13 +45292,13 @@
         <v>851</v>
       </c>
       <c r="Q191" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R191" s="18" t="s">
         <v>879</v>
       </c>
       <c r="S191" s="174" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="192" spans="14:19" x14ac:dyDescent="0.3">
@@ -41236,13 +45313,13 @@
         <v>851</v>
       </c>
       <c r="Q192" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R192" s="18" t="s">
         <v>882</v>
       </c>
       <c r="S192" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="193" spans="14:19" x14ac:dyDescent="0.3">
@@ -41257,13 +45334,13 @@
         <v>851</v>
       </c>
       <c r="Q193" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R193" s="18" t="s">
         <v>885</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="194" spans="14:19" x14ac:dyDescent="0.3">
@@ -41278,13 +45355,13 @@
         <v>888</v>
       </c>
       <c r="Q194" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R194" s="18" t="s">
         <v>889</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="195" spans="14:19" x14ac:dyDescent="0.3">
@@ -41299,13 +45376,13 @@
         <v>892</v>
       </c>
       <c r="Q195" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R195" s="18" t="s">
         <v>893</v>
       </c>
       <c r="S195" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="196" spans="14:19" x14ac:dyDescent="0.3">
@@ -41320,13 +45397,13 @@
         <v>888</v>
       </c>
       <c r="Q196" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R196" s="18" t="s">
         <v>702</v>
       </c>
       <c r="S196" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="197" spans="14:19" x14ac:dyDescent="0.3">
@@ -41341,13 +45418,13 @@
         <v>852</v>
       </c>
       <c r="Q197" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="R197" s="18" t="s">
         <v>870</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="198" spans="14:19" x14ac:dyDescent="0.3">
@@ -41362,13 +45439,13 @@
         <v>1125</v>
       </c>
       <c r="Q198" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R198" s="18" t="s">
         <v>1126</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="199" spans="14:19" x14ac:dyDescent="0.3">
@@ -41383,13 +45460,13 @@
         <v>1127</v>
       </c>
       <c r="Q199" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R199" s="18" t="s">
         <v>702</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="200" spans="14:19" x14ac:dyDescent="0.3">
@@ -41404,13 +45481,13 @@
         <v>1128</v>
       </c>
       <c r="Q200" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R200" s="18" t="s">
         <v>1129</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="201" spans="14:19" x14ac:dyDescent="0.3">
@@ -41425,13 +45502,13 @@
         <v>1128</v>
       </c>
       <c r="Q201" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R201" s="18" t="s">
         <v>582</v>
       </c>
       <c r="S201" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="202" spans="14:19" x14ac:dyDescent="0.3">
@@ -41446,13 +45523,13 @@
         <v>1128</v>
       </c>
       <c r="Q202" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R202" s="18" t="s">
         <v>1130</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="203" spans="14:19" x14ac:dyDescent="0.3">
@@ -41467,13 +45544,13 @@
         <v>1128</v>
       </c>
       <c r="Q203" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R203" s="18" t="s">
         <v>1057</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="204" spans="14:19" x14ac:dyDescent="0.3">
@@ -42991,152 +47068,152 @@
     <mergeCell ref="A111:A112"/>
   </mergeCells>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>#REF!="CONCLUIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>MID(TRIM(#REF!), LEN(TRIM(#REF!))-2, 3)="(D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>AND(INT(#REF!)=TODAY()+1, COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(INT(#REF!)=TODAY(), COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>#REF!="RECEBIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>#REF!="EM ROTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>#REF!="RECEBIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>#REF!="SUSPENSO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>#REF!="PROGRAMADO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>#REF!="PROGRAMADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>#REF!="CONCLUIDO (D)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:I13">
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>#REF!="CONCLUIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>MID(TRIM(#REF!), LEN(TRIM(#REF!))-2, 3)="(D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>AND(INT(#REF!)=TODAY()+1, COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>AND(INT(#REF!)=TODAY(), COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>#REF!="RECEBIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>#REF!="EM ROTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>#REF!="RECEBIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>#REF!="SUSPENSO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>#REF!="PROGRAMADO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>#REF!="PROGRAMADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>#REF!="CONCLUIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>#REF!="CONCLUIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J11">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>MID(TRIM(#REF!), LEN(TRIM(#REF!))-2, 3)="(D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="21" priority="37">
       <formula>AND(INT(#REF!)=TODAY()+1, COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
+    <cfRule type="expression" dxfId="20" priority="38">
       <formula>AND(INT(#REF!)=TODAY(), COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="39">
+    <cfRule type="expression" dxfId="19" priority="39">
       <formula>#REF!="RECEBIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="40">
+    <cfRule type="expression" dxfId="18" priority="40">
       <formula>#REF!="EM ROTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="41">
+    <cfRule type="expression" dxfId="17" priority="41">
       <formula>#REF!="RECEBIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="42">
+    <cfRule type="expression" dxfId="16" priority="42">
       <formula>#REF!="SUSPENSO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="43">
+    <cfRule type="expression" dxfId="15" priority="43">
       <formula>#REF!="PROGRAMADO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="44">
+    <cfRule type="expression" dxfId="14" priority="44">
       <formula>#REF!="PROGRAMADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="45">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>#REF!="CONCLUIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="46">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>#REF!="CONCLUIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:J12">
-    <cfRule type="expression" dxfId="13" priority="35">
+    <cfRule type="expression" dxfId="11" priority="35">
       <formula>#REF!="CONCLUIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>#REF!="CONCLUIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="9" priority="25">
       <formula>MID(TRIM(#REF!), LEN(TRIM(#REF!))-2, 3)="(D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26">
+    <cfRule type="expression" dxfId="8" priority="26">
       <formula>AND(INT(#REF!)=TODAY()+1, COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="27">
+    <cfRule type="expression" dxfId="7" priority="27">
       <formula>AND(INT(#REF!)=TODAY(), COUNTIF(#REF!,"CONCLUIDO*")+COUNTIF(#REF!,"CONCLUÍDO*")=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="28">
+    <cfRule type="expression" dxfId="6" priority="28">
       <formula>#REF!="RECEBIDO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="29">
+    <cfRule type="expression" dxfId="5" priority="29">
       <formula>#REF!="EM ROTA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>#REF!="RECEBIDO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="31">
+    <cfRule type="expression" dxfId="3" priority="31">
       <formula>#REF!="SUSPENSO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="32">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>#REF!="PROGRAMADO (D)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="33">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>#REF!="PROGRAMADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="0" priority="34">
       <formula>#REF!="CONCLUIDO (D)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3667" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083594FB-E0C6-4016-8FB1-78BD864765A0}"/>
+  <xr:revisionPtr revIDLastSave="3730" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3C70139-5B73-4254-9B05-15130B1B2C7D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>
   <sheets>
     <sheet name="VW DAF" sheetId="9" r:id="rId1"/>
@@ -21,10 +21,6 @@
     <sheet name="CUSTOS" sheetId="13" r:id="rId6"/>
     <sheet name="DEMO NOV" sheetId="12" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CUSTOS!$S$2:$T$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FRETE MÁQUINAS'!$A$1:$Q$1</definedName>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -73,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1391">
   <si>
     <t>ITEM</t>
   </si>
@@ -4976,13 +4972,16 @@
     <t>POR PROPRIO</t>
   </si>
   <si>
-    <t>MÉDIA</t>
+    <t>QTD D/DIAS</t>
+  </si>
+  <si>
+    <t>KM EM HR</t>
+  </si>
+  <si>
+    <t>MÉDIA KM/HR DIA</t>
   </si>
   <si>
     <t>APROVEITAMENTO</t>
-  </si>
-  <si>
-    <t>VELOC MÉDIA</t>
   </si>
   <si>
     <t>TERCEIRO - PEDIDO DE COMPRA = USADA SÓ PRA CHECAR SE OS VALORES DAS GUIAS ESTÁ IGUAL</t>
@@ -6136,7 +6135,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6653,37 +6652,7 @@
     <xf numFmtId="0" fontId="44" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6704,10 +6673,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6726,9 +6692,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6755,16 +6718,49 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11853,7 +11849,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>PRUDENTÓPOLIS</c:v>
+                  <c:v>PRUDENTOPOLIS</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>IRATI</c:v>
@@ -20202,32 +20198,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="E"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="B"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}" name="MÁQUINAS" displayName="MÁQUINAS" ref="A1:S85" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="A1:S85" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}"/>
@@ -20914,39 +20884,39 @@
       <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="187" t="s">
+      <c r="A28" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="188"/>
-      <c r="C28" s="189"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="188"/>
-      <c r="C29" s="189"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="187" t="s">
+      <c r="A31" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="188"/>
-      <c r="C31" s="189"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="213"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="189"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="213"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="27"/>
@@ -21023,18 +20993,18 @@
       <c r="C40" s="28"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="208" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="186"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="210"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="186"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="210"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="28"/>
@@ -21588,7 +21558,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -30145,7 +30115,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11:F14"/>
     </sheetView>
   </sheetViews>
@@ -33342,7 +33312,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="E3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -33540,7 +33510,7 @@
       <c r="K1" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="L1" s="190" t="s">
+      <c r="L1" s="214" t="s">
         <v>548</v>
       </c>
       <c r="N1" s="17" t="s">
@@ -33561,7 +33531,7 @@
       <c r="S1" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="190" t="s">
+      <c r="T1" s="214" t="s">
         <v>571</v>
       </c>
       <c r="V1" s="7">
@@ -33616,7 +33586,7 @@
         <f>"A:"&amp;TEXT(F2,"0,00")&amp;" x C:"&amp;TEXT(G2,"0,00")&amp;" x L:"&amp;TEXT(H2,"0,00")&amp;"-"&amp;TEXT(I2,"0,00")&amp;" x P:"&amp;TEXT(J2,"0.00")&amp;"kg"</f>
         <v>A:2,28 x C:3,10 x L:1,00-1,57 x P:1.200kg</v>
       </c>
-      <c r="L2" s="190"/>
+      <c r="L2" s="214"/>
       <c r="N2" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O2,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>044160580</v>
@@ -33636,7 +33606,7 @@
       <c r="S2" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="T2" s="190"/>
+      <c r="T2" s="214"/>
       <c r="W2" s="8" t="s">
         <v>583</v>
       </c>
@@ -33683,7 +33653,7 @@
         <f t="shared" ref="K3:K66" si="0">"A:"&amp;TEXT(F3,"0,00")&amp;" x C:"&amp;TEXT(G3,"0,00")&amp;" x L:"&amp;TEXT(H3,"0,00")&amp;"-"&amp;TEXT(I3,"0,00")&amp;" x P:"&amp;TEXT(J3,"0.00")&amp;"kg"</f>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L3" s="190"/>
+      <c r="L3" s="214"/>
       <c r="N3" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O3,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>061196032</v>
@@ -33703,7 +33673,7 @@
       <c r="S3" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="T3" s="190"/>
+      <c r="T3" s="214"/>
       <c r="V3" s="7">
         <v>2</v>
       </c>
@@ -33756,7 +33726,7 @@
         <f t="shared" si="0"/>
         <v>A:2,38 x C:4,08 x L:1,44-1,88 x P:2.710kg</v>
       </c>
-      <c r="L4" s="190"/>
+      <c r="L4" s="214"/>
       <c r="N4" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O4,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>030712609</v>
@@ -33776,7 +33746,7 @@
       <c r="S4" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T4" s="190"/>
+      <c r="T4" s="214"/>
       <c r="W4" s="8" t="s">
         <v>599</v>
       </c>
@@ -33823,7 +33793,7 @@
         <f t="shared" si="0"/>
         <v>A:2,38 x C:4,08 x L:1,44-1,88 x P:2.710kg</v>
       </c>
-      <c r="L5" s="190"/>
+      <c r="L5" s="214"/>
       <c r="N5" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O5,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>018492099</v>
@@ -33843,7 +33813,7 @@
       <c r="S5" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="T5" s="190"/>
+      <c r="T5" s="214"/>
       <c r="V5" s="7">
         <v>3</v>
       </c>
@@ -33896,7 +33866,7 @@
         <f t="shared" si="0"/>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L6" s="190"/>
+      <c r="L6" s="214"/>
       <c r="N6" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O6,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>045428882</v>
@@ -33916,7 +33886,7 @@
       <c r="S6" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="T6" s="190"/>
+      <c r="T6" s="214"/>
       <c r="W6" s="8" t="s">
         <v>615</v>
       </c>
@@ -33965,7 +33935,7 @@
         <f t="shared" si="0"/>
         <v>A:2,77 x C:4,17 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L7" s="190"/>
+      <c r="L7" s="214"/>
       <c r="N7" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O7,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>043196595</v>
@@ -33985,7 +33955,7 @@
       <c r="S7" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T7" s="190"/>
+      <c r="T7" s="214"/>
       <c r="V7" s="7">
         <v>4</v>
       </c>
@@ -34038,7 +34008,7 @@
         <f t="shared" si="0"/>
         <v>A:2,60 x C:4,08 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L8" s="190"/>
+      <c r="L8" s="214"/>
       <c r="N8" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O8,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>029866343</v>
@@ -34058,7 +34028,7 @@
       <c r="S8" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T8" s="190"/>
+      <c r="T8" s="214"/>
       <c r="W8" s="8" t="s">
         <v>633</v>
       </c>
@@ -34105,7 +34075,7 @@
         <f t="shared" si="0"/>
         <v>A:2,77 x C:4,17 x L:1,45-2,00 x P:5.100kg</v>
       </c>
-      <c r="L9" s="190"/>
+      <c r="L9" s="214"/>
       <c r="N9" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O9,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>033144048</v>
@@ -34125,7 +34095,7 @@
       <c r="S9" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T9" s="190"/>
+      <c r="T9" s="214"/>
       <c r="V9" s="7">
         <v>5</v>
       </c>
@@ -34178,7 +34148,7 @@
         <f t="shared" si="0"/>
         <v>A:2,72 x C:4,56 x L:2,50-3,30 x P:5.600kg</v>
       </c>
-      <c r="L10" s="190"/>
+      <c r="L10" s="214"/>
       <c r="N10" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O10,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>049138592</v>
@@ -34198,7 +34168,7 @@
       <c r="S10" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T10" s="190"/>
+      <c r="T10" s="214"/>
       <c r="W10" s="8" t="s">
         <v>648</v>
       </c>
@@ -34245,7 +34215,7 @@
         <f t="shared" si="0"/>
         <v>A:2,72 x C:4,56 x L:2,60-3,30 x P:6.300kg</v>
       </c>
-      <c r="L11" s="190"/>
+      <c r="L11" s="214"/>
       <c r="N11" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O11,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>051308170</v>
@@ -34265,7 +34235,7 @@
       <c r="S11" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T11" s="190"/>
+      <c r="T11" s="214"/>
       <c r="V11" s="7">
         <v>6</v>
       </c>
@@ -34318,7 +34288,7 @@
         <f t="shared" si="0"/>
         <v>A:2,72 x C:4,56 x L:2,70-3,35 x P:6.800kg</v>
       </c>
-      <c r="L12" s="190"/>
+      <c r="L12" s="214"/>
       <c r="N12" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O12,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>037717850</v>
@@ -34338,7 +34308,7 @@
       <c r="S12" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T12" s="190"/>
+      <c r="T12" s="214"/>
       <c r="W12" s="8" t="s">
         <v>662</v>
       </c>
@@ -34385,7 +34355,7 @@
         <f t="shared" si="0"/>
         <v>A:2,74 x C:4,92 x L:2,87-3,45 x P:7.200kg</v>
       </c>
-      <c r="L13" s="190"/>
+      <c r="L13" s="214"/>
       <c r="N13" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O13,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>051836272</v>
@@ -34405,7 +34375,7 @@
       <c r="S13" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T13" s="190"/>
+      <c r="T13" s="214"/>
       <c r="V13" s="7">
         <v>7</v>
       </c>
@@ -34458,7 +34428,7 @@
         <f t="shared" si="0"/>
         <v>A:2,28 x C:4,56 x L:2,87-3,45 x P:7.500kg</v>
       </c>
-      <c r="L14" s="190"/>
+      <c r="L14" s="214"/>
       <c r="N14" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O14,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>052184344</v>
@@ -34478,7 +34448,7 @@
       <c r="S14" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T14" s="190"/>
+      <c r="T14" s="214"/>
       <c r="W14" s="8" t="s">
         <v>674</v>
       </c>
@@ -34525,7 +34495,7 @@
         <f t="shared" si="0"/>
         <v>A:2,86 x C:4,96 x L:2,70-3,30 x P:7.800kg</v>
       </c>
-      <c r="L15" s="190"/>
+      <c r="L15" s="214"/>
       <c r="N15" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O15,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>046406936</v>
@@ -34545,7 +34515,7 @@
       <c r="S15" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T15" s="190"/>
+      <c r="T15" s="214"/>
       <c r="V15" s="7">
         <v>8</v>
       </c>
@@ -34598,7 +34568,7 @@
         <f t="shared" si="0"/>
         <v>A:2,93 x C:4,65 x L:2,70-3,30 x P:8.500kg</v>
       </c>
-      <c r="L16" s="190"/>
+      <c r="L16" s="214"/>
       <c r="N16" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O16,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>036949062</v>
@@ -34618,7 +34588,7 @@
       <c r="S16" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T16" s="190"/>
+      <c r="T16" s="214"/>
       <c r="W16" s="8" t="s">
         <v>686</v>
       </c>
@@ -34665,7 +34635,7 @@
         <f t="shared" si="0"/>
         <v>A:2,93 x C:5,42 x L:2,74-3,40 x P:8.500kg</v>
       </c>
-      <c r="L17" s="190"/>
+      <c r="L17" s="214"/>
       <c r="N17" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O17,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>004799973</v>
@@ -34685,7 +34655,7 @@
       <c r="S17" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T17" s="190"/>
+      <c r="T17" s="214"/>
       <c r="W17" s="7"/>
       <c r="X17" s="52" t="s">
         <v>693</v>
@@ -34733,7 +34703,7 @@
         <f t="shared" si="0"/>
         <v>A:3,30 x C:5,24 x L:2,74-3,40 x P:9.550kg</v>
       </c>
-      <c r="L18" s="190"/>
+      <c r="L18" s="214"/>
       <c r="N18" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O18,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>041772779</v>
@@ -34753,7 +34723,7 @@
       <c r="S18" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T18" s="190"/>
+      <c r="T18" s="214"/>
       <c r="W18" s="7"/>
       <c r="X18" s="52" t="s">
         <v>699</v>
@@ -34803,7 +34773,7 @@
         <f t="shared" si="0"/>
         <v>A:2,98 x C:5,42 x L:2,95-3,60 x P:9.800kg</v>
       </c>
-      <c r="L19" s="190"/>
+      <c r="L19" s="214"/>
       <c r="N19" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O19,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>028829399</v>
@@ -34823,7 +34793,7 @@
       <c r="S19" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T19" s="190"/>
+      <c r="T19" s="214"/>
       <c r="W19" s="7"/>
       <c r="Z19" s="54" t="s">
         <v>708</v>
@@ -34870,7 +34840,7 @@
         <f t="shared" si="0"/>
         <v>A:3,30 x C:5,24 x L:2,95-3,60 x P:10.650kg</v>
       </c>
-      <c r="L20" s="190"/>
+      <c r="L20" s="214"/>
       <c r="N20" s="18" t="str">
         <f>"0"&amp;LEFT(TEXT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O20,".",""),"/",""),"-",""),"00000000000000"),8)</f>
         <v>017726086</v>
@@ -34890,7 +34860,7 @@
       <c r="S20" s="163" t="s">
         <v>582</v>
       </c>
-      <c r="T20" s="190"/>
+      <c r="T20" s="214"/>
       <c r="W20" s="17" t="s">
         <v>715</v>
       </c>
@@ -35275,11 +35245,11 @@
         <v>751</v>
       </c>
       <c r="X26" s="7"/>
-      <c r="Z26" s="191" t="s">
+      <c r="Z26" s="215" t="s">
         <v>752</v>
       </c>
-      <c r="AA26" s="191"/>
-      <c r="AB26" s="191"/>
+      <c r="AA26" s="215"/>
+      <c r="AB26" s="215"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="18">
@@ -42954,10 +42924,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FFBD44-21DD-42C8-9198-98D8084F877D}">
-  <dimension ref="B1:AF150"/>
+  <dimension ref="B1:AG150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1"/>
@@ -42988,16 +42958,17 @@
     <col min="26" max="26" width="11.28515625" style="164" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.7109375" style="164" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="164" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="164"/>
-    <col min="30" max="30" width="6.140625" style="164" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" style="164" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="164" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="164"/>
+    <col min="29" max="29" width="10.28515625" style="164" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="164" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="164" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="164" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" style="164" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.85546875" style="164"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
     </row>
     <row r="2" spans="2:26">
       <c r="C2" s="181" t="s">
@@ -43044,8 +43015,8 @@
       <c r="U2" s="178" t="s">
         <v>1272</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
       <c r="Y2" s="178" t="s">
         <v>1273</v>
       </c>
@@ -43054,7 +43025,7 @@
       </c>
     </row>
     <row r="3" spans="2:26">
-      <c r="C3" s="205" t="s">
+      <c r="C3" s="194" t="s">
         <v>1274</v>
       </c>
       <c r="D3" s="180">
@@ -43075,9 +43046,9 @@
       <c r="I3" s="180">
         <v>3000</v>
       </c>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="M3" s="207" t="s">
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="M3" s="196" t="s">
         <v>193</v>
       </c>
       <c r="N3" s="177">
@@ -43098,7 +43069,7 @@
 0)</f>
         <v>9145.619999999999</v>
       </c>
-      <c r="P3" s="207" t="s">
+      <c r="P3" s="196" t="s">
         <v>193</v>
       </c>
       <c r="Q3" s="177">
@@ -43119,8 +43090,8 @@
 0)</f>
         <v>7231.9999999999991</v>
       </c>
-      <c r="S3" s="207" t="s">
-        <v>257</v>
+      <c r="S3" s="196" t="s">
+        <v>800</v>
       </c>
       <c r="T3" s="177">
         <f>IFERROR(
@@ -43141,9 +43112,9 @@
         <v>440</v>
       </c>
       <c r="U3" s="177"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="Y3" s="207" t="s">
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="Y3" s="196" t="s">
         <v>411</v>
       </c>
       <c r="Z3" s="177">
@@ -43151,7 +43122,7 @@
       </c>
     </row>
     <row r="4" spans="2:26">
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="197" t="s">
         <v>1275</v>
       </c>
       <c r="D4" s="170">
@@ -43178,9 +43149,9 @@
         <f t="shared" si="0"/>
         <v>1043.75</v>
       </c>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="M4" s="200" t="s">
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="M4" s="190" t="s">
         <v>312</v>
       </c>
       <c r="N4" s="166">
@@ -43201,7 +43172,7 @@
 0)</f>
         <v>4770</v>
       </c>
-      <c r="P4" s="200" t="s">
+      <c r="P4" s="190" t="s">
         <v>205</v>
       </c>
       <c r="Q4" s="166">
@@ -43222,7 +43193,7 @@
 0)</f>
         <v>1100</v>
       </c>
-      <c r="S4" s="200" t="s">
+      <c r="S4" s="190" t="s">
         <v>153</v>
       </c>
       <c r="T4" s="166">
@@ -43244,9 +43215,9 @@
         <v>1800</v>
       </c>
       <c r="U4" s="166"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="Y4" s="200" t="s">
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="Y4" s="190" t="s">
         <v>1276</v>
       </c>
       <c r="Z4" s="166">
@@ -43254,7 +43225,7 @@
       </c>
     </row>
     <row r="5" spans="2:26">
-      <c r="C5" s="200" t="s">
+      <c r="C5" s="190" t="s">
         <v>1277</v>
       </c>
       <c r="D5" s="166">
@@ -43282,8 +43253,8 @@
         <v>950</v>
       </c>
       <c r="J5" s="174"/>
-      <c r="K5" s="209"/>
-      <c r="M5" s="200" t="s">
+      <c r="K5" s="184"/>
+      <c r="M5" s="190" t="s">
         <v>172</v>
       </c>
       <c r="N5" s="166">
@@ -43304,7 +43275,7 @@
 0)</f>
         <v>1800</v>
       </c>
-      <c r="P5" s="200" t="s">
+      <c r="P5" s="190" t="s">
         <v>172</v>
       </c>
       <c r="Q5" s="166">
@@ -43325,7 +43296,7 @@
 0)</f>
         <v>1100</v>
       </c>
-      <c r="S5" s="200" t="s">
+      <c r="S5" s="190" t="s">
         <v>312</v>
       </c>
       <c r="T5" s="166">
@@ -43347,9 +43318,9 @@
         <v>270</v>
       </c>
       <c r="U5" s="166"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="194"/>
-      <c r="Y5" s="200" t="s">
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="Y5" s="190" t="s">
         <v>1278</v>
       </c>
       <c r="Z5" s="166">
@@ -43357,7 +43328,7 @@
       </c>
     </row>
     <row r="6" spans="2:26">
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="190" t="s">
         <v>1279</v>
       </c>
       <c r="D6" s="166">
@@ -43385,8 +43356,8 @@
         <v>1137.5</v>
       </c>
       <c r="J6" s="174"/>
-      <c r="K6" s="209"/>
-      <c r="M6" s="200" t="s">
+      <c r="K6" s="184"/>
+      <c r="M6" s="190" t="s">
         <v>376</v>
       </c>
       <c r="N6" s="166">
@@ -43407,7 +43378,7 @@
 0)</f>
         <v>1760</v>
       </c>
-      <c r="P6" s="200" t="s">
+      <c r="P6" s="190" t="s">
         <v>312</v>
       </c>
       <c r="Q6" s="166">
@@ -43428,7 +43399,7 @@
 0)</f>
         <v>850</v>
       </c>
-      <c r="S6" s="200" t="s">
+      <c r="S6" s="190" t="s">
         <v>193</v>
       </c>
       <c r="T6" s="166">
@@ -43450,15 +43421,15 @@
         <v>0</v>
       </c>
       <c r="U6" s="166"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="Y6" s="200" t="s">
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="Y6" s="190" t="s">
         <v>1280</v>
       </c>
       <c r="Z6" s="166"/>
     </row>
     <row r="7" spans="2:26">
-      <c r="M7" s="200" t="s">
+      <c r="M7" s="190" t="s">
         <v>257</v>
       </c>
       <c r="N7" s="166">
@@ -43479,7 +43450,7 @@
 0)</f>
         <v>1095</v>
       </c>
-      <c r="P7" s="200" t="s">
+      <c r="P7" s="190" t="s">
         <v>376</v>
       </c>
       <c r="Q7" s="166">
@@ -43500,7 +43471,7 @@
 0)</f>
         <v>830</v>
       </c>
-      <c r="S7" s="200" t="s">
+      <c r="S7" s="190" t="s">
         <v>205</v>
       </c>
       <c r="T7" s="166">
@@ -43522,9 +43493,9 @@
         <v>0</v>
       </c>
       <c r="U7" s="166"/>
-      <c r="V7" s="194"/>
-      <c r="W7" s="194"/>
-      <c r="Y7" s="200" t="s">
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="Y7" s="190" t="s">
         <v>1281</v>
       </c>
       <c r="Z7" s="166"/>
@@ -43549,7 +43520,7 @@
         <v>182</v>
       </c>
       <c r="I8" s="165"/>
-      <c r="M8" s="200" t="s">
+      <c r="M8" s="190" t="s">
         <v>205</v>
       </c>
       <c r="N8" s="166">
@@ -43570,7 +43541,7 @@
 0)</f>
         <v>990</v>
       </c>
-      <c r="P8" s="200" t="s">
+      <c r="P8" s="190" t="s">
         <v>153</v>
       </c>
       <c r="Q8" s="166">
@@ -43591,7 +43562,7 @@
 0)</f>
         <v>550</v>
       </c>
-      <c r="S8" s="200" t="s">
+      <c r="S8" s="190" t="s">
         <v>376</v>
       </c>
       <c r="T8" s="166">
@@ -43613,9 +43584,9 @@
         <v>1262</v>
       </c>
       <c r="U8" s="166"/>
-      <c r="V8" s="194"/>
-      <c r="W8" s="194"/>
-      <c r="Y8" s="200" t="s">
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="Y8" s="190" t="s">
         <v>1283</v>
       </c>
       <c r="Z8" s="166"/>
@@ -43645,7 +43616,7 @@
         <v>6100</v>
       </c>
       <c r="I9" s="174"/>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="190" t="s">
         <v>153</v>
       </c>
       <c r="N9" s="166">
@@ -43666,7 +43637,7 @@
 0)</f>
         <v>360</v>
       </c>
-      <c r="P9" s="200" t="s">
+      <c r="P9" s="190" t="s">
         <v>257</v>
       </c>
       <c r="Q9" s="166">
@@ -43687,7 +43658,7 @@
 0)</f>
         <v>550</v>
       </c>
-      <c r="S9" s="200" t="s">
+      <c r="S9" s="190" t="s">
         <v>172</v>
       </c>
       <c r="T9" s="166">
@@ -43709,9 +43680,9 @@
         <v>0</v>
       </c>
       <c r="U9" s="166"/>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="Y9" s="200" t="s">
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="Y9" s="190" t="s">
         <v>1285</v>
       </c>
       <c r="Z9" s="166"/>
@@ -43741,7 +43712,7 @@
         <v>6050</v>
       </c>
       <c r="I10" s="174"/>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="190" t="s">
         <v>1287</v>
       </c>
       <c r="N10" s="166">
@@ -43762,7 +43733,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="200" t="s">
+      <c r="P10" s="190" t="s">
         <v>1287</v>
       </c>
       <c r="Q10" s="166">
@@ -43783,7 +43754,7 @@
 0)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="200" t="s">
+      <c r="S10" s="190" t="s">
         <v>1287</v>
       </c>
       <c r="T10" s="166">
@@ -43805,9 +43776,9 @@
         <v>0</v>
       </c>
       <c r="U10" s="166"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="194"/>
-      <c r="Y10" s="200" t="s">
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="Y10" s="190" t="s">
         <v>1288</v>
       </c>
       <c r="Z10" s="166">
@@ -43838,7 +43809,7 @@
         <f>COUNTIF('FRETE MÁQUINAS'!$S:$S,CUSTOS!H8)</f>
         <v>15</v>
       </c>
-      <c r="O11" s="203"/>
+      <c r="O11" s="192"/>
     </row>
     <row r="12" spans="2:26">
       <c r="M12" s="178" t="s">
@@ -43853,19 +43824,19 @@
       <c r="Q12" s="178" t="s">
         <v>396</v>
       </c>
-      <c r="S12" s="197" t="s">
+      <c r="S12" s="187" t="s">
         <v>1292</v>
       </c>
-      <c r="T12" s="197" t="s">
+      <c r="T12" s="187" t="s">
         <v>396</v>
       </c>
-      <c r="U12" s="197" t="s">
+      <c r="U12" s="187" t="s">
         <v>1293</v>
       </c>
-      <c r="V12" s="197" t="s">
+      <c r="V12" s="187" t="s">
         <v>1294</v>
       </c>
-      <c r="W12" s="197" t="s">
+      <c r="W12" s="187" t="s">
         <v>1295</v>
       </c>
       <c r="Y12" s="178" t="s">
@@ -43948,7 +43919,7 @@
       <c r="Q13" s="175">
         <v>6190.03</v>
       </c>
-      <c r="S13" s="200" t="str" cm="1">
+      <c r="S13" s="190" t="str" cm="1">
         <f t="array" ref="S13:T19">_xlfn.LET(
     _xlpm.nomes, 'FRETE MÁQUINAS'!$B$2:$B$5000,
     _xlpm.valores, 'FRETE MÁQUINAS'!$F$2:$F$5000,
@@ -43969,11 +43940,11 @@
       <c r="T13" s="166">
         <v>12051.3</v>
       </c>
-      <c r="U13" s="195">
+      <c r="U13" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S13)</f>
         <v>7</v>
       </c>
-      <c r="V13" s="196">
+      <c r="V13" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S13,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>1482</v>
       </c>
@@ -43981,7 +43952,7 @@
         <f ca="1">T13/V13</f>
         <v>8.1317813765182176</v>
       </c>
-      <c r="Y13" s="207" t="s">
+      <c r="Y13" s="196" t="s">
         <v>444</v>
       </c>
       <c r="Z13" s="177">
@@ -43989,10 +43960,10 @@
       </c>
     </row>
     <row r="14" spans="2:26">
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C14" s="210" t="s">
+      <c r="C14" s="198" t="s">
         <v>193</v>
       </c>
       <c r="D14" s="169">
@@ -44134,17 +44105,17 @@
       <c r="Q14" s="175">
         <v>5580</v>
       </c>
-      <c r="S14" s="200" t="str">
+      <c r="S14" s="190" t="str">
         <v>TERCEIRO COLOMBO</v>
       </c>
       <c r="T14" s="166">
         <v>9600</v>
       </c>
-      <c r="U14" s="195">
+      <c r="U14" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S14)</f>
         <v>1</v>
       </c>
-      <c r="V14" s="196">
+      <c r="V14" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S14,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>733</v>
       </c>
@@ -44152,16 +44123,16 @@
         <f t="shared" ref="W14:W19" ca="1" si="3">T14/V14</f>
         <v>13.096862210095498</v>
       </c>
-      <c r="Y14" s="200" t="s">
+      <c r="Y14" s="190" t="s">
         <v>1276</v>
       </c>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="2:26">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C15" s="210" t="s">
+      <c r="C15" s="198" t="s">
         <v>312</v>
       </c>
       <c r="D15" s="169">
@@ -44303,17 +44274,17 @@
       <c r="Q15" s="175">
         <v>1342.59</v>
       </c>
-      <c r="S15" s="200" t="str">
+      <c r="S15" s="190" t="str">
         <v>TERCEIRO ZORTEA</v>
       </c>
       <c r="T15" s="166">
         <v>5400</v>
       </c>
-      <c r="U15" s="195">
+      <c r="U15" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S15)</f>
         <v>2</v>
       </c>
-      <c r="V15" s="196">
+      <c r="V15" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S15,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>956</v>
       </c>
@@ -44321,16 +44292,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>5.6485355648535567</v>
       </c>
-      <c r="Y15" s="200" t="s">
+      <c r="Y15" s="190" t="s">
         <v>1278</v>
       </c>
       <c r="Z15" s="166"/>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C16" s="210" t="s">
+      <c r="C16" s="198" t="s">
         <v>205</v>
       </c>
       <c r="D16" s="169">
@@ -44468,17 +44439,17 @@
       </c>
       <c r="P16" s="176"/>
       <c r="Q16" s="175"/>
-      <c r="S16" s="200" t="str">
+      <c r="S16" s="190" t="str">
         <v>TERCEIRO AGROMAQ</v>
       </c>
       <c r="T16" s="166">
         <v>4000</v>
       </c>
-      <c r="U16" s="195">
+      <c r="U16" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S16)</f>
         <v>9</v>
       </c>
-      <c r="V16" s="196">
+      <c r="V16" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S16,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>1187</v>
       </c>
@@ -44486,16 +44457,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>3.3698399326032011</v>
       </c>
-      <c r="Y16" s="200" t="s">
+      <c r="Y16" s="190" t="s">
         <v>1280</v>
       </c>
       <c r="Z16" s="166"/>
     </row>
-    <row r="17" spans="2:32">
-      <c r="B17" s="210" t="s">
+    <row r="17" spans="2:33">
+      <c r="B17" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C17" s="210" t="s">
+      <c r="C17" s="198" t="s">
         <v>376</v>
       </c>
       <c r="D17" s="169">
@@ -44633,17 +44604,17 @@
       </c>
       <c r="P17" s="176"/>
       <c r="Q17" s="175"/>
-      <c r="S17" s="200" t="str">
+      <c r="S17" s="190" t="str">
         <v>TERCEIRO NELSON</v>
       </c>
       <c r="T17" s="166">
         <v>2270</v>
       </c>
-      <c r="U17" s="195">
+      <c r="U17" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S17)</f>
         <v>2</v>
       </c>
-      <c r="V17" s="196">
+      <c r="V17" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S17,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>315</v>
       </c>
@@ -44651,16 +44622,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.2063492063492065</v>
       </c>
-      <c r="Y17" s="200" t="s">
+      <c r="Y17" s="190" t="s">
         <v>1281</v>
       </c>
       <c r="Z17" s="166"/>
     </row>
-    <row r="18" spans="2:32">
-      <c r="B18" s="210" t="s">
+    <row r="18" spans="2:33">
+      <c r="B18" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C18" s="210" t="s">
+      <c r="C18" s="198" t="s">
         <v>153</v>
       </c>
       <c r="D18" s="169">
@@ -44798,17 +44769,17 @@
       </c>
       <c r="P18" s="176"/>
       <c r="Q18" s="175"/>
-      <c r="S18" s="200" t="str">
+      <c r="S18" s="190" t="str">
         <v>TERCEIRO DEMETRIO</v>
       </c>
       <c r="T18" s="166">
         <v>1100</v>
       </c>
-      <c r="U18" s="195">
+      <c r="U18" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S18)</f>
         <v>5</v>
       </c>
-      <c r="V18" s="196">
+      <c r="V18" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S18,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>518</v>
       </c>
@@ -44816,18 +44787,18 @@
         <f t="shared" ca="1" si="3"/>
         <v>2.1235521235521237</v>
       </c>
-      <c r="Y18" s="200" t="s">
+      <c r="Y18" s="190" t="s">
         <v>1283</v>
       </c>
       <c r="Z18" s="166">
         <v>250.79</v>
       </c>
     </row>
-    <row r="19" spans="2:32">
-      <c r="B19" s="210" t="s">
+    <row r="19" spans="2:33">
+      <c r="B19" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="198" t="s">
         <v>257</v>
       </c>
       <c r="D19" s="169">
@@ -44965,17 +44936,17 @@
       </c>
       <c r="P19" s="176"/>
       <c r="Q19" s="175"/>
-      <c r="S19" s="200" t="str">
+      <c r="S19" s="190" t="str">
         <v>TERCEIRO STOSKI</v>
       </c>
       <c r="T19" s="166">
         <v>910</v>
       </c>
-      <c r="U19" s="195">
+      <c r="U19" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!S19)</f>
         <v>1</v>
       </c>
-      <c r="V19" s="196">
+      <c r="V19" s="186">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!S19,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>70</v>
       </c>
@@ -44983,16 +44954,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
-      <c r="Y19" s="200" t="s">
+      <c r="Y19" s="190" t="s">
         <v>1285</v>
       </c>
       <c r="Z19" s="166"/>
     </row>
-    <row r="20" spans="2:32">
-      <c r="B20" s="210" t="s">
+    <row r="20" spans="2:33">
+      <c r="B20" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="198" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="169">
@@ -45126,23 +45097,23 @@
       <c r="N20" s="175"/>
       <c r="P20" s="176"/>
       <c r="Q20" s="175"/>
-      <c r="S20" s="200"/>
+      <c r="S20" s="190"/>
       <c r="T20" s="166"/>
       <c r="U20" s="166"/>
       <c r="V20" s="166"/>
       <c r="W20" s="166"/>
-      <c r="Y20" s="200" t="s">
+      <c r="Y20" s="190" t="s">
         <v>1288</v>
       </c>
       <c r="Z20" s="166">
         <v>8720</v>
       </c>
     </row>
-    <row r="21" spans="2:32">
-      <c r="B21" s="210" t="s">
+    <row r="21" spans="2:33">
+      <c r="B21" s="198" t="s">
         <v>1299</v>
       </c>
-      <c r="C21" s="210" t="s">
+      <c r="C21" s="198" t="s">
         <v>1287</v>
       </c>
       <c r="D21" s="169">
@@ -45276,17 +45247,17 @@
       <c r="N21" s="175"/>
       <c r="P21" s="176"/>
       <c r="Q21" s="175"/>
-      <c r="S21" s="200"/>
+      <c r="S21" s="190"/>
       <c r="T21" s="166"/>
       <c r="U21" s="166"/>
       <c r="V21" s="166"/>
       <c r="W21" s="166"/>
     </row>
-    <row r="22" spans="2:32">
-      <c r="B22" s="211" t="s">
+    <row r="22" spans="2:33">
+      <c r="B22" s="199" t="s">
         <v>1300</v>
       </c>
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="199" t="s">
         <v>193</v>
       </c>
       <c r="D22" s="172">
@@ -45420,20 +45391,20 @@
       <c r="N22" s="175"/>
       <c r="P22" s="176"/>
       <c r="Q22" s="175"/>
-      <c r="S22" s="200"/>
+      <c r="S22" s="190"/>
       <c r="T22" s="166"/>
       <c r="U22" s="166"/>
       <c r="V22" s="166"/>
       <c r="W22" s="166"/>
-      <c r="Y22" s="212" t="s">
+      <c r="Y22" s="200" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="23" spans="2:32">
-      <c r="B23" s="213" t="s">
+    <row r="23" spans="2:33">
+      <c r="B23" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C23" s="213" t="s">
+      <c r="C23" s="201" t="s">
         <v>312</v>
       </c>
       <c r="D23" s="168">
@@ -45567,20 +45538,20 @@
       <c r="N23" s="175"/>
       <c r="P23" s="176"/>
       <c r="Q23" s="175"/>
-      <c r="S23" s="200"/>
+      <c r="S23" s="190"/>
       <c r="T23" s="166"/>
       <c r="U23" s="166"/>
       <c r="V23" s="166"/>
       <c r="W23" s="166"/>
-      <c r="Y23" s="212" t="s">
+      <c r="Y23" s="200" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="24" spans="2:32">
-      <c r="B24" s="213" t="s">
+    <row r="24" spans="2:33">
+      <c r="B24" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C24" s="213" t="s">
+      <c r="C24" s="201" t="s">
         <v>205</v>
       </c>
       <c r="D24" s="168">
@@ -45714,17 +45685,17 @@
       <c r="N24" s="175"/>
       <c r="P24" s="176"/>
       <c r="Q24" s="175"/>
-      <c r="S24" s="200"/>
+      <c r="S24" s="190"/>
       <c r="T24" s="166"/>
       <c r="U24" s="166"/>
       <c r="V24" s="166"/>
       <c r="W24" s="166"/>
     </row>
-    <row r="25" spans="2:32">
-      <c r="B25" s="213" t="s">
+    <row r="25" spans="2:33">
+      <c r="B25" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="201" t="s">
         <v>376</v>
       </c>
       <c r="D25" s="168">
@@ -45858,7 +45829,7 @@
       <c r="N25" s="175"/>
       <c r="P25" s="176"/>
       <c r="Q25" s="175"/>
-      <c r="S25" s="200"/>
+      <c r="S25" s="190"/>
       <c r="T25" s="166"/>
       <c r="U25" s="166"/>
       <c r="V25" s="166"/>
@@ -45869,30 +45840,33 @@
       <c r="Z25" s="178" t="s">
         <v>396</v>
       </c>
-      <c r="AA25" s="197" t="s">
+      <c r="AA25" s="187" t="s">
         <v>1293</v>
       </c>
-      <c r="AB25" s="198" t="s">
+      <c r="AB25" s="188" t="s">
         <v>1294</v>
       </c>
-      <c r="AC25" s="198" t="s">
+      <c r="AC25" s="188" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AD25" s="188" t="s">
         <v>1295</v>
       </c>
-      <c r="AD25" s="197" t="s">
-        <v>1304</v>
-      </c>
-      <c r="AE25" s="198" t="s">
+      <c r="AE25" s="187" t="s">
         <v>1305</v>
       </c>
-      <c r="AF25" s="197" t="s">
+      <c r="AF25" s="188" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="26" spans="2:32">
-      <c r="B26" s="213" t="s">
+      <c r="AG25" s="187" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33">
+      <c r="B26" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C26" s="213" t="s">
+      <c r="C26" s="201" t="s">
         <v>153</v>
       </c>
       <c r="D26" s="168">
@@ -46026,7 +46000,7 @@
       <c r="N26" s="175"/>
       <c r="P26" s="176"/>
       <c r="Q26" s="175"/>
-      <c r="S26" s="200"/>
+      <c r="S26" s="190"/>
       <c r="T26" s="166"/>
       <c r="U26" s="166"/>
       <c r="V26" s="166"/>
@@ -46038,51 +46012,40 @@
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!Y26,'FRETE MÁQUINAS'!$E:$E)</f>
         <v>14566</v>
       </c>
-      <c r="AA26" s="195">
+      <c r="AA26" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!Y26)</f>
         <v>16</v>
       </c>
-      <c r="AB26" s="199">
+      <c r="AB26" s="189">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!Y26,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>3069</v>
       </c>
-      <c r="AC26" s="214">
+      <c r="AC26" s="189">
+        <f>COUNTIF('FRETE MÁQUINAS'!B:B,"PROPRIO VW")</f>
+        <v>13</v>
+      </c>
+      <c r="AD26" s="202">
         <f ca="1">Z26/AB26</f>
         <v>4.7461713913326813</v>
       </c>
-      <c r="AD26" s="218" cm="1">
-        <f t="array" ref="AD26">IFERROR(
-    SUMIFS(
-        'FRETE MÁQUINAS'!$C$2:$C$5000,
-        'FRETE MÁQUINAS'!$B$2:$B$5000,$Y26
-    )*24
-    /
-    SUMPRODUCT(
-        ('FRETE MÁQUINAS'!$B$2:$B$5000=$Y26)*
-        ('FRETE MÁQUINAS'!$H$2:$H$5000&lt;&gt;"")
-        /
-        COUNTIFS(
-            'FRETE MÁQUINAS'!$H$2:$H$5000,'FRETE MÁQUINAS'!$H$2:$H$5000,
-            'FRETE MÁQUINAS'!$B$2:$B$5000,$Y26,
-            'FRETE MÁQUINAS'!$H$2:$H$5000,"&lt;&gt;"
-        )
-    ),
-0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="220">
-        <f>IF(AD26=0,0,AD26/10.25)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="200">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32">
-      <c r="B27" s="213" t="s">
+      <c r="AE26" s="218">
+        <f ca="1">IFERROR((AB26*1.5)/1440, "?")</f>
+        <v>3.1968749999999999</v>
+      </c>
+      <c r="AF26" s="220">
+        <f ca="1">IFERROR(AB26/(AE26*9),0)</f>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="AG26" s="219">
+        <f ca="1">IFERROR(AE26/(AC26*10),0)</f>
+        <v>2.4591346153846155E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
+      <c r="B27" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C27" s="213" t="s">
+      <c r="C27" s="201" t="s">
         <v>257</v>
       </c>
       <c r="D27" s="168">
@@ -46216,7 +46179,7 @@
       <c r="N27" s="175"/>
       <c r="P27" s="176"/>
       <c r="Q27" s="176"/>
-      <c r="S27" s="200"/>
+      <c r="S27" s="190"/>
       <c r="T27" s="166"/>
       <c r="U27" s="166"/>
       <c r="V27" s="166"/>
@@ -46228,32 +46191,40 @@
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!Y27,'FRETE MÁQUINAS'!$E:$E)</f>
         <v>14556</v>
       </c>
-      <c r="AA27" s="195">
+      <c r="AA27" s="185">
         <f>COUNTIF('FRETE MÁQUINAS'!B:B,CUSTOS!Y27)</f>
         <v>13</v>
       </c>
-      <c r="AB27" s="199">
+      <c r="AB27" s="189">
         <f ca="1">SUMIF('FRETE MÁQUINAS'!$B:$E,CUSTOS!Y27,'FRETE MÁQUINAS'!$D:$D)</f>
         <v>2426</v>
       </c>
-      <c r="AC27" s="214">
+      <c r="AC27" s="189">
+        <f>COUNTIF('FRETE MÁQUINAS'!B:B,"PROPRIO DAF")</f>
+        <v>16</v>
+      </c>
+      <c r="AD27" s="202">
         <f ca="1">Z27/AB27</f>
         <v>6</v>
       </c>
-      <c r="AD27" s="200"/>
-      <c r="AE27" s="220">
-        <f>IF(AD27=0,0,AD27/10.25)</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="200">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32">
-      <c r="B28" s="213" t="s">
+      <c r="AE27" s="218">
+        <f ca="1">IFERROR((AB27*1.5)/1440, "?")</f>
+        <v>2.5270833333333331</v>
+      </c>
+      <c r="AF27" s="220">
+        <f ca="1">IFERROR(AB27/(AE27*24),0)</f>
+        <v>40.000000000000007</v>
+      </c>
+      <c r="AG27" s="219">
+        <f ca="1">IFERROR(AE27/(AC27*10),0)</f>
+        <v>1.5794270833333332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
+      <c r="B28" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C28" s="213" t="s">
+      <c r="C28" s="201" t="s">
         <v>172</v>
       </c>
       <c r="D28" s="168">
@@ -46387,17 +46358,17 @@
       <c r="N28" s="175"/>
       <c r="P28" s="176"/>
       <c r="Q28" s="176"/>
-      <c r="S28" s="200"/>
+      <c r="S28" s="190"/>
       <c r="T28" s="166"/>
       <c r="U28" s="166"/>
       <c r="V28" s="166"/>
       <c r="W28" s="166"/>
     </row>
-    <row r="29" spans="2:32">
-      <c r="B29" s="213" t="s">
+    <row r="29" spans="2:33">
+      <c r="B29" s="201" t="s">
         <v>1300</v>
       </c>
-      <c r="C29" s="213" t="s">
+      <c r="C29" s="201" t="s">
         <v>1287</v>
       </c>
       <c r="D29" s="168">
@@ -46531,47 +46502,47 @@
       <c r="N29" s="175"/>
       <c r="P29" s="176"/>
       <c r="Q29" s="176"/>
-      <c r="S29" s="200"/>
+      <c r="S29" s="190"/>
       <c r="T29" s="166"/>
       <c r="U29" s="166"/>
       <c r="V29" s="166"/>
       <c r="W29" s="166"/>
-      <c r="AE29" s="221"/>
-    </row>
-    <row r="30" spans="2:32">
+      <c r="AF29" s="207"/>
+    </row>
+    <row r="30" spans="2:33">
       <c r="M30" s="176"/>
       <c r="N30" s="175"/>
       <c r="P30" s="176"/>
       <c r="Q30" s="176"/>
-      <c r="S30" s="200"/>
+      <c r="S30" s="190"/>
       <c r="T30" s="166"/>
       <c r="U30" s="166"/>
       <c r="V30" s="166"/>
       <c r="W30" s="166"/>
     </row>
-    <row r="31" spans="2:32">
-      <c r="C31" s="215" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="216"/>
+    <row r="31" spans="2:33">
+      <c r="C31" s="203" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
       <c r="M31" s="176"/>
       <c r="N31" s="175"/>
       <c r="P31" s="176"/>
       <c r="Q31" s="176"/>
-      <c r="S31" s="200"/>
+      <c r="S31" s="190"/>
       <c r="T31" s="166"/>
       <c r="U31" s="166"/>
       <c r="V31" s="166"/>
       <c r="W31" s="166"/>
     </row>
-    <row r="32" spans="2:32">
-      <c r="C32" s="217" t="s">
+    <row r="32" spans="2:33">
+      <c r="C32" s="205" t="s">
         <v>193</v>
       </c>
       <c r="D32" s="167">
@@ -46668,23 +46639,23 @@
         <f>SUM(G32:H32)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="216">
+      <c r="J32" s="204">
         <f>SUM(D32:H32)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="209"/>
+      <c r="K32" s="184"/>
       <c r="M32" s="176"/>
       <c r="N32" s="175"/>
       <c r="P32" s="176"/>
       <c r="Q32" s="176"/>
-      <c r="S32" s="200"/>
+      <c r="S32" s="190"/>
       <c r="T32" s="166"/>
       <c r="U32" s="166"/>
       <c r="V32" s="166"/>
       <c r="W32" s="166"/>
     </row>
     <row r="33" spans="3:23">
-      <c r="C33" s="217" t="s">
+      <c r="C33" s="205" t="s">
         <v>312</v>
       </c>
       <c r="D33" s="167">
@@ -46781,23 +46752,23 @@
         <f t="shared" ref="I33:I39" si="7">SUM(G33:H33)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="216">
+      <c r="J33" s="204">
         <f>SUM(D33:H33)</f>
         <v>3662.3</v>
       </c>
-      <c r="K33" s="216"/>
+      <c r="K33" s="204"/>
       <c r="M33" s="176"/>
       <c r="N33" s="175"/>
       <c r="P33" s="176"/>
       <c r="Q33" s="176"/>
-      <c r="S33" s="200"/>
+      <c r="S33" s="190"/>
       <c r="T33" s="166"/>
       <c r="U33" s="166"/>
       <c r="V33" s="166"/>
       <c r="W33" s="166"/>
     </row>
     <row r="34" spans="3:23">
-      <c r="C34" s="217" t="s">
+      <c r="C34" s="205" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="167">
@@ -46894,23 +46865,23 @@
         <f t="shared" si="7"/>
         <v>7800</v>
       </c>
-      <c r="J34" s="216">
+      <c r="J34" s="204">
         <f>SUM(D34:H34)</f>
         <v>11070</v>
       </c>
-      <c r="K34" s="216"/>
+      <c r="K34" s="204"/>
       <c r="M34" s="176"/>
       <c r="N34" s="175"/>
       <c r="P34" s="176"/>
       <c r="Q34" s="176"/>
-      <c r="S34" s="200"/>
+      <c r="S34" s="190"/>
       <c r="T34" s="166"/>
       <c r="U34" s="166"/>
       <c r="V34" s="166"/>
       <c r="W34" s="166"/>
     </row>
     <row r="35" spans="3:23">
-      <c r="C35" s="217" t="s">
+      <c r="C35" s="205" t="s">
         <v>376</v>
       </c>
       <c r="D35" s="167">
@@ -47007,23 +46978,23 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J35" s="216">
+      <c r="J35" s="204">
         <f>SUM(D35:H35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="216"/>
+      <c r="K35" s="204"/>
       <c r="M35" s="176"/>
       <c r="N35" s="175"/>
       <c r="P35" s="176"/>
       <c r="Q35" s="176"/>
-      <c r="S35" s="200"/>
+      <c r="S35" s="190"/>
       <c r="T35" s="166"/>
       <c r="U35" s="166"/>
       <c r="V35" s="166"/>
       <c r="W35" s="166"/>
     </row>
     <row r="36" spans="3:23">
-      <c r="C36" s="217" t="s">
+      <c r="C36" s="205" t="s">
         <v>153</v>
       </c>
       <c r="D36" s="167">
@@ -47120,23 +47091,23 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J36" s="216">
+      <c r="J36" s="204">
         <f>SUM(D36:H36)</f>
         <v>2010</v>
       </c>
-      <c r="K36" s="216"/>
+      <c r="K36" s="204"/>
       <c r="M36" s="176"/>
       <c r="N36" s="175"/>
       <c r="P36" s="176"/>
       <c r="Q36" s="176"/>
-      <c r="S36" s="200"/>
+      <c r="S36" s="190"/>
       <c r="T36" s="166"/>
       <c r="U36" s="166"/>
       <c r="V36" s="166"/>
       <c r="W36" s="166"/>
     </row>
     <row r="37" spans="3:23">
-      <c r="C37" s="217" t="s">
+      <c r="C37" s="205" t="s">
         <v>257</v>
       </c>
       <c r="D37" s="167">
@@ -47233,23 +47204,23 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J37" s="216">
+      <c r="J37" s="204">
         <f>SUM(D37:H37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="216"/>
+      <c r="K37" s="204"/>
       <c r="M37" s="176"/>
       <c r="N37" s="175"/>
       <c r="P37" s="176"/>
       <c r="Q37" s="176"/>
-      <c r="S37" s="200"/>
+      <c r="S37" s="190"/>
       <c r="T37" s="166"/>
       <c r="U37" s="166"/>
       <c r="V37" s="166"/>
       <c r="W37" s="166"/>
     </row>
     <row r="38" spans="3:23">
-      <c r="C38" s="217" t="s">
+      <c r="C38" s="205" t="s">
         <v>172</v>
       </c>
       <c r="D38" s="167">
@@ -47346,23 +47317,23 @@
         <f t="shared" si="7"/>
         <v>1300</v>
       </c>
-      <c r="J38" s="216">
+      <c r="J38" s="204">
         <f>SUM(D38:H38)</f>
         <v>17989</v>
       </c>
-      <c r="K38" s="216"/>
+      <c r="K38" s="204"/>
       <c r="M38" s="176"/>
       <c r="N38" s="175"/>
       <c r="P38" s="176"/>
       <c r="Q38" s="176"/>
-      <c r="S38" s="200"/>
+      <c r="S38" s="190"/>
       <c r="T38" s="166"/>
       <c r="U38" s="166"/>
       <c r="V38" s="166"/>
       <c r="W38" s="166"/>
     </row>
     <row r="39" spans="3:23">
-      <c r="C39" s="217" t="s">
+      <c r="C39" s="205" t="s">
         <v>1287</v>
       </c>
       <c r="D39" s="167">
@@ -47459,44 +47430,41 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J39" s="216">
+      <c r="J39" s="204">
         <f>SUM(D39:H39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="216"/>
+      <c r="K39" s="204"/>
       <c r="M39" s="176"/>
       <c r="N39" s="175"/>
       <c r="P39" s="176"/>
       <c r="Q39" s="176"/>
-      <c r="S39" s="200"/>
+      <c r="S39" s="190"/>
       <c r="T39" s="166"/>
       <c r="U39" s="166"/>
       <c r="V39" s="166"/>
       <c r="W39" s="166"/>
     </row>
     <row r="40" spans="3:23">
-      <c r="K40" s="216"/>
+      <c r="K40" s="204"/>
       <c r="M40" s="176"/>
       <c r="N40" s="175"/>
       <c r="P40" s="176"/>
       <c r="Q40" s="176"/>
-      <c r="S40" s="200"/>
+      <c r="S40" s="190"/>
       <c r="T40" s="166"/>
       <c r="U40" s="166"/>
       <c r="V40" s="166"/>
       <c r="W40" s="166"/>
     </row>
     <row r="41" spans="3:23" hidden="1">
-      <c r="K41" s="216"/>
+      <c r="K41" s="204"/>
       <c r="M41" s="176"/>
       <c r="N41" s="175"/>
       <c r="P41" s="176"/>
       <c r="Q41" s="176"/>
-      <c r="S41" s="219"/>
-      <c r="T41" s="219"/>
-      <c r="U41" s="202"/>
-      <c r="V41" s="202"/>
-      <c r="W41" s="202"/>
+      <c r="S41" s="206"/>
+      <c r="T41" s="206"/>
     </row>
     <row r="42" spans="3:23" hidden="1">
       <c r="M42" s="176"/>
@@ -47505,9 +47473,6 @@
       <c r="Q42" s="176"/>
       <c r="S42" s="176"/>
       <c r="T42" s="176"/>
-      <c r="U42" s="202"/>
-      <c r="V42" s="202"/>
-      <c r="W42" s="202"/>
     </row>
     <row r="43" spans="3:23" hidden="1">
       <c r="M43" s="176"/>
@@ -47516,9 +47481,6 @@
       <c r="Q43" s="176"/>
       <c r="S43" s="176"/>
       <c r="T43" s="176"/>
-      <c r="U43" s="202"/>
-      <c r="V43" s="202"/>
-      <c r="W43" s="202"/>
     </row>
     <row r="44" spans="3:23" hidden="1">
       <c r="M44" s="176"/>
@@ -47527,9 +47489,6 @@
       <c r="Q44" s="176"/>
       <c r="S44" s="176"/>
       <c r="T44" s="176"/>
-      <c r="U44" s="202"/>
-      <c r="V44" s="202"/>
-      <c r="W44" s="202"/>
     </row>
     <row r="45" spans="3:23" hidden="1">
       <c r="M45" s="176"/>
@@ -47538,9 +47497,6 @@
       <c r="Q45" s="176"/>
       <c r="S45" s="176"/>
       <c r="T45" s="176"/>
-      <c r="U45" s="202"/>
-      <c r="V45" s="202"/>
-      <c r="W45" s="202"/>
     </row>
     <row r="46" spans="3:23" hidden="1">
       <c r="M46" s="176"/>
@@ -47549,9 +47505,6 @@
       <c r="Q46" s="176"/>
       <c r="S46" s="176"/>
       <c r="T46" s="176"/>
-      <c r="U46" s="202"/>
-      <c r="V46" s="202"/>
-      <c r="W46" s="202"/>
     </row>
     <row r="47" spans="3:23" hidden="1">
       <c r="M47" s="176"/>
@@ -47560,9 +47513,6 @@
       <c r="Q47" s="176"/>
       <c r="S47" s="176"/>
       <c r="T47" s="176"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="W47" s="202"/>
     </row>
     <row r="48" spans="3:23" hidden="1">
       <c r="M48" s="176"/>
@@ -47571,71 +47521,56 @@
       <c r="Q48" s="176"/>
       <c r="S48" s="176"/>
       <c r="T48" s="176"/>
-      <c r="U48" s="202"/>
-      <c r="V48" s="202"/>
-      <c r="W48" s="202"/>
-    </row>
-    <row r="49" spans="13:23" hidden="1">
+    </row>
+    <row r="49" spans="13:20" hidden="1">
       <c r="M49" s="176"/>
       <c r="N49" s="175"/>
       <c r="P49" s="176"/>
       <c r="Q49" s="176"/>
       <c r="S49" s="176"/>
       <c r="T49" s="176"/>
-      <c r="U49" s="202"/>
-      <c r="V49" s="202"/>
-      <c r="W49" s="202"/>
-    </row>
-    <row r="50" spans="13:23" hidden="1">
+    </row>
+    <row r="50" spans="13:20" hidden="1">
       <c r="M50" s="176"/>
       <c r="N50" s="175"/>
       <c r="P50" s="176"/>
       <c r="Q50" s="176"/>
       <c r="S50" s="176"/>
       <c r="T50" s="176"/>
-      <c r="U50" s="202"/>
-      <c r="V50" s="202"/>
-      <c r="W50" s="202"/>
-    </row>
-    <row r="51" spans="13:23" hidden="1">
+    </row>
+    <row r="51" spans="13:20" hidden="1">
       <c r="M51" s="176"/>
       <c r="N51" s="175"/>
       <c r="P51" s="176"/>
       <c r="Q51" s="176"/>
       <c r="S51" s="176"/>
       <c r="T51" s="176"/>
-      <c r="U51" s="202"/>
-      <c r="V51" s="202"/>
-      <c r="W51" s="202"/>
-    </row>
-    <row r="52" spans="13:23" hidden="1">
+    </row>
+    <row r="52" spans="13:20" hidden="1">
       <c r="M52" s="176"/>
       <c r="N52" s="175"/>
       <c r="P52" s="176"/>
       <c r="Q52" s="176"/>
       <c r="S52" s="176"/>
       <c r="T52" s="176"/>
-      <c r="U52" s="202"/>
-      <c r="V52" s="202"/>
-      <c r="W52" s="202"/>
-    </row>
-    <row r="53" spans="13:23" hidden="1"/>
-    <row r="54" spans="13:23" hidden="1"/>
-    <row r="55" spans="13:23" hidden="1"/>
-    <row r="56" spans="13:23" hidden="1"/>
+    </row>
+    <row r="53" spans="13:20" hidden="1"/>
+    <row r="54" spans="13:20" hidden="1"/>
+    <row r="55" spans="13:20" hidden="1"/>
+    <row r="56" spans="13:20" hidden="1"/>
     <row r="148" spans="3:3">
       <c r="C148" s="164" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="164" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" s="164" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -47707,53 +47642,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="193" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1" s="193"/>
+      <c r="A1" s="216" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1" s="216"/>
       <c r="E1" s="111" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F1" s="112" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G1" s="112" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1" s="112" t="s">
         <v>392</v>
       </c>
       <c r="I1" s="112" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="J1" s="112" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="113" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F2" s="114" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G2" s="114" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H2" s="115">
         <v>45975</v>
       </c>
       <c r="I2" s="114" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="J2" s="116" t="s">
         <v>292</v>
@@ -47761,7 +47696,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B3" s="97" t="s">
         <v>315</v>
@@ -47770,19 +47705,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F3" s="117" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G3" s="117" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H3" s="84">
         <v>45978</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="J3" s="118" t="s">
         <v>328</v>
@@ -47790,7 +47725,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.6">
       <c r="A4" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B4" s="98">
         <v>1088000</v>
@@ -47799,19 +47734,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H4" s="120" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="I4" s="119" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="J4" s="121" t="s">
         <v>321</v>
@@ -47824,19 +47759,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H5" s="84">
         <v>45980</v>
       </c>
       <c r="I5" s="85" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="J5" s="122" t="s">
         <v>368</v>
@@ -47844,36 +47779,36 @@
     </row>
     <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H6" s="120" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="J6" s="121" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B7" s="97" t="s">
         <v>314</v>
@@ -47882,19 +47817,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="123" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F7" s="123" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G7" s="123" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H7" s="124">
         <v>45986</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="J7" s="121" t="s">
         <v>373</v>
@@ -47902,7 +47837,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B8" s="98">
         <v>163000</v>
@@ -47911,19 +47846,19 @@
         <v>7</v>
       </c>
       <c r="E8" s="123" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F8" s="123" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G8" s="123" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H8" s="124">
         <v>45987</v>
       </c>
       <c r="I8" s="123" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="J8" s="121" t="s">
         <v>377</v>
@@ -47936,94 +47871,94 @@
         <v>8</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H9" s="86">
         <v>45989</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
       <c r="A10" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="89" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H10" s="88" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I10" s="88" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" ht="15.6">
       <c r="A11" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B11" s="97" t="s">
         <v>289</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="87" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G11" s="87" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B12" s="98">
         <v>262000</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="125" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J12" s="89"/>
     </row>
@@ -48031,33 +47966,33 @@
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="E13" s="87" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G13" s="87" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B15" s="97" t="s">
         <v>294</v>
@@ -48065,7 +48000,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B16" s="98">
         <v>191000</v>
@@ -48077,7 +48012,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B18" s="97" t="s">
         <v>205</v>
@@ -48092,15 +48027,15 @@
         <v>145</v>
       </c>
       <c r="H18" s="127" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6">
-      <c r="A19" s="192" t="s">
-        <v>1354</v>
+      <c r="A19" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E19" s="128" t="s">
         <v>289</v>
@@ -48109,14 +48044,14 @@
         <v>262000</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H19" s="83" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6">
-      <c r="A20" s="192"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="95" t="s">
         <v>292</v>
       </c>
@@ -48127,7 +48062,7 @@
         <v>191000</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H20" s="83" t="s">
         <v>205</v>
@@ -48135,10 +48070,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E21" s="92" t="s">
         <v>325</v>
@@ -48147,7 +48082,7 @@
         <v>971000</v>
       </c>
       <c r="G21" s="130" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H21" s="130" t="s">
         <v>205</v>
@@ -48155,7 +48090,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B22" s="99">
         <v>45975</v>
@@ -48167,7 +48102,7 @@
         <v>510000</v>
       </c>
       <c r="G22" s="130" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H22" s="130" t="s">
         <v>205</v>
@@ -48175,22 +48110,22 @@
     </row>
     <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B23" s="99">
         <v>45978</v>
       </c>
       <c r="E23" s="83" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F23" s="131">
         <v>160000</v>
       </c>
       <c r="G23" s="83" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6">
@@ -48203,17 +48138,17 @@
         <v>218000</v>
       </c>
       <c r="G24" s="132" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H24" s="83" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6">
-      <c r="A25" s="193" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B25" s="193"/>
+      <c r="A25" s="216" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B25" s="216"/>
       <c r="E25" s="134" t="s">
         <v>323</v>
       </c>
@@ -48221,7 +48156,7 @@
         <v>1090000</v>
       </c>
       <c r="G25" s="135" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H25" s="135" t="s">
         <v>412</v>
@@ -48229,10 +48164,10 @@
     </row>
     <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E26" s="136" t="s">
         <v>318</v>
@@ -48241,7 +48176,7 @@
         <v>163000</v>
       </c>
       <c r="G26" s="137" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H26" s="137" t="s">
         <v>412</v>
@@ -48249,7 +48184,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B27" s="97" t="s">
         <v>325</v>
@@ -48261,7 +48196,7 @@
         <v>191000</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H27" s="83" t="s">
         <v>412</v>
@@ -48269,7 +48204,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B28" s="98">
         <v>970381.91</v>
@@ -48281,7 +48216,7 @@
         <v>971000</v>
       </c>
       <c r="G28" s="130" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H28" s="130" t="s">
         <v>412</v>
@@ -48297,7 +48232,7 @@
         <v>853000</v>
       </c>
       <c r="G29" s="130" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H29" s="130" t="s">
         <v>412</v>
@@ -48305,16 +48240,16 @@
     </row>
     <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E30" s="138" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G30" s="83"/>
       <c r="H30" s="83" t="s">
@@ -48323,13 +48258,13 @@
     </row>
     <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B31" s="97" t="s">
         <v>331</v>
       </c>
       <c r="E31" s="139" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F31" s="93">
         <v>147000</v>
@@ -48341,10 +48276,10 @@
     </row>
     <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E32" s="140" t="s">
         <v>315</v>
@@ -48373,37 +48308,37 @@
     </row>
     <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B34" s="97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6">
-      <c r="A35" s="192" t="s">
-        <v>1354</v>
+      <c r="A35" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="192"/>
+      <c r="A36" s="217"/>
       <c r="B36" s="95" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B37" s="94" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B38" s="99">
         <v>45978</v>
@@ -48411,7 +48346,7 @@
     </row>
     <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B39" s="99">
         <v>45985</v>
@@ -48422,30 +48357,30 @@
       <c r="B40" s="100"/>
     </row>
     <row r="41" spans="1:8" ht="15.6">
-      <c r="A41" s="193" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B41" s="193"/>
+      <c r="A41" s="216" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B41" s="216"/>
     </row>
     <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B44" s="91">
         <v>1090000</v>
@@ -48457,15 +48392,15 @@
     </row>
     <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="103" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="103" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B47" s="97" t="s">
         <v>318</v>
@@ -48473,7 +48408,7 @@
     </row>
     <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="103" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B48" s="81">
         <v>163000</v>
@@ -48485,37 +48420,37 @@
     </row>
     <row r="50" spans="1:2" ht="15.6">
       <c r="A50" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B50" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6">
-      <c r="A51" s="192" t="s">
-        <v>1354</v>
+      <c r="A51" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="192"/>
+      <c r="A52" s="217"/>
       <c r="B52" s="95" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6">
       <c r="A53" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B53" s="94" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6">
       <c r="A54" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B54" s="99">
         <v>45978</v>
@@ -48523,7 +48458,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.6">
       <c r="A55" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B55" s="99">
         <v>45981</v>
@@ -48534,22 +48469,22 @@
       <c r="B56" s="100"/>
     </row>
     <row r="57" spans="1:2" ht="15.6">
-      <c r="A57" s="193" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B57" s="193"/>
+      <c r="A57" s="216" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B57" s="216"/>
     </row>
     <row r="58" spans="1:2" ht="15.6">
       <c r="A58" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6">
       <c r="A59" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B59" s="97" t="s">
         <v>358</v>
@@ -48557,7 +48492,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.6">
       <c r="A60" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B60" s="98">
         <v>971000</v>
@@ -48569,15 +48504,15 @@
     </row>
     <row r="62" spans="1:2" ht="15.6">
       <c r="A62" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6">
       <c r="A63" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B63" s="97" t="s">
         <v>354</v>
@@ -48585,7 +48520,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.6">
       <c r="A64" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B64" s="98">
         <v>853000</v>
@@ -48597,37 +48532,37 @@
     </row>
     <row r="66" spans="1:2" ht="15.6">
       <c r="A66" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B66" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6">
-      <c r="A67" s="192" t="s">
-        <v>1354</v>
+      <c r="A67" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="192"/>
+      <c r="A68" s="217"/>
       <c r="B68" s="104" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6">
       <c r="A69" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B69" s="94" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6">
       <c r="A70" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B70" s="99">
         <v>45980</v>
@@ -48635,7 +48570,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.6">
       <c r="A71" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B71" s="99">
         <v>45985</v>
@@ -48646,22 +48581,22 @@
       <c r="B72" s="100"/>
     </row>
     <row r="73" spans="1:2" ht="15.6">
-      <c r="A73" s="193" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B73" s="193"/>
+      <c r="A73" s="216" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B73" s="216"/>
     </row>
     <row r="74" spans="1:2" ht="15.6">
       <c r="A74" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6">
       <c r="A75" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B75" s="97" t="s">
         <v>366</v>
@@ -48669,7 +48604,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.6">
       <c r="A76" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B76" s="98">
         <v>218000</v>
@@ -48681,15 +48616,15 @@
     </row>
     <row r="78" spans="1:2" ht="15.6">
       <c r="A78" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6">
       <c r="A79" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B79" s="97" t="s">
         <v>365</v>
@@ -48697,7 +48632,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.6">
       <c r="A80" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B80" s="98">
         <v>191000</v>
@@ -48709,23 +48644,23 @@
     </row>
     <row r="82" spans="1:2" ht="15.6">
       <c r="A82" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6">
       <c r="A83" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6">
       <c r="A84" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B84" s="98">
         <v>160000</v>
@@ -48737,37 +48672,37 @@
     </row>
     <row r="86" spans="1:2" ht="15.6">
       <c r="A86" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B86" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6">
-      <c r="A87" s="192" t="s">
-        <v>1354</v>
+      <c r="A87" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B87" s="97" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="192"/>
+      <c r="A88" s="217"/>
       <c r="B88" s="104" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6">
       <c r="A89" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B89" s="94" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6">
       <c r="A90" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B90" s="99">
         <v>45985</v>
@@ -48775,7 +48710,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.6">
       <c r="A91" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B91" s="99">
         <v>45987</v>
@@ -48786,22 +48721,22 @@
       <c r="B92" s="100"/>
     </row>
     <row r="93" spans="1:2" ht="15.6">
-      <c r="A93" s="193" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B93" s="193"/>
+      <c r="A93" s="216" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B93" s="216"/>
     </row>
     <row r="94" spans="1:2" ht="15.6">
       <c r="A94" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B94" s="97" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6">
       <c r="A95" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B95" s="97" t="s">
         <v>323</v>
@@ -48809,7 +48744,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.6">
       <c r="A96" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B96" s="98">
         <v>1090000</v>
@@ -48821,15 +48756,15 @@
     </row>
     <row r="98" spans="1:2" ht="15.6">
       <c r="A98" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B98" s="97" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6">
       <c r="A99" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B99" s="97" t="s">
         <v>318</v>
@@ -48837,7 +48772,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.6">
       <c r="A100" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B100" s="98">
         <v>163000</v>
@@ -48849,15 +48784,15 @@
     </row>
     <row r="102" spans="1:2" ht="15.6">
       <c r="A102" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B102" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6">
       <c r="A103" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B103" s="97" t="s">
         <v>289</v>
@@ -48865,7 +48800,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.6">
       <c r="A104" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B104" s="98">
         <v>262000</v>
@@ -48877,15 +48812,15 @@
     </row>
     <row r="106" spans="1:2" ht="15.6">
       <c r="A106" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B106" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6">
       <c r="A107" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B107" s="97" t="s">
         <v>294</v>
@@ -48893,7 +48828,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.6">
       <c r="A108" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B108" s="98">
         <v>191000</v>
@@ -48905,29 +48840,29 @@
     </row>
     <row r="110" spans="1:2" ht="15.6">
       <c r="A110" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B110" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="192" t="s">
-        <v>1354</v>
+      <c r="A111" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B111" s="94" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="192"/>
+      <c r="A112" s="217"/>
       <c r="B112" s="104" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6">
       <c r="A113" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B113" s="97" t="s">
         <v>374</v>
@@ -48935,7 +48870,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.6">
       <c r="A114" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B114" s="99">
         <v>45985</v>
@@ -48943,7 +48878,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.6">
       <c r="A115" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B115" s="99">
         <v>45986</v>
@@ -48954,22 +48889,22 @@
       <c r="B116" s="100"/>
     </row>
     <row r="117" spans="1:2" ht="15.6">
-      <c r="A117" s="193" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B117" s="193"/>
+      <c r="A117" s="216" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B117" s="216"/>
     </row>
     <row r="118" spans="1:2" ht="15.6">
       <c r="A118" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B118" s="97" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6">
       <c r="A119" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B119" s="97" t="s">
         <v>323</v>
@@ -48977,7 +48912,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.6">
       <c r="A120" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B120" s="98">
         <v>1090000</v>
@@ -48989,15 +48924,15 @@
     </row>
     <row r="122" spans="1:2" ht="15.6">
       <c r="A122" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B122" s="97" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6">
       <c r="A123" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B123" s="97" t="s">
         <v>318</v>
@@ -49005,7 +48940,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.6">
       <c r="A124" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B124" s="98">
         <v>163000</v>
@@ -49017,15 +48952,15 @@
     </row>
     <row r="126" spans="1:2" ht="15.6">
       <c r="A126" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B126" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6">
       <c r="A127" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B127" s="97" t="s">
         <v>289</v>
@@ -49033,7 +48968,7 @@
     </row>
     <row r="128" spans="1:2" ht="15.6">
       <c r="A128" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B128" s="98">
         <v>262000</v>
@@ -49045,15 +48980,15 @@
     </row>
     <row r="130" spans="1:2" ht="15.6">
       <c r="A130" s="97" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B130" s="97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6">
       <c r="A131" s="97" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B131" s="97" t="s">
         <v>294</v>
@@ -49061,7 +48996,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.6">
       <c r="A132" s="97" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B132" s="98">
         <v>191000</v>
@@ -49073,37 +49008,37 @@
     </row>
     <row r="134" spans="1:2" ht="15.6">
       <c r="A134" s="97" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B134" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="192" t="s">
-        <v>1354</v>
+      <c r="A135" s="217" t="s">
+        <v>1355</v>
       </c>
       <c r="B135" s="94" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="192"/>
+      <c r="A136" s="217"/>
       <c r="B136" s="95" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6">
       <c r="A137" s="97" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B137" s="97" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.6">
       <c r="A138" s="97" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B138" s="99">
         <v>45987</v>
@@ -49111,7 +49046,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.6">
       <c r="A139" s="97" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B139" s="99">
         <v>45988</v>
@@ -49119,6 +49054,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A135:A136"/>
     <mergeCell ref="A57:B57"/>
@@ -49127,12 +49068,6 @@
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="45" priority="1">
@@ -49303,6 +49238,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100165C9838A8BE0240B14ECB57A7D15C1B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="38153ec566ff0f4bf479b7a6c9088949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb" xmlns:ns3="97552bd7-0050-4a40-a3e9-7eed99743892" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05d834da23fbd08f588ccb0f92beec26" ns2:_="" ns3:_="">
     <xsd:import namespace="1f9af305-95c5-4ec5-a7fe-f235b5fb43bb"/>
@@ -49497,15 +49441,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -49518,11 +49453,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24994462-9DC9-439A-A812-6A6D4FF15B42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A1C85B-03FE-4F69-8E8A-BAA099FC8789}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A1C85B-03FE-4F69-8E8A-BAA099FC8789}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24994462-9DC9-439A-A812-6A6D4FF15B42}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DA2484-FD07-4671-A1D9-B14055F051DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3738" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF89FBB9-F617-45C1-A8CF-0573B94283F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>

--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4096" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DA7C0A-E6ED-49AF-925B-6962EF7DA266}"/>
+  <xr:revisionPtr revIDLastSave="4135" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBD82614-2CFD-4704-BEE6-4DB6DD57B813}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="1406">
   <si>
     <t>ITEM</t>
   </si>
@@ -2266,192 +2266,375 @@
     <t>SALVAR COMO</t>
   </si>
   <si>
+    <t>Manutenção VW</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>047116</t>
+  </si>
+  <si>
+    <t>DER - AET VEICULOS</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
+  </si>
+  <si>
+    <t>BOLETO</t>
+  </si>
+  <si>
+    <t>33 - D.A. - GRU - Multas de Radares; velocidade: acima de 20%</t>
+  </si>
+  <si>
+    <t>Manutenção DAF</t>
+  </si>
+  <si>
+    <t>047117</t>
+  </si>
+  <si>
+    <t>DETRAN PR</t>
+  </si>
+  <si>
+    <t>Reboque: sem ABS correto</t>
+  </si>
+  <si>
+    <t>Reboque: Licenciamento 2025</t>
+  </si>
+  <si>
+    <t>047178</t>
+  </si>
+  <si>
+    <t>DNIT</t>
+  </si>
+  <si>
+    <t>BOLETO DNIT - AET TRIMESTRAL VW (120006)</t>
+  </si>
+  <si>
+    <t>Frete Peças T</t>
+  </si>
+  <si>
+    <t>047186</t>
+  </si>
+  <si>
+    <t>ESC -TR PEÇA</t>
+  </si>
+  <si>
+    <t>FRETE DE PEÇAS - ESC</t>
+  </si>
+  <si>
+    <t>047187</t>
+  </si>
+  <si>
+    <t>047188</t>
+  </si>
+  <si>
+    <t>PRUDE</t>
+  </si>
+  <si>
+    <t>047189</t>
+  </si>
+  <si>
+    <t>047190</t>
+  </si>
+  <si>
+    <t>GRPVA</t>
+  </si>
+  <si>
+    <t>047192</t>
+  </si>
+  <si>
+    <t>047193</t>
+  </si>
+  <si>
+    <t>Frete Peças M</t>
+  </si>
+  <si>
+    <t>047258</t>
+  </si>
+  <si>
+    <t>ANDREIA R. COURIER</t>
+  </si>
+  <si>
+    <t>047199</t>
+  </si>
+  <si>
+    <t>JOHN ELVIS COURIER</t>
+  </si>
+  <si>
+    <t>FRETE DE PEÇAS P/ CLIENTE</t>
+  </si>
+  <si>
+    <t>047247</t>
+  </si>
+  <si>
+    <t>DELTA MOTOS COURIER</t>
+  </si>
+  <si>
+    <t>MOTOBOY X CLIENTE: ENTREGAS DO MÊS DE OUTUBRO</t>
+  </si>
+  <si>
+    <t>047267</t>
+  </si>
+  <si>
+    <t>MARCOS D. COURIER</t>
+  </si>
+  <si>
+    <t>MOTOBOY: TRANSF ENTRE LOJAS GRPVA X CASTRO</t>
+  </si>
+  <si>
+    <t>047268</t>
+  </si>
+  <si>
+    <t>MOTOBOY: orçamento  79186</t>
+  </si>
+  <si>
     <t>Frete Máq. Trator</t>
   </si>
   <si>
+    <t>047269</t>
+  </si>
+  <si>
+    <t>STOSKI -TR MAQ</t>
+  </si>
+  <si>
+    <t>ENTREGA TRATOR 6135M - LAURO MIGUEL STRONA</t>
+  </si>
+  <si>
+    <t>047348</t>
+  </si>
+  <si>
+    <t>PRINCESA -TR PEÇA</t>
+  </si>
+  <si>
+    <t>CTE - KLABIN TB</t>
+  </si>
+  <si>
+    <t>047246</t>
+  </si>
+  <si>
+    <t>047315</t>
+  </si>
+  <si>
+    <t>TRANSCAPITINGA-TR MAQ</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE TRATOR DE JAPIRA PARA ARAPOTI</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE TRATOR PARA SIQUEIRA CAMPOS VEREDIANA</t>
+  </si>
+  <si>
+    <t>047349</t>
+  </si>
+  <si>
+    <t>UNIBOY COURIER</t>
+  </si>
+  <si>
+    <t>MOTOBOY</t>
+  </si>
+  <si>
+    <t>047233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRETE DE PEÇAS MOTOBOY X CLIENTE                                                </t>
+  </si>
+  <si>
+    <t>047243</t>
+  </si>
+  <si>
+    <t>047244</t>
+  </si>
+  <si>
+    <t>047437</t>
+  </si>
+  <si>
+    <t>047249</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>047383</t>
+  </si>
+  <si>
+    <t>SERIE4 - MT 1</t>
+  </si>
+  <si>
+    <t>peças: correia, polia lisa, polia virabrequim, tensionador -vw</t>
+  </si>
+  <si>
+    <t>serviço de manutenção e troca -vw</t>
+  </si>
+  <si>
+    <t>047525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levar peça na Propriedade do cliente  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. levar peças para Bituruna Pr Cliente Jean Carlos de Bastiane </t>
+  </si>
+  <si>
+    <t>047527</t>
+  </si>
+  <si>
+    <t>Peça de GRPVA para PG</t>
+  </si>
+  <si>
+    <t>047550</t>
+  </si>
+  <si>
+    <t>JORGE LUIZ 2 COURIER</t>
+  </si>
+  <si>
+    <t>047553</t>
+  </si>
+  <si>
+    <t>ANDREANI - MT</t>
+  </si>
+  <si>
+    <t>Diagnóstico e testes via aparelho - VW</t>
+  </si>
+  <si>
+    <t>Conector e sensor de rotação e tomada - VW</t>
+  </si>
+  <si>
+    <t>047685</t>
+  </si>
+  <si>
+    <t>JOSEAMILTON1 COURIER</t>
+  </si>
+  <si>
+    <t>047687</t>
+  </si>
+  <si>
+    <t>Munck</t>
+  </si>
+  <si>
+    <t>047738</t>
+  </si>
+  <si>
+    <t>munck: (des)carregar  peças e implementos para a loja</t>
+  </si>
+  <si>
+    <t>047750</t>
+  </si>
+  <si>
+    <t>CTE KLABIN</t>
+  </si>
+  <si>
+    <t>CTE SINAL SERVIÇOS</t>
+  </si>
+  <si>
+    <t>047757</t>
+  </si>
+  <si>
+    <t>CARGADEDICADA -TR PEÇA</t>
+  </si>
+  <si>
+    <t>CTE - COCAMAR</t>
+  </si>
+  <si>
+    <t>047804</t>
+  </si>
+  <si>
+    <t>MAZETTO -TR MAQ</t>
+  </si>
+  <si>
+    <t>RONALDO RABBERS -NF109962 - FRETE TRATOR</t>
+  </si>
+  <si>
+    <t>047805</t>
+  </si>
+  <si>
+    <t>LUIZ HENRIQUE GREIN -NF107347 - FRETE TRATOR</t>
+  </si>
+  <si>
+    <t>Frete Máq. Colheitadeira</t>
+  </si>
+  <si>
+    <t>ARNALDO STOCK -NF107847 - FRETE COLHEITADEIRA</t>
+  </si>
+  <si>
+    <t>Frete Máq. Plataforma</t>
+  </si>
+  <si>
+    <t>ARNALDO STOCK -NF107847 - FRETE PLATAFORMA</t>
+  </si>
+  <si>
+    <t>VLADEMIR STORTI -NF107917 - FRETE TRATOR</t>
+  </si>
+  <si>
+    <t>047806</t>
+  </si>
+  <si>
+    <t>ADILSON KRASSOSKI -NF11620  - FRETE TRATOR</t>
+  </si>
+  <si>
+    <t>OSWALDO R BARBOSA -NF107698 - FRETE TRATOR</t>
+  </si>
+  <si>
+    <t>UTILIZAÇÃO DE MUNCK PARA CARREGAR E DESCARREGAR NA LOJA</t>
+  </si>
+  <si>
+    <t>047328</t>
+  </si>
+  <si>
+    <t>entrega de peça cliente Paulo Roberto Soczek Dzierwa</t>
+  </si>
+  <si>
+    <t>047552</t>
+  </si>
+  <si>
+    <t>GRICZYNSKI -TR MAQ</t>
+  </si>
+  <si>
     <t>047572</t>
   </si>
   <si>
     <t>AGROMAQ -TR MAQ</t>
   </si>
   <si>
-    <t>Aprovado</t>
-  </si>
-  <si>
     <t>Entrega do distribuidor de nutrientes Tomazina</t>
   </si>
   <si>
+    <t>047573</t>
+  </si>
+  <si>
+    <t>MUNCK IRATI -TR MAQ</t>
+  </si>
+  <si>
+    <t>Transporte de plataforma usada de irati para prude</t>
+  </si>
+  <si>
+    <t>047732</t>
+  </si>
+  <si>
+    <t>SUL LONAS - MT</t>
+  </si>
+  <si>
+    <t>Aguardando</t>
+  </si>
+  <si>
+    <t>FLC LONIL VERDE / PRETO CAPAS COLHETADEIRA E LANÇAS</t>
+  </si>
+  <si>
+    <t>047733</t>
+  </si>
+  <si>
+    <t>MEGA TRUCK ACESSORIOS - MT</t>
+  </si>
+  <si>
+    <t>Manutenção em todas as rodas - VW</t>
+  </si>
+  <si>
     <t>Frete Máq. Carreta</t>
   </si>
   <si>
     <t>047752</t>
   </si>
   <si>
-    <t>Frete Máq. Colheitadeira</t>
-  </si>
-  <si>
-    <t>Frete Máq. Plataforma</t>
-  </si>
-  <si>
-    <t>Manutenção VW</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>047553</t>
-  </si>
-  <si>
-    <t>ANDREANI - MT</t>
-  </si>
-  <si>
-    <t>Diagnóstico e testes via aparelho - VW</t>
-  </si>
-  <si>
-    <t>Conector e sensor de rotação e tomada - VW</t>
-  </si>
-  <si>
-    <t>Frete Peças M</t>
-  </si>
-  <si>
-    <t>047258</t>
-  </si>
-  <si>
-    <t>ANDREIA R. COURIER</t>
-  </si>
-  <si>
-    <t>047437</t>
-  </si>
-  <si>
-    <t>047267</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>047687</t>
-  </si>
-  <si>
-    <t>MOTOBOY</t>
-  </si>
-  <si>
-    <t>Frete Peças T</t>
-  </si>
-  <si>
-    <t>047757</t>
-  </si>
-  <si>
-    <t>CARGADEDICADA -TR PEÇA</t>
-  </si>
-  <si>
-    <t>CTE - COCAMAR</t>
-  </si>
-  <si>
-    <t>047247</t>
-  </si>
-  <si>
-    <t>DELTA MOTOS COURIER</t>
-  </si>
-  <si>
-    <t>MOTOBOY X CLIENTE: ENTREGAS DO MÊS DE OUTUBRO</t>
-  </si>
-  <si>
-    <t>GRPVA</t>
-  </si>
-  <si>
-    <t>047246</t>
-  </si>
-  <si>
-    <t>047233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRETE DE PEÇAS MOTOBOY X CLIENTE                                                </t>
-  </si>
-  <si>
-    <t>047243</t>
-  </si>
-  <si>
-    <t>PRUDE</t>
-  </si>
-  <si>
-    <t>047244</t>
-  </si>
-  <si>
-    <t>047249</t>
-  </si>
-  <si>
-    <t>047116</t>
-  </si>
-  <si>
-    <t>DER - AET VEICULOS</t>
-  </si>
-  <si>
-    <t>BOLETO</t>
-  </si>
-  <si>
-    <t>33 - D.A. - GRU - Multas de Radares; velocidade: acima de 20%</t>
-  </si>
-  <si>
-    <t>Manutenção DAF</t>
-  </si>
-  <si>
-    <t>047117</t>
-  </si>
-  <si>
-    <t>DETRAN PR</t>
-  </si>
-  <si>
-    <t>Reboque: sem ABS correto</t>
-  </si>
-  <si>
-    <t>Reboque: Licenciamento 2025</t>
-  </si>
-  <si>
-    <t>047178</t>
-  </si>
-  <si>
-    <t>DNIT</t>
-  </si>
-  <si>
-    <t>BOLETO DNIT - AET TRIMESTRAL VW (120006)</t>
-  </si>
-  <si>
-    <t>047186</t>
-  </si>
-  <si>
-    <t>ESC -TR PEÇA</t>
-  </si>
-  <si>
-    <t>FRETE DE PEÇAS - ESC</t>
-  </si>
-  <si>
-    <t>047187</t>
-  </si>
-  <si>
-    <t>047188</t>
-  </si>
-  <si>
-    <t>047189</t>
-  </si>
-  <si>
-    <t>047190</t>
-  </si>
-  <si>
-    <t>047192</t>
-  </si>
-  <si>
-    <t>047193</t>
-  </si>
-  <si>
-    <t>047552</t>
-  </si>
-  <si>
-    <t>GRICZYNSKI -TR MAQ</t>
-  </si>
-  <si>
-    <t>Munck</t>
-  </si>
-  <si>
     <t>047758</t>
   </si>
   <si>
@@ -2461,31 +2644,28 @@
     <t>SERVIÇO DE MUNK - DESCARREGAR PLATAFORMA</t>
   </si>
   <si>
-    <t>047199</t>
-  </si>
-  <si>
-    <t>JOHN ELVIS COURIER</t>
-  </si>
-  <si>
-    <t>FRETE DE PEÇAS P/ CLIENTE</t>
-  </si>
-  <si>
-    <t>047550</t>
-  </si>
-  <si>
-    <t>JORGE LUIZ 2 COURIER</t>
-  </si>
-  <si>
-    <t>047328</t>
-  </si>
-  <si>
-    <t>entrega de peça cliente Paulo Roberto Soczek Dzierwa</t>
-  </si>
-  <si>
-    <t>047685</t>
-  </si>
-  <si>
-    <t>JOSEAMILTON1 COURIER</t>
+    <t>047800</t>
+  </si>
+  <si>
+    <t>Compra de filtro racor c/dreno</t>
+  </si>
+  <si>
+    <t>Troca do filtro racor</t>
+  </si>
+  <si>
+    <t>047801</t>
+  </si>
+  <si>
+    <t>MONTPAR GUINDASTES</t>
+  </si>
+  <si>
+    <t>Retirada de tanque de pulverizador - serviços</t>
+  </si>
+  <si>
+    <t>047802</t>
+  </si>
+  <si>
+    <t>ZORTEA -TR MAQ</t>
   </si>
   <si>
     <t>Frete Máq. Pulverizador</t>
@@ -2497,186 +2677,6 @@
     <t>LUG -TR MAQ</t>
   </si>
   <si>
-    <t>Aguardando</t>
-  </si>
-  <si>
-    <t>MARCOS D. COURIER</t>
-  </si>
-  <si>
-    <t>MOTOBOY: TRANSF ENTRE LOJAS GRPVA X CASTRO</t>
-  </si>
-  <si>
-    <t>047268</t>
-  </si>
-  <si>
-    <t>MOTOBOY: orçamento  79186</t>
-  </si>
-  <si>
-    <t>047525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levar peça na Propriedade do cliente  </t>
-  </si>
-  <si>
-    <t>047527</t>
-  </si>
-  <si>
-    <t>Peça de GRPVA para PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. levar peças para Bituruna Pr Cliente Jean Carlos de Bastiane </t>
-  </si>
-  <si>
-    <t>047805</t>
-  </si>
-  <si>
-    <t>MAZETTO -TR MAQ</t>
-  </si>
-  <si>
-    <t>LUIZ HENRIQUE GREIN -NF107347 - FRETE TRATOR</t>
-  </si>
-  <si>
-    <t>ARNALDO STOCK -NF107847 - FRETE COLHEITADEIRA</t>
-  </si>
-  <si>
-    <t>ARNALDO STOCK -NF107847 - FRETE PLATAFORMA</t>
-  </si>
-  <si>
-    <t>VLADEMIR STORTI -NF107917 - FRETE TRATOR</t>
-  </si>
-  <si>
-    <t>047806</t>
-  </si>
-  <si>
-    <t>ADILSON KRASSOSKI -NF11620  - FRETE TRATOR</t>
-  </si>
-  <si>
-    <t>OSWALDO R BARBOSA -NF107698 - FRETE TRATOR</t>
-  </si>
-  <si>
-    <t>047804</t>
-  </si>
-  <si>
-    <t>RONALDO RABBERS -NF109962 - FRETE TRATOR</t>
-  </si>
-  <si>
-    <t>047733</t>
-  </si>
-  <si>
-    <t>MEGA TRUCK ACESSORIOS - MT</t>
-  </si>
-  <si>
-    <t>Manutenção em todas as rodas - VW</t>
-  </si>
-  <si>
-    <t>047801</t>
-  </si>
-  <si>
-    <t>MONTPAR GUINDASTES</t>
-  </si>
-  <si>
-    <t>Retirada de tanque de pulverizador - serviços</t>
-  </si>
-  <si>
-    <t>047573</t>
-  </si>
-  <si>
-    <t>MUNCK IRATI -TR MAQ</t>
-  </si>
-  <si>
-    <t>Transporte de plataforma usada de irati para prude</t>
-  </si>
-  <si>
-    <t>047348</t>
-  </si>
-  <si>
-    <t>PRINCESA -TR PEÇA</t>
-  </si>
-  <si>
-    <t>CTE - KLABIN TB</t>
-  </si>
-  <si>
-    <t>047750</t>
-  </si>
-  <si>
-    <t>CTE KLABIN</t>
-  </si>
-  <si>
-    <t>CTE SINAL SERVIÇOS</t>
-  </si>
-  <si>
-    <t>047383</t>
-  </si>
-  <si>
-    <t>SERIE4 - MT 1</t>
-  </si>
-  <si>
-    <t>peças: correia, polia lisa, polia virabrequim, tensionador -vw</t>
-  </si>
-  <si>
-    <t>serviço de manutenção e troca -vw</t>
-  </si>
-  <si>
-    <t>047800</t>
-  </si>
-  <si>
-    <t>Compra de filtro racor c/dreno</t>
-  </si>
-  <si>
-    <t>Troca do filtro racor</t>
-  </si>
-  <si>
-    <t>047269</t>
-  </si>
-  <si>
-    <t>STOSKI -TR MAQ</t>
-  </si>
-  <si>
-    <t>ENTREGA TRATOR 6135M - LAURO MIGUEL STRONA</t>
-  </si>
-  <si>
-    <t>047732</t>
-  </si>
-  <si>
-    <t>SUL LONAS - MT</t>
-  </si>
-  <si>
-    <t>FLC LONIL VERDE / PRETO CAPAS COLHETADEIRA E LANÇAS</t>
-  </si>
-  <si>
-    <t>047315</t>
-  </si>
-  <si>
-    <t>TRANSCAPITINGA-TR MAQ</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DE TRATOR DE JAPIRA PARA ARAPOTI</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DE TRATOR PARA SIQUEIRA CAMPOS VEREDIANA</t>
-  </si>
-  <si>
-    <t>047738</t>
-  </si>
-  <si>
-    <t>munck: (des)carregar  peças e implementos para a loja</t>
-  </si>
-  <si>
-    <t>UTILIZAÇÃO DE MUNCK PARA CARREGAR E DESCARREGAR NA LOJA</t>
-  </si>
-  <si>
-    <t>047349</t>
-  </si>
-  <si>
-    <t>UNIBOY COURIER</t>
-  </si>
-  <si>
-    <t>047802</t>
-  </si>
-  <si>
-    <t>ZORTEA -TR MAQ</t>
-  </si>
-  <si>
     <t>047871</t>
   </si>
   <si>
@@ -2686,10 +2686,10 @@
     <t>JAPA MARRERO -TR MAQ</t>
   </si>
   <si>
+    <t>Transporte de distribuidor de fertilizantes em Indaiatuba para</t>
+  </si>
+  <si>
     <t>TRANSPORTE DE TRATOR DE SANTANA DO ITARARE PARA ARAPOT</t>
-  </si>
-  <si>
-    <t>Transporte de distribuidor de fertilizantes em Indaiatuba para</t>
   </si>
   <si>
     <t>047873</t>
@@ -12733,6 +12733,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3542963162546645E-4"/>
+                  <c:y val="-2.4081185251240731E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1894-4B57-8EFA-712573435A1C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00;;" sourceLinked="0"/>
             <c:spPr>
               <a:solidFill>
@@ -12887,6 +12909,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-D9B3-49EA-B7F1-760E1B6156DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0639354554450295E-4"/>
+                  <c:y val="-6.523845172850809E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1894-4B57-8EFA-712573435A1C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13380,7 +13424,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.60639575647449662"/>
-          <c:y val="0.24876751971067093"/>
+          <c:y val="4.2463729189477816E-3"/>
           <c:w val="0.39360426182146108"/>
           <c:h val="6.3380725296661861E-2"/>
         </c:manualLayout>
@@ -13680,7 +13724,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9345.619999999999</c:v>
+                  <c:v>9345.6200000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4770</c:v>
@@ -14066,7 +14110,7 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7231.9999999999991</c:v>
+                  <c:v>7232</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1100</c:v>
@@ -23533,15 +23577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>68804</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>109575</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23613,7 +23657,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}" name="MÁQUINAS" displayName="MÁQUINAS" ref="A1:S85" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
-  <autoFilter ref="A1:S85" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}"/>
+  <autoFilter ref="A1:S85" xr:uid="{721DFAF5-07E2-4C34-9DA3-6DAA1EB10B39}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="PONTA GROSSA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S85">
     <sortCondition ref="H1:H85"/>
   </sortState>
@@ -23756,7 +23806,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}" name="PEDIDOS" displayName="PEDIDOS" ref="A1:L90" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
   <autoFilter ref="A1:L90" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L90">
-    <sortCondition ref="F1:F90"/>
+    <sortCondition ref="J1:J90"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{54382593-1F81-433D-9F93-B76C818187F0}" name="TIPO" dataDxfId="158"/>
@@ -25227,8 +25277,8 @@
   <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -25313,7 +25363,7 @@
       <c r="T1" s="64"/>
       <c r="U1" s="64"/>
     </row>
-    <row r="2" spans="1:21" ht="14.45">
+    <row r="2" spans="1:21" ht="14.45" hidden="1">
       <c r="A2" s="12" t="s">
         <v>148</v>
       </c>
@@ -25419,7 +25469,7 @@
 - *Ida e volta*: +/- 2:27h | 98km</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.45">
+    <row r="3" spans="1:21" ht="14.45" hidden="1">
       <c r="A3" s="12" t="s">
         <v>148</v>
       </c>
@@ -25525,7 +25575,7 @@
 - *Ida e volta*: +/- 2:52h | 115km</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45">
+    <row r="4" spans="1:21" ht="14.45" hidden="1">
       <c r="A4" s="12" t="s">
         <v>148</v>
       </c>
@@ -25624,7 +25674,7 @@
 - *Ida e volta*: +/- 2:52h | 115km</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45">
+    <row r="5" spans="1:21" ht="14.45" hidden="1">
       <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
@@ -25723,7 +25773,7 @@
 - *Ida e volta*: +/- 3:45h | 150km</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45">
+    <row r="6" spans="1:21" ht="14.45" hidden="1">
       <c r="A6" s="12" t="s">
         <v>148</v>
       </c>
@@ -25822,7 +25872,7 @@
 - *Ida e volta*: +/- 4:18h | 172km</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45">
+    <row r="7" spans="1:21" ht="14.45" hidden="1">
       <c r="A7" s="12" t="s">
         <v>148</v>
       </c>
@@ -25921,7 +25971,7 @@
 - *Ida e volta*: +/- 4:18h | 172km</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45">
+    <row r="8" spans="1:21" ht="14.45" hidden="1">
       <c r="A8" s="12" t="s">
         <v>148</v>
       </c>
@@ -26220,7 +26270,7 @@
 - *Ida e volta*: +/- 1:24h | 56km</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45">
+    <row r="11" spans="1:21" ht="14.45" hidden="1">
       <c r="A11" s="12" t="s">
         <v>148</v>
       </c>
@@ -26519,7 +26569,7 @@
 - *Ida e volta*: +/- 0:33h | 22km</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" s="12" t="s">
         <v>148</v>
       </c>
@@ -26618,7 +26668,7 @@
 - *Ida e volta*: +/- 4:00h | 160km</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" hidden="1">
       <c r="A15" s="12" t="s">
         <v>148</v>
       </c>
@@ -26915,7 +26965,7 @@
 - *Ida e volta*: +/- 3:45h | 150km</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" hidden="1">
       <c r="A18" s="12" t="s">
         <v>148</v>
       </c>
@@ -27215,7 +27265,7 @@
 - *Ida e volta*: +/- 4:22h | 175km</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" hidden="1">
       <c r="A21" s="12" t="s">
         <v>148</v>
       </c>
@@ -27314,7 +27364,7 @@
 - *Ida e volta*: +/- 8:15h | 330km</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" hidden="1">
       <c r="A22" s="12" t="s">
         <v>148</v>
       </c>
@@ -27414,7 +27464,7 @@
 - *Ida e volta*: +/- 8:07h | 325km</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" hidden="1">
       <c r="A23" s="12" t="s">
         <v>148</v>
       </c>
@@ -27514,7 +27564,7 @@
 - *Ida e volta*: +/- 6:22h | 255km</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" hidden="1">
       <c r="A24" s="12" t="s">
         <v>148</v>
       </c>
@@ -27614,7 +27664,7 @@
 - *Ida e volta*: +/- 6:22h | 255km</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25" s="12" t="s">
         <v>148</v>
       </c>
@@ -27714,7 +27764,7 @@
 - *Ida e volta*: +/- 8:07h | 325km</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" hidden="1">
       <c r="A26" s="12" t="s">
         <v>148</v>
       </c>
@@ -27813,7 +27863,7 @@
 - *Ida e volta*: +/- 1:57h | 78km</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" hidden="1">
       <c r="A27" s="12" t="s">
         <v>226</v>
       </c>
@@ -27912,7 +27962,7 @@
 - *Ida e volta*: +/- 12:30h | 500km</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" hidden="1">
       <c r="A28" s="12" t="s">
         <v>226</v>
       </c>
@@ -28211,7 +28261,7 @@
 - *Ida e volta*: +/- 2:30h | 100km</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" hidden="1">
       <c r="A31" s="12" t="s">
         <v>148</v>
       </c>
@@ -28311,7 +28361,7 @@
 - *Ida e volta*: +/- 2:37h | 105km</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" hidden="1">
       <c r="A32" s="12" t="s">
         <v>148</v>
       </c>
@@ -28440,7 +28490,7 @@
 - *Ida e volta*: +/- 1:48h | 72km</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" hidden="1">
       <c r="A33" s="12" t="s">
         <v>148</v>
       </c>
@@ -28547,7 +28597,7 @@
 - *Ida e volta*: +/- 2:52h | 115km</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" hidden="1">
       <c r="A34" s="12" t="s">
         <v>148</v>
       </c>
@@ -28646,7 +28696,7 @@
 - *Ida e volta*: +/- 2:28h | 99km</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" hidden="1">
       <c r="A35" s="143" t="s">
         <v>148</v>
       </c>
@@ -28745,7 +28795,7 @@
 - *Ida e volta*: +/- 2:06h | 84km</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" hidden="1">
       <c r="A36" s="143" t="s">
         <v>148</v>
       </c>
@@ -28844,7 +28894,7 @@
 - *Ida e volta*: +/- 2:39h | 106km</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" hidden="1">
       <c r="A37" s="143" t="s">
         <v>148</v>
       </c>
@@ -28943,7 +28993,7 @@
 - *Ida e volta*: +/- 4:09h | 166km</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" hidden="1">
       <c r="A38" s="12" t="s">
         <v>148</v>
       </c>
@@ -29049,7 +29099,7 @@
 - *Ida e volta*: +/- 10:30h | 420km</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" hidden="1">
       <c r="A39" s="12" t="s">
         <v>226</v>
       </c>
@@ -29149,7 +29199,7 @@
 - *Ida e volta*: +/- 7:39h | 306km</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" hidden="1">
       <c r="A40" s="12" t="s">
         <v>226</v>
       </c>
@@ -29249,7 +29299,7 @@
 - *Ida e volta*: +/- 7:39h | 306km</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.45">
+    <row r="41" spans="1:21" ht="14.45" hidden="1">
       <c r="A41" s="12" t="s">
         <v>226</v>
       </c>
@@ -29348,7 +29398,7 @@
 - *Ida e volta*: +/- 11:57h | 478km</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="14.45">
+    <row r="42" spans="1:21" ht="14.45" hidden="1">
       <c r="A42" s="12" t="s">
         <v>226</v>
       </c>
@@ -29447,7 +29497,7 @@
 - *Ida e volta*: +/- 11:57h | 478km</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.45">
+    <row r="43" spans="1:21" ht="14.45" hidden="1">
       <c r="A43" s="12" t="s">
         <v>226</v>
       </c>
@@ -29547,7 +29597,7 @@
 - *Ida e volta*: +/- 7:39h | 306km</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.45">
+    <row r="44" spans="1:21" ht="14.45" hidden="1">
       <c r="A44" s="12" t="s">
         <v>226</v>
       </c>
@@ -29647,7 +29697,7 @@
 - *Ida e volta*: +/- 7:39h | 306km</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" hidden="1">
       <c r="A45" s="12" t="s">
         <v>317</v>
       </c>
@@ -29744,7 +29794,7 @@
 - *Ida e volta*: +/- 18:19h | 733km</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" hidden="1">
       <c r="A46" s="12" t="s">
         <v>323</v>
       </c>
@@ -29838,7 +29888,7 @@
 - *Ida e volta*: +/- 5:00h | 200km</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" hidden="1">
       <c r="A47" s="12" t="s">
         <v>323</v>
       </c>
@@ -29933,7 +29983,7 @@
 - *Ida e volta*: +/- 4:40h | 187km</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" hidden="1">
       <c r="A48" s="12" t="s">
         <v>330</v>
       </c>
@@ -30030,7 +30080,7 @@
 - *Ida e volta*: +/- 11:57h | 478km</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" hidden="1">
       <c r="A49" s="12" t="s">
         <v>330</v>
       </c>
@@ -30134,7 +30184,7 @@
 - *Ida e volta*: +/- 11:57h | 478km</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" hidden="1">
       <c r="A50" s="12" t="s">
         <v>331</v>
       </c>
@@ -30231,7 +30281,7 @@
 - *Ida e volta*: +/- 0:33h | 22km</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" hidden="1">
       <c r="A51" s="12" t="s">
         <v>331</v>
       </c>
@@ -30328,7 +30378,7 @@
 - *Ida e volta*: +/- 0:33h | 22km</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" hidden="1">
       <c r="A52" s="12" t="s">
         <v>331</v>
       </c>
@@ -30432,7 +30482,7 @@
 - *Ida e volta*: +/- 0:33h | 22km</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" hidden="1">
       <c r="A53" s="12" t="s">
         <v>331</v>
       </c>
@@ -30536,7 +30586,7 @@
 - *Ida e volta*: +/- 0:33h | 22km</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" hidden="1">
       <c r="A54" s="12" t="s">
         <v>331</v>
       </c>
@@ -30640,7 +30690,7 @@
 - *Ida e volta*: +/- 0:33h | 22km</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" hidden="1">
       <c r="A55" s="12" t="s">
         <v>331</v>
       </c>
@@ -31619,7 +31669,7 @@
 - *Ida e volta*: +/- 12:30h | 500km</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" hidden="1">
       <c r="A65" s="12" t="s">
         <v>346</v>
       </c>
@@ -31713,7 +31763,7 @@
 - *Ida e volta*: +/- 5:00h | 200km</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" hidden="1">
       <c r="A66" s="12" t="s">
         <v>346</v>
       </c>
@@ -32103,7 +32153,7 @@
 - *Ida e volta*: +/- 3:45h | 150km</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" hidden="1">
       <c r="A70" s="12" t="s">
         <v>346</v>
       </c>
@@ -32201,7 +32251,7 @@
 - *Ida e volta*: +/- 3:33h | 142km</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" hidden="1">
       <c r="A71" s="12" t="s">
         <v>346</v>
       </c>
@@ -32299,7 +32349,7 @@
 - *Ida e volta*: +/- 3:33h | 142km</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" hidden="1">
       <c r="A72" s="12" t="s">
         <v>346</v>
       </c>
@@ -32396,7 +32446,7 @@
 - *Ida e volta*: +/- 3:33h | 142km</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" hidden="1">
       <c r="A73" s="12" t="s">
         <v>346</v>
       </c>
@@ -32493,7 +32543,7 @@
 - *Ida e volta*: +/- 3:33h | 142km</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" hidden="1">
       <c r="A74" s="12" t="s">
         <v>346</v>
       </c>
@@ -32591,7 +32641,7 @@
 - *Ida e volta*: +/- 7:09h | 286km</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" hidden="1">
       <c r="A75" s="12" t="s">
         <v>346</v>
       </c>
@@ -32689,7 +32739,7 @@
 - *Ida e volta*: +/- 7:09h | 286km</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" hidden="1">
       <c r="A76" s="12" t="s">
         <v>346</v>
       </c>
@@ -32786,7 +32836,7 @@
 - *Ida e volta*: +/- 7:09h | 286km</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" hidden="1">
       <c r="A77" s="12" t="s">
         <v>346</v>
       </c>
@@ -33791,8 +33841,8 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -33857,305 +33907,359 @@
         <v>402</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C2" s="16">
-        <v>45974</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>403</v>
+        <v>45971</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>_xlfn.XLOOKUP(F2,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>076669324</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G2" s="14">
-        <v>1000</v>
+        <v>133.13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J2" s="16">
+        <v>45964</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L2" s="15" t="str">
-        <f t="shared" ref="L2:L33" si="0">TEXT($C2,"dd.mm") &amp; " -Ped " &amp; D2 &amp; " -" &amp; F2 &amp; " -R$" &amp; G2 &amp; IF(LEN(TRIM(I2))=0, "", " -NF " &amp; TRIM(I2))</f>
-        <v>13.11 -Ped 047572 -AGROMAQ -TR MAQ -R$1000</v>
+        <f>TEXT($C2,"dd.mm") &amp; " -Ped " &amp; D2 &amp; " -" &amp; F2 &amp; " -R$" &amp; G2 &amp; IF(LEN(TRIM(I2))=0, "", " -NF " &amp; TRIM(I2))</f>
+        <v>10.11 -Ped 047116 -DER - AET VEICULOS -R$133,13 -NF BOLETO</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.45">
       <c r="A3" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C3" s="16">
-        <v>45975</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>408</v>
+        <v>45966</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>_xlfn.XLOOKUP(F3,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>078206513</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G3" s="14">
-        <v>300</v>
+        <v>156.18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K3" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J3" s="16">
+        <v>45964</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>412</v>
+      </c>
       <c r="L3" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$300</v>
+        <f>TEXT($C3,"dd.mm") &amp; " -Ped " &amp; D3 &amp; " -" &amp; F3 &amp; " -R$" &amp; G3 &amp; IF(LEN(TRIM(I3))=0, "", " -NF " &amp; TRIM(I3))</f>
+        <v>05.11 -Ped 047117 -DETRAN PR -R$156,18 -NF BOLETO</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45">
       <c r="A4" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C4" s="16">
-        <v>45975</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>408</v>
+        <v>45966</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>_xlfn.XLOOKUP(F4,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>078206513</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G4" s="14">
-        <v>300</v>
+        <v>94.61</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K4" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J4" s="16">
+        <v>45964</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>413</v>
+      </c>
       <c r="L4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$300</v>
+        <f>TEXT($C4,"dd.mm") &amp; " -Ped " &amp; D4 &amp; " -" &amp; F4 &amp; " -R$" &amp; G4 &amp; IF(LEN(TRIM(I4))=0, "", " -NF " &amp; TRIM(I4))</f>
+        <v>05.11 -Ped 047117 -DETRAN PR -R$94,61 -NF BOLETO</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.45">
       <c r="A5" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C5" s="16">
-        <v>45975</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>408</v>
+        <v>45965</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>_xlfn.XLOOKUP(F5,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>004892707</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="G5" s="14">
-        <v>800</v>
+        <v>87.62</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K5" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" s="16">
+        <v>45965</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>416</v>
+      </c>
       <c r="L5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$800</v>
+        <f>TEXT($C5,"dd.mm") &amp; " -Ped " &amp; D5 &amp; " -" &amp; F5 &amp; " -R$" &amp; G5 &amp; IF(LEN(TRIM(I5))=0, "", " -NF " &amp; TRIM(I5))</f>
+        <v>04.11 -Ped 047178 -DNIT -R$87,62 -NF BOLETO</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.45">
       <c r="A6" s="4" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="16">
-        <v>45975</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>408</v>
+        <v>45964</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>_xlfn.XLOOKUP(F6,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>027525938</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G6" s="14">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K6" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2967</v>
+      </c>
+      <c r="J6" s="16">
+        <v>45965</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>420</v>
+      </c>
       <c r="L6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$800</v>
+        <f>TEXT($C6,"dd.mm") &amp; " -Ped " &amp; D6 &amp; " -" &amp; F6 &amp; " -R$" &amp; G6 &amp; IF(LEN(TRIM(I6))=0, "", " -NF " &amp; TRIM(I6))</f>
+        <v>03.11 -Ped 047186 -ESC -TR PEÇA -R$1100 -NF 2967</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.45">
       <c r="A7" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C7" s="16">
-        <v>45975</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>408</v>
+        <v>45964</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>_xlfn.XLOOKUP(F7,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>027525938</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G7" s="14">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K7" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2965</v>
+      </c>
+      <c r="J7" s="16">
+        <v>45965</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>420</v>
+      </c>
       <c r="L7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$400</v>
+        <f>TEXT($C7,"dd.mm") &amp; " -Ped " &amp; D7 &amp; " -" &amp; F7 &amp; " -R$" &amp; G7 &amp; IF(LEN(TRIM(I7))=0, "", " -NF " &amp; TRIM(I7))</f>
+        <v>03.11 -Ped 047187 -ESC -TR PEÇA -R$550 -NF 2965</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.45">
       <c r="A8" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C8" s="16">
-        <v>45975</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>408</v>
+        <v>45964</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>_xlfn.XLOOKUP(F8,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>019320206</v>
+        <v>027525938</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G8" s="14">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K8" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2964</v>
+      </c>
+      <c r="J8" s="16">
+        <v>45965</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>420</v>
+      </c>
       <c r="L8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$400</v>
+        <f>TEXT($C8,"dd.mm") &amp; " -Ped " &amp; D8 &amp; " -" &amp; F8 &amp; " -R$" &amp; G8 &amp; IF(LEN(TRIM(I8))=0, "", " -NF " &amp; TRIM(I8))</f>
+        <v>03.11 -Ped 047188 -ESC -TR PEÇA -R$600 -NF 2964</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.45">
       <c r="A9" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C9" s="16">
-        <v>45967</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>413</v>
+        <v>45964</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>_xlfn.XLOOKUP(F9,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>050435638</v>
+        <v>027525938</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G9" s="14">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I9" s="15">
-        <v>1412</v>
+        <v>2963</v>
       </c>
       <c r="J9" s="16">
-        <v>45973</v>
+        <v>45965</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>06.11 -Ped 047553 -ANDREANI - MT -R$500 -NF 1412</v>
+        <f>TEXT($C9,"dd.mm") &amp; " -Ped " &amp; D9 &amp; " -" &amp; F9 &amp; " -R$" &amp; G9 &amp; IF(LEN(TRIM(I9))=0, "", " -NF " &amp; TRIM(I9))</f>
+        <v>03.11 -Ped 047189 -ESC -TR PEÇA -R$550 -NF 2963</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.45">
       <c r="A10" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="C10" s="16">
-        <v>45967</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>413</v>
+        <v>45964</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>_xlfn.XLOOKUP(F10,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>050435638</v>
+        <v>027525938</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G10" s="14">
-        <v>397</v>
+        <v>850</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I10" s="15">
-        <v>189</v>
+        <v>2962</v>
       </c>
       <c r="J10" s="16">
-        <v>45973</v>
+        <v>45965</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>06.11 -Ped 047553 -ANDREANI - MT -R$397 -NF 189</v>
+        <f>TEXT($C10,"dd.mm") &amp; " -Ped " &amp; D10 &amp; " -" &amp; F10 &amp; " -R$" &amp; G10 &amp; IF(LEN(TRIM(I10))=0, "", " -NF " &amp; TRIM(I10))</f>
+        <v>03.11 -Ped 047190 -ESC -TR PEÇA -R$850 -NF 2962</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.45">
@@ -34163,37 +34267,39 @@
         <v>417</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="C11" s="16">
         <v>45964</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>_xlfn.XLOOKUP(F11,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>061196032</v>
+        <v>027525938</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>419</v>
       </c>
       <c r="G11" s="14">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I11" s="15">
-        <v>48</v>
+        <v>2969</v>
       </c>
       <c r="J11" s="16">
-        <v>45966</v>
-      </c>
-      <c r="K11" s="71"/>
+        <v>45965</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>420</v>
+      </c>
       <c r="L11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047258 -ANDREIA R. COURIER -R$200 -NF 48</v>
+        <f>TEXT($C11,"dd.mm") &amp; " -Ped " &amp; D11 &amp; " -" &amp; F11 &amp; " -R$" &amp; G11 &amp; IF(LEN(TRIM(I11))=0, "", " -NF " &amp; TRIM(I11))</f>
+        <v>03.11 -Ped 047192 -ESC -TR PEÇA -R$1100 -NF 2969</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.45">
@@ -34204,39 +34310,41 @@
         <v>372</v>
       </c>
       <c r="C12" s="16">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>_xlfn.XLOOKUP(F12,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>061196032</v>
+        <v>027525938</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>419</v>
       </c>
       <c r="G12" s="14">
-        <v>80</v>
+        <v>830</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I12" s="15">
-        <v>51</v>
+        <v>2968</v>
       </c>
       <c r="J12" s="16">
-        <v>45971</v>
-      </c>
-      <c r="K12" s="71"/>
+        <v>45965</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>420</v>
+      </c>
       <c r="L12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>04.11 -Ped 047437 -ANDREIA R. COURIER -R$80 -NF 51</v>
+        <f>TEXT($C12,"dd.mm") &amp; " -Ped " &amp; D12 &amp; " -" &amp; F12 &amp; " -R$" &amp; G12 &amp; IF(LEN(TRIM(I12))=0, "", " -NF " &amp; TRIM(I12))</f>
+        <v>03.11 -Ped 047193 -ESC -TR PEÇA -R$830 -NF 2968</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.45">
       <c r="A13" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>372</v>
@@ -34245,1153 +34353,1177 @@
         <v>45964</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>_xlfn.XLOOKUP(F13,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>061196032</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="G13" s="14">
         <v>200</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>422</v>
+        <v>406</v>
+      </c>
+      <c r="I13" s="15">
+        <v>48</v>
       </c>
       <c r="J13" s="16">
-        <v>45972</v>
+        <v>45966</v>
       </c>
       <c r="K13" s="71"/>
       <c r="L13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047267 -ANDREIA R. COURIER -R$200 -NF FIN</v>
+        <f>TEXT($C13,"dd.mm") &amp; " -Ped " &amp; D13 &amp; " -" &amp; F13 &amp; " -R$" &amp; G13 &amp; IF(LEN(TRIM(I13))=0, "", " -NF " &amp; TRIM(I13))</f>
+        <v>03.11 -Ped 047258 -ANDREIA R. COURIER -R$200 -NF 48</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.45">
       <c r="A14" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="C14" s="16">
-        <v>45973</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>423</v>
+        <v>45965</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>_xlfn.XLOOKUP(F14,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>061196032</v>
+        <v>034154225</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G14" s="14">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I14" s="15">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="J14" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>12.11 -Ped 047687 -ANDREIA R. COURIER -R$70 -NF 54</v>
+        <f>TEXT($C14,"dd.mm") &amp; " -Ped " &amp; D14 &amp; " -" &amp; F14 &amp; " -R$" &amp; G14 &amp; IF(LEN(TRIM(I14))=0, "", " -NF " &amp; TRIM(I14))</f>
+        <v>04.11 -Ped 047199 -JOHN ELVIS COURIER -R$150 -NF 420</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.45">
       <c r="A15" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C15" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>426</v>
+        <v>45964</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>_xlfn.XLOOKUP(F15,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>049138592</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G15" s="14">
-        <v>884.29</v>
+        <v>1210</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I15" s="15">
-        <v>775</v>
+        <v>247</v>
       </c>
       <c r="J15" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 775</v>
+        <f>TEXT($C15,"dd.mm") &amp; " -Ped " &amp; D15 &amp; " -" &amp; F15 &amp; " -R$" &amp; G15 &amp; IF(LEN(TRIM(I15))=0, "", " -NF " &amp; TRIM(I15))</f>
+        <v>03.11 -Ped 047247 -DELTA MOTOS COURIER -R$1210 -NF 247</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.45">
       <c r="A16" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="C16" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>426</v>
+        <v>45966</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>_xlfn.XLOOKUP(F16,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>051496564</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G16" s="14">
-        <v>884.29</v>
+        <v>520</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I16" s="15">
-        <v>776</v>
+        <v>408</v>
       </c>
       <c r="J16" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 776</v>
+        <f>TEXT($C16,"dd.mm") &amp; " -Ped " &amp; D16 &amp; " -" &amp; F16 &amp; " -R$" &amp; G16 &amp; IF(LEN(TRIM(I16))=0, "", " -NF " &amp; TRIM(I16))</f>
+        <v>05.11 -Ped 047267 -MARCOS D. COURIER -R$520 -NF 408</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.45">
       <c r="A17" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C17" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>426</v>
+        <v>45966</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>_xlfn.XLOOKUP(F17,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>051496564</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G17" s="14">
-        <v>884.29</v>
+        <v>180</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I17" s="15">
-        <v>777</v>
+        <v>409</v>
       </c>
       <c r="J17" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="L17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 777</v>
+        <f>TEXT($C17,"dd.mm") &amp; " -Ped " &amp; D17 &amp; " -" &amp; F17 &amp; " -R$" &amp; G17 &amp; IF(LEN(TRIM(I17))=0, "", " -NF " &amp; TRIM(I17))</f>
+        <v>05.11 -Ped 047268 -MARCOS D. COURIER -R$180 -NF 409</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.45">
       <c r="A18" s="4" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="C18" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>426</v>
+        <v>45965</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>_xlfn.XLOOKUP(F18,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>032878844</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="G18" s="14">
-        <v>884.29</v>
+        <v>910</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I18" s="15">
-        <v>778</v>
+        <v>177</v>
       </c>
       <c r="J18" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="L18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 778</v>
+        <f>TEXT($C18,"dd.mm") &amp; " -Ped " &amp; D18 &amp; " -" &amp; F18 &amp; " -R$" &amp; G18 &amp; IF(LEN(TRIM(I18))=0, "", " -NF " &amp; TRIM(I18))</f>
+        <v>04.11 -Ped 047269 -STOSKI -TR MAQ -R$910 -NF 177</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.45">
       <c r="A19" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C19" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>426</v>
+        <v>45966</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>_xlfn.XLOOKUP(F19,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>080227796</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="G19" s="14">
-        <v>884.29</v>
+        <v>529.48</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I19" s="15">
-        <v>779</v>
+        <v>348407</v>
       </c>
       <c r="J19" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K19" s="71" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="L19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 779</v>
+        <f>TEXT($C19,"dd.mm") &amp; " -Ped " &amp; D19 &amp; " -" &amp; F19 &amp; " -R$" &amp; G19 &amp; IF(LEN(TRIM(I19))=0, "", " -NF " &amp; TRIM(I19))</f>
+        <v>05.11 -Ped 047348 -PRINCESA -TR PEÇA -R$529,48 -NF 348407</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.45">
       <c r="A20" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C20" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>426</v>
+        <v>45966</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>_xlfn.XLOOKUP(F20,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>080227796</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="G20" s="14">
-        <v>884.29</v>
+        <v>371.14</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I20" s="15">
-        <v>781</v>
+        <v>336939</v>
       </c>
       <c r="J20" s="16">
-        <v>45975</v>
+        <v>45967</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="L20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 781</v>
+        <f>TEXT($C20,"dd.mm") &amp; " -Ped " &amp; D20 &amp; " -" &amp; F20 &amp; " -R$" &amp; G20 &amp; IF(LEN(TRIM(I20))=0, "", " -NF " &amp; TRIM(I20))</f>
+        <v>05.11 -Ped 047348 -PRINCESA -TR PEÇA -R$371,14 -NF 336939</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.45">
       <c r="A21" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C21" s="16">
-        <v>45971</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>426</v>
+        <v>45964</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>_xlfn.XLOOKUP(F21,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>056953013</v>
+        <v>049138592</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G21" s="14">
-        <v>884.29</v>
+        <v>550</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I21" s="15">
-        <v>782</v>
+        <v>246</v>
       </c>
       <c r="J21" s="16">
-        <v>45975</v>
-      </c>
-      <c r="K21" s="71" t="s">
-        <v>428</v>
-      </c>
+        <v>45968</v>
+      </c>
+      <c r="K21" s="71"/>
       <c r="L21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 782</v>
+        <f>TEXT($C21,"dd.mm") &amp; " -Ped " &amp; D21 &amp; " -" &amp; F21 &amp; " -R$" &amp; G21 &amp; IF(LEN(TRIM(I21))=0, "", " -NF " &amp; TRIM(I21))</f>
+        <v>03.11 -Ped 047246 -DELTA MOTOS COURIER -R$550 -NF 246</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.45">
       <c r="A22" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="C22" s="16">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>_xlfn.XLOOKUP(F22,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>049138592</v>
+        <v>006914002</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="G22" s="14">
-        <v>1210</v>
+        <v>1295</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I22" s="15">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="J22" s="16">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="K22" s="71" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="L22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047247 -DELTA MOTOS COURIER -R$1210 -NF 247</v>
+        <f>TEXT($C22,"dd.mm") &amp; " -Ped " &amp; D22 &amp; " -" &amp; F22 &amp; " -R$" &amp; G22 &amp; IF(LEN(TRIM(I22))=0, "", " -NF " &amp; TRIM(I22))</f>
+        <v>04.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$1295 -NF 186</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.45">
       <c r="A23" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="C23" s="16">
-        <v>45964</v>
+        <v>45966</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>_xlfn.XLOOKUP(F23,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>049138592</v>
+        <v>006914002</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="G23" s="14">
-        <v>550</v>
+        <v>975</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I23" s="15">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="J23" s="16">
         <v>45968</v>
       </c>
-      <c r="K23" s="71"/>
+      <c r="K23" s="71" t="s">
+        <v>454</v>
+      </c>
       <c r="L23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047246 -DELTA MOTOS COURIER -R$550 -NF 246</v>
+        <f>TEXT($C23,"dd.mm") &amp; " -Ped " &amp; D23 &amp; " -" &amp; F23 &amp; " -R$" &amp; G23 &amp; IF(LEN(TRIM(I23))=0, "", " -NF " &amp; TRIM(I23))</f>
+        <v>05.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$975 -NF 186</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.45">
       <c r="A24" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="C24" s="16">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>_xlfn.XLOOKUP(F24,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>049138592</v>
+        <v>012772524</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="G24" s="14">
-        <v>180</v>
+        <v>1860</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I24" s="15">
-        <v>245</v>
+        <v>3300</v>
       </c>
       <c r="J24" s="16">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="L24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047233 -DELTA MOTOS COURIER -R$180 -NF 245</v>
+        <f>TEXT($C24,"dd.mm") &amp; " -Ped " &amp; D24 &amp; " -" &amp; F24 &amp; " -R$" &amp; G24 &amp; IF(LEN(TRIM(I24))=0, "", " -NF " &amp; TRIM(I24))</f>
+        <v>06.11 -Ped 047349 -UNIBOY COURIER -R$1860 -NF 3300</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.45">
       <c r="A25" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C25" s="16">
         <v>45964</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>_xlfn.XLOOKUP(F25,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>049138592</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G25" s="14">
-        <v>990</v>
+        <v>180</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I25" s="15">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J25" s="16">
-        <v>45970</v>
-      </c>
-      <c r="K25" s="71"/>
+        <v>45969</v>
+      </c>
+      <c r="K25" s="71" t="s">
+        <v>459</v>
+      </c>
       <c r="L25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047243 -DELTA MOTOS COURIER -R$990 -NF 244</v>
+        <f>TEXT($C25,"dd.mm") &amp; " -Ped " &amp; D25 &amp; " -" &amp; F25 &amp; " -R$" &amp; G25 &amp; IF(LEN(TRIM(I25))=0, "", " -NF " &amp; TRIM(I25))</f>
+        <v>03.11 -Ped 047233 -DELTA MOTOS COURIER -R$180 -NF 245</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.45">
       <c r="A26" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="C26" s="16">
         <v>45964</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>_xlfn.XLOOKUP(F26,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>049138592</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G26" s="14">
-        <v>245</v>
+        <v>990</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I26" s="15">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J26" s="16">
-        <v>45971</v>
+        <v>45970</v>
       </c>
       <c r="K26" s="71"/>
       <c r="L26" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047244 -DELTA MOTOS COURIER -R$245 -NF 243</v>
+        <f>TEXT($C26,"dd.mm") &amp; " -Ped " &amp; D26 &amp; " -" &amp; F26 &amp; " -R$" &amp; G26 &amp; IF(LEN(TRIM(I26))=0, "", " -NF " &amp; TRIM(I26))</f>
+        <v>03.11 -Ped 047243 -DELTA MOTOS COURIER -R$990 -NF 244</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.45">
       <c r="A27" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C27" s="16">
         <v>45964</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>_xlfn.XLOOKUP(F27,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>049138592</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G27" s="14">
-        <v>8245</v>
+        <v>245</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I27" s="15">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J27" s="16">
-        <v>45972</v>
+        <v>45971</v>
       </c>
       <c r="K27" s="71"/>
       <c r="L27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047249 -DELTA MOTOS COURIER -R$8245 -NF 242</v>
+        <f>TEXT($C27,"dd.mm") &amp; " -Ped " &amp; D27 &amp; " -" &amp; F27 &amp; " -R$" &amp; G27 &amp; IF(LEN(TRIM(I27))=0, "", " -NF " &amp; TRIM(I27))</f>
+        <v>03.11 -Ped 047244 -DELTA MOTOS COURIER -R$245 -NF 243</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.45">
       <c r="A28" s="4" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C28" s="16">
-        <v>45971</v>
+        <v>45965</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>_xlfn.XLOOKUP(F28,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>076669324</v>
+        <v>061196032</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G28" s="14">
-        <v>133.13</v>
+        <v>80</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>442</v>
+        <v>406</v>
+      </c>
+      <c r="I28" s="15">
+        <v>51</v>
       </c>
       <c r="J28" s="16">
-        <v>45964</v>
-      </c>
-      <c r="K28" s="71" t="s">
-        <v>443</v>
-      </c>
+        <v>45971</v>
+      </c>
+      <c r="K28" s="71"/>
       <c r="L28" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>10.11 -Ped 047116 -DER - AET VEICULOS -R$133,13 -NF BOLETO</v>
+        <f>TEXT($C28,"dd.mm") &amp; " -Ped " &amp; D28 &amp; " -" &amp; F28 &amp; " -R$" &amp; G28 &amp; IF(LEN(TRIM(I28))=0, "", " -NF " &amp; TRIM(I28))</f>
+        <v>04.11 -Ped 047437 -ANDREIA R. COURIER -R$80 -NF 51</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.45">
       <c r="A29" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C29" s="16">
-        <v>45966</v>
+        <v>45964</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>_xlfn.XLOOKUP(F29,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>078206513</v>
+        <v>049138592</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G29" s="14">
-        <v>156.18</v>
+        <v>8245</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>442</v>
+        <v>406</v>
+      </c>
+      <c r="I29" s="15">
+        <v>242</v>
       </c>
       <c r="J29" s="16">
-        <v>45964</v>
-      </c>
-      <c r="K29" s="71" t="s">
-        <v>447</v>
-      </c>
+        <v>45972</v>
+      </c>
+      <c r="K29" s="71"/>
       <c r="L29" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 -Ped 047117 -DETRAN PR -R$156,18 -NF BOLETO</v>
+        <f>TEXT($C29,"dd.mm") &amp; " -Ped " &amp; D29 &amp; " -" &amp; F29 &amp; " -R$" &amp; G29 &amp; IF(LEN(TRIM(I29))=0, "", " -NF " &amp; TRIM(I29))</f>
+        <v>03.11 -Ped 047249 -DELTA MOTOS COURIER -R$8245 -NF 242</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.45">
       <c r="A30" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C30" s="16">
-        <v>45966</v>
+        <v>45964</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>_xlfn.XLOOKUP(F30,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>078206513</v>
+        <v>061196032</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G30" s="14">
-        <v>94.61</v>
+        <v>200</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="J30" s="16">
-        <v>45964</v>
-      </c>
-      <c r="K30" s="71" t="s">
-        <v>448</v>
-      </c>
+        <v>45972</v>
+      </c>
+      <c r="K30" s="71"/>
       <c r="L30" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>05.11 -Ped 047117 -DETRAN PR -R$94,61 -NF BOLETO</v>
+        <f>TEXT($C30,"dd.mm") &amp; " -Ped " &amp; D30 &amp; " -" &amp; F30 &amp; " -R$" &amp; G30 &amp; IF(LEN(TRIM(I30))=0, "", " -NF " &amp; TRIM(I30))</f>
+        <v>03.11 -Ped 047267 -ANDREIA R. COURIER -R$200 -NF FIN</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.45">
       <c r="A31" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C31" s="16">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>_xlfn.XLOOKUP(F31,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>004892707</v>
+        <v>010273940</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="G31" s="14">
-        <v>87.62</v>
+        <v>2780</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>442</v>
+        <v>406</v>
+      </c>
+      <c r="I31" s="15">
+        <v>2708</v>
       </c>
       <c r="J31" s="16">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="L31" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>04.11 -Ped 047178 -DNIT -R$87,62 -NF BOLETO</v>
+        <f>TEXT($C31,"dd.mm") &amp; " -Ped " &amp; D31 &amp; " -" &amp; F31 &amp; " -R$" &amp; G31 &amp; IF(LEN(TRIM(I31))=0, "", " -NF " &amp; TRIM(I31))</f>
+        <v>07.11 -Ped 047383 -SERIE4 - MT 1 -R$2780 -NF 2708</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.45">
       <c r="A32" s="4" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C32" s="16">
-        <v>45964</v>
+        <v>45968</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>_xlfn.XLOOKUP(F32,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>010273940</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="G32" s="14">
-        <v>1100</v>
+        <v>840</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I32" s="15">
-        <v>2967</v>
+        <v>2374</v>
       </c>
       <c r="J32" s="16">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="L32" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047186 -ESC -TR PEÇA -R$1100 -NF 2967</v>
+        <f>TEXT($C32,"dd.mm") &amp; " -Ped " &amp; D32 &amp; " -" &amp; F32 &amp; " -R$" &amp; G32 &amp; IF(LEN(TRIM(I32))=0, "", " -NF " &amp; TRIM(I32))</f>
+        <v>07.11 -Ped 047383 -SERIE4 - MT 1 -R$840 -NF 2374</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.45">
       <c r="A33" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="C33" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>455</v>
+        <v>45965</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>469</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>_xlfn.XLOOKUP(F33,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>051496564</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G33" s="14">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I33" s="15">
-        <v>2965</v>
+        <v>420</v>
       </c>
       <c r="J33" s="16">
-        <v>45965</v>
+        <v>45973</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="L33" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>03.11 -Ped 047187 -ESC -TR PEÇA -R$550 -NF 2965</v>
+        <f>TEXT($C33,"dd.mm") &amp; " -Ped " &amp; D33 &amp; " -" &amp; F33 &amp; " -R$" &amp; G33 &amp; IF(LEN(TRIM(I33))=0, "", " -NF " &amp; TRIM(I33))</f>
+        <v>04.11 -Ped 047525 -MARCOS D. COURIER -R$400 -NF 420</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.45">
       <c r="A34" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C34" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>456</v>
+        <v>45971</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>469</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>_xlfn.XLOOKUP(F34,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>051496564</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G34" s="14">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I34" s="15">
-        <v>2964</v>
+        <v>420</v>
       </c>
       <c r="J34" s="16">
-        <v>45965</v>
+        <v>45973</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="L34" s="15" t="str">
-        <f t="shared" ref="L34:L65" si="1">TEXT($C34,"dd.mm") &amp; " -Ped " &amp; D34 &amp; " -" &amp; F34 &amp; " -R$" &amp; G34 &amp; IF(LEN(TRIM(I34))=0, "", " -NF " &amp; TRIM(I34))</f>
-        <v>03.11 -Ped 047188 -ESC -TR PEÇA -R$600 -NF 2964</v>
+        <f>TEXT($C34,"dd.mm") &amp; " -Ped " &amp; D34 &amp; " -" &amp; F34 &amp; " -R$" &amp; G34 &amp; IF(LEN(TRIM(I34))=0, "", " -NF " &amp; TRIM(I34))</f>
+        <v>10.11 -Ped 047525 -MARCOS D. COURIER -R$250 -NF 420</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.45">
       <c r="A35" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C35" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>457</v>
+        <v>45968</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>472</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>_xlfn.XLOOKUP(F35,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>051496564</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G35" s="14">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I35" s="15">
-        <v>2963</v>
+        <v>421</v>
       </c>
       <c r="J35" s="16">
-        <v>45965</v>
+        <v>45973</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="L35" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047189 -ESC -TR PEÇA -R$550 -NF 2963</v>
+        <f>TEXT($C35,"dd.mm") &amp; " -Ped " &amp; D35 &amp; " -" &amp; F35 &amp; " -R$" &amp; G35 &amp; IF(LEN(TRIM(I35))=0, "", " -NF " &amp; TRIM(I35))</f>
+        <v>07.11 -Ped 047527 -MARCOS D. COURIER -R$420 -NF 421</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.45">
       <c r="A36" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="C36" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>458</v>
+        <v>45971</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>474</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>_xlfn.XLOOKUP(F36,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>031370636</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="G36" s="14">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I36" s="15">
-        <v>2962</v>
+        <v>10</v>
       </c>
       <c r="J36" s="16">
-        <v>45965</v>
-      </c>
-      <c r="K36" s="71" t="s">
-        <v>454</v>
-      </c>
+        <v>45973</v>
+      </c>
+      <c r="K36" s="71"/>
       <c r="L36" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047190 -ESC -TR PEÇA -R$850 -NF 2962</v>
+        <f>TEXT($C36,"dd.mm") &amp; " -Ped " &amp; D36 &amp; " -" &amp; F36 &amp; " -R$" &amp; G36 &amp; IF(LEN(TRIM(I36))=0, "", " -NF " &amp; TRIM(I36))</f>
+        <v>10.11 -Ped 047550 -JORGE LUIZ 2 COURIER -R$700 -NF 10</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.45">
       <c r="A37" s="4" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C37" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>459</v>
+        <v>45967</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>476</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>_xlfn.XLOOKUP(F37,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>050435638</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="G37" s="14">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I37" s="15">
-        <v>2969</v>
+        <v>1412</v>
       </c>
       <c r="J37" s="16">
-        <v>45965</v>
+        <v>45973</v>
       </c>
       <c r="K37" s="71" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="L37" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047192 -ESC -TR PEÇA -R$1100 -NF 2969</v>
+        <f>TEXT($C37,"dd.mm") &amp; " -Ped " &amp; D37 &amp; " -" &amp; F37 &amp; " -R$" &amp; G37 &amp; IF(LEN(TRIM(I37))=0, "", " -NF " &amp; TRIM(I37))</f>
+        <v>06.11 -Ped 047553 -ANDREANI - MT -R$500 -NF 1412</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.45">
       <c r="A38" s="4" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="C38" s="16">
-        <v>45964</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>460</v>
+        <v>45967</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>476</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>_xlfn.XLOOKUP(F38,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>027525938</v>
+        <v>050435638</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="G38" s="14">
-        <v>830</v>
+        <v>397</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I38" s="15">
-        <v>2968</v>
+        <v>189</v>
       </c>
       <c r="J38" s="16">
-        <v>45965</v>
+        <v>45973</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="L38" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047193 -ESC -TR PEÇA -R$830 -NF 2968</v>
+        <f>TEXT($C38,"dd.mm") &amp; " -Ped " &amp; D38 &amp; " -" &amp; F38 &amp; " -R$" &amp; G38 &amp; IF(LEN(TRIM(I38))=0, "", " -NF " &amp; TRIM(I38))</f>
+        <v>06.11 -Ped 047553 -ANDREANI - MT -R$397 -NF 189</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.45">
       <c r="A39" s="4" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="C39" s="16">
-        <v>45962</v>
+        <v>45972</v>
       </c>
       <c r="D39" s="72" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>_xlfn.XLOOKUP(F39,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>046304055</v>
+        <v>059376166</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="G39" s="14">
-        <v>500</v>
+        <v>2390</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K39" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I39" s="15">
+        <v>155</v>
+      </c>
+      <c r="J39" s="16">
+        <v>45974</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>457</v>
+      </c>
       <c r="L39" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$500</v>
+        <f>TEXT($C39,"dd.mm") &amp; " -Ped " &amp; D39 &amp; " -" &amp; F39 &amp; " -R$" &amp; G39 &amp; IF(LEN(TRIM(I39))=0, "", " -NF " &amp; TRIM(I39))</f>
+        <v>11.11 -Ped 047685 -JOSEAMILTON1 COURIER -R$2390 -NF 155</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.45">
       <c r="A40" s="4" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>372</v>
       </c>
       <c r="C40" s="16">
-        <v>45962</v>
+        <v>45973</v>
       </c>
       <c r="D40" s="72" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>_xlfn.XLOOKUP(F40,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>046304055</v>
+        <v>061196032</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="G40" s="14">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K40" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I40" s="15">
+        <v>54</v>
+      </c>
+      <c r="J40" s="16">
+        <v>45975</v>
+      </c>
+      <c r="K40" s="71" t="s">
+        <v>457</v>
+      </c>
       <c r="L40" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$300</v>
+        <f>TEXT($C40,"dd.mm") &amp; " -Ped " &amp; D40 &amp; " -" &amp; F40 &amp; " -R$" &amp; G40 &amp; IF(LEN(TRIM(I40))=0, "", " -NF " &amp; TRIM(I40))</f>
+        <v>12.11 -Ped 047687 -ANDREIA R. COURIER -R$70 -NF 54</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.45">
       <c r="A41" s="4" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C41" s="16">
-        <v>45962</v>
+        <v>45975</v>
       </c>
       <c r="D41" s="72" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>_xlfn.XLOOKUP(F41,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>046304055</v>
+        <v>006914002</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G41" s="14">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K41" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I41" s="15">
+        <v>190</v>
+      </c>
+      <c r="J41" s="16">
+        <v>45975</v>
+      </c>
+      <c r="K41" s="71" t="s">
+        <v>485</v>
+      </c>
       <c r="L41" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$300</v>
+        <f>TEXT($C41,"dd.mm") &amp; " -Ped " &amp; D41 &amp; " -" &amp; F41 &amp; " -R$" &amp; G41 &amp; IF(LEN(TRIM(I41))=0, "", " -NF " &amp; TRIM(I41))</f>
+        <v>14.11 -Ped 047738 -TRANSCAPITINGA-TR MAQ -R$800 -NF 190</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.45">
       <c r="A42" s="4" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C42" s="16">
-        <v>45974</v>
+        <v>45968</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>_xlfn.XLOOKUP(F42,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>061028125</v>
+        <v>080227796</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="G42" s="14">
-        <v>270</v>
+        <v>345.91</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="I42" s="15">
+        <v>352387</v>
+      </c>
+      <c r="J42" s="16">
+        <v>45975</v>
       </c>
       <c r="K42" s="71" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="L42" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>13.11 -Ped 047758 -INCOMESPMUNCK -TR MAQ -R$270</v>
+        <f>TEXT($C42,"dd.mm") &amp; " -Ped " &amp; D42 &amp; " -" &amp; F42 &amp; " -R$" &amp; G42 &amp; IF(LEN(TRIM(I42))=0, "", " -NF " &amp; TRIM(I42))</f>
+        <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$345,91 -NF 352387</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.45">
@@ -35399,39 +35531,39 @@
         <v>417</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="C43" s="16">
-        <v>45965</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>467</v>
+        <v>45968</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>486</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>_xlfn.XLOOKUP(F43,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>034154225</v>
+        <v>080227796</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="G43" s="14">
-        <v>150</v>
+        <v>49.74</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I43" s="15">
-        <v>420</v>
+        <v>352389</v>
       </c>
       <c r="J43" s="16">
-        <v>45967</v>
+        <v>45975</v>
       </c>
       <c r="K43" s="71" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="L43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>04.11 -Ped 047199 -JOHN ELVIS COURIER -R$150 -NF 420</v>
+        <f>TEXT($C43,"dd.mm") &amp; " -Ped " &amp; D43 &amp; " -" &amp; F43 &amp; " -R$" &amp; G43 &amp; IF(LEN(TRIM(I43))=0, "", " -NF " &amp; TRIM(I43))</f>
+        <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$49,74 -NF 352389</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.45">
@@ -35439,37 +35571,39 @@
         <v>417</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="C44" s="16">
-        <v>45971</v>
+        <v>45968</v>
       </c>
       <c r="D44" s="72" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>_xlfn.XLOOKUP(F44,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>031370636</v>
+        <v>080227796</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="G44" s="14">
-        <v>700</v>
+        <v>46.32</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I44" s="15">
-        <v>10</v>
+        <v>355838</v>
       </c>
       <c r="J44" s="16">
-        <v>45973</v>
-      </c>
-      <c r="K44" s="71"/>
+        <v>45975</v>
+      </c>
+      <c r="K44" s="71" t="s">
+        <v>488</v>
+      </c>
       <c r="L44" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>10.11 -Ped 047550 -JORGE LUIZ 2 COURIER -R$700 -NF 10</v>
+        <f>TEXT($C44,"dd.mm") &amp; " -Ped " &amp; D44 &amp; " -" &amp; F44 &amp; " -R$" &amp; G44 &amp; IF(LEN(TRIM(I44))=0, "", " -NF " &amp; TRIM(I44))</f>
+        <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$46,32 -NF 355838</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.45">
@@ -35477,33 +35611,39 @@
         <v>417</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="C45" s="16">
-        <v>45966</v>
+        <v>45971</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="E45" s="1" t="str">
         <f>_xlfn.XLOOKUP(F45,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>031370636</v>
+        <v>056953013</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="G45" s="14">
-        <v>180</v>
+        <v>884.29</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="I45" s="15">
+        <v>775</v>
+      </c>
+      <c r="J45" s="16">
+        <v>45975</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="L45" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>05.11 -Ped 047328 -JORGE LUIZ 2 COURIER -R$180</v>
+        <f>TEXT($C45,"dd.mm") &amp; " -Ped " &amp; D45 &amp; " -" &amp; F45 &amp; " -R$" &amp; G45 &amp; IF(LEN(TRIM(I45))=0, "", " -NF " &amp; TRIM(I45))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 775</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.45">
@@ -35511,71 +35651,79 @@
         <v>417</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="C46" s="16">
-        <v>45972</v>
+        <v>45971</v>
       </c>
       <c r="D46" s="72" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>_xlfn.XLOOKUP(F46,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>059376166</v>
+        <v>056953013</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="G46" s="14">
-        <v>2390</v>
+        <v>884.29</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I46" s="15">
-        <v>155</v>
+        <v>776</v>
       </c>
       <c r="J46" s="16">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="L46" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>11.11 -Ped 047685 -JOSEAMILTON1 COURIER -R$2390 -NF 155</v>
+        <f>TEXT($C46,"dd.mm") &amp; " -Ped " &amp; D46 &amp; " -" &amp; F46 &amp; " -R$" &amp; G46 &amp; IF(LEN(TRIM(I46))=0, "", " -NF " &amp; TRIM(I46))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 776</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C47" s="16">
-        <v>45978</v>
+        <v>45971</v>
       </c>
       <c r="D47" s="72" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>_xlfn.XLOOKUP(F47,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>006233947</v>
+        <v>056953013</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G47" s="14">
-        <v>9600</v>
+        <v>884.29</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="K47" s="71"/>
+        <v>406</v>
+      </c>
+      <c r="I47" s="15">
+        <v>777</v>
+      </c>
+      <c r="J47" s="16">
+        <v>45975</v>
+      </c>
+      <c r="K47" s="71" t="s">
+        <v>491</v>
+      </c>
       <c r="L47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>17.11 -Ped 047803 -LUG -TR MAQ -R$9600</v>
+        <f>TEXT($C47,"dd.mm") &amp; " -Ped " &amp; D47 &amp; " -" &amp; F47 &amp; " -R$" &amp; G47 &amp; IF(LEN(TRIM(I47))=0, "", " -NF " &amp; TRIM(I47))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 777</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
@@ -35583,39 +35731,39 @@
         <v>417</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="C48" s="16">
-        <v>45966</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>421</v>
+        <v>45971</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>489</v>
       </c>
       <c r="E48" s="1" t="str">
         <f>_xlfn.XLOOKUP(F48,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>051496564</v>
+        <v>056953013</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G48" s="14">
-        <v>520</v>
+        <v>884.29</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I48" s="15">
-        <v>408</v>
+        <v>778</v>
       </c>
       <c r="J48" s="16">
-        <v>45967</v>
+        <v>45975</v>
       </c>
       <c r="K48" s="71" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="L48" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>05.11 -Ped 047267 -MARCOS D. COURIER -R$520 -NF 408</v>
+        <f>TEXT($C48,"dd.mm") &amp; " -Ped " &amp; D48 &amp; " -" &amp; F48 &amp; " -R$" &amp; G48 &amp; IF(LEN(TRIM(I48))=0, "", " -NF " &amp; TRIM(I48))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 778</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
@@ -35623,39 +35771,39 @@
         <v>417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C49" s="16">
-        <v>45966</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>482</v>
+        <v>45971</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>489</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>_xlfn.XLOOKUP(F49,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>051496564</v>
+        <v>056953013</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G49" s="14">
-        <v>180</v>
+        <v>884.29</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I49" s="15">
-        <v>409</v>
+        <v>779</v>
       </c>
       <c r="J49" s="16">
-        <v>45967</v>
+        <v>45975</v>
       </c>
       <c r="K49" s="71" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L49" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>05.11 -Ped 047268 -MARCOS D. COURIER -R$180 -NF 409</v>
+        <f>TEXT($C49,"dd.mm") &amp; " -Ped " &amp; D49 &amp; " -" &amp; F49 &amp; " -R$" &amp; G49 &amp; IF(LEN(TRIM(I49))=0, "", " -NF " &amp; TRIM(I49))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 779</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
@@ -35663,39 +35811,39 @@
         <v>417</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C50" s="16">
-        <v>45965</v>
+        <v>45971</v>
       </c>
       <c r="D50" s="72" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>_xlfn.XLOOKUP(F50,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>051496564</v>
+        <v>056953013</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G50" s="14">
-        <v>400</v>
+        <v>884.29</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I50" s="15">
-        <v>420</v>
+        <v>781</v>
       </c>
       <c r="J50" s="16">
-        <v>45973</v>
+        <v>45975</v>
       </c>
       <c r="K50" s="71" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L50" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>04.11 -Ped 047525 -MARCOS D. COURIER -R$400 -NF 420</v>
+        <f>TEXT($C50,"dd.mm") &amp; " -Ped " &amp; D50 &amp; " -" &amp; F50 &amp; " -R$" &amp; G50 &amp; IF(LEN(TRIM(I50))=0, "", " -NF " &amp; TRIM(I50))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 781</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
@@ -35703,881 +35851,845 @@
         <v>417</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C51" s="16">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="D51" s="72" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>_xlfn.XLOOKUP(F51,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>051496564</v>
+        <v>056953013</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="G51" s="14">
-        <v>420</v>
+        <v>884.29</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I51" s="15">
-        <v>421</v>
+        <v>782</v>
       </c>
       <c r="J51" s="16">
-        <v>45973</v>
+        <v>45975</v>
       </c>
       <c r="K51" s="71" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>07.11 -Ped 047527 -MARCOS D. COURIER -R$420 -NF 421</v>
+        <f>TEXT($C51,"dd.mm") &amp; " -Ped " &amp; D51 &amp; " -" &amp; F51 &amp; " -R$" &amp; G51 &amp; IF(LEN(TRIM(I51))=0, "", " -NF " &amp; TRIM(I51))</f>
+        <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 782</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="C52" s="16">
-        <v>45971</v>
+        <v>45975</v>
       </c>
       <c r="D52" s="72" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>_xlfn.XLOOKUP(F52,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>051496564</v>
+        <v>018725298</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="G52" s="14">
-        <v>250</v>
+        <v>3662.3</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I52" s="15">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="J52" s="16">
-        <v>45973</v>
+        <v>45979</v>
       </c>
       <c r="K52" s="71" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L52" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>10.11 -Ped 047525 -MARCOS D. COURIER -R$250 -NF 420</v>
+        <f>TEXT($C52,"dd.mm") &amp; " -Ped " &amp; D52 &amp; " -" &amp; F52 &amp; " -R$" &amp; G52 &amp; IF(LEN(TRIM(I52))=0, "", " -NF " &amp; TRIM(I52))</f>
+        <v>14.11 -Ped 047804 -MAZETTO -TR MAQ -R$3662,3 -NF 469</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C53" s="16">
         <v>45964</v>
       </c>
       <c r="D53" s="72" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>_xlfn.XLOOKUP(F53,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>018725298</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G53" s="14">
         <v>1352</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1069</v>
+      </c>
+      <c r="J53" s="16">
+        <v>45979</v>
       </c>
       <c r="K53" s="71" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L53" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$1352</v>
+        <f>TEXT($C53,"dd.mm") &amp; " -Ped " &amp; D53 &amp; " -" &amp; F53 &amp; " -R$" &amp; G53 &amp; IF(LEN(TRIM(I53))=0, "", " -NF " &amp; TRIM(I53))</f>
+        <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$1352 -NF 1069</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C54" s="16">
         <v>45964</v>
       </c>
       <c r="D54" s="72" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E54" s="1" t="str">
         <f>_xlfn.XLOOKUP(F54,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>018725298</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G54" s="14">
         <v>650</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1068</v>
+      </c>
+      <c r="J54" s="16">
+        <v>45979</v>
       </c>
       <c r="K54" s="71" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L54" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$650</v>
+        <f>TEXT($C54,"dd.mm") &amp; " -Ped " &amp; D54 &amp; " -" &amp; F54 &amp; " -R$" &amp; G54 &amp; IF(LEN(TRIM(I54))=0, "", " -NF " &amp; TRIM(I54))</f>
+        <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$650 -NF 1068</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>410</v>
+        <v>499</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C55" s="16">
         <v>45964</v>
       </c>
       <c r="D55" s="72" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E55" s="1" t="str">
         <f>_xlfn.XLOOKUP(F55,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>018725298</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G55" s="14">
         <v>650</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1068</v>
+      </c>
+      <c r="J55" s="16">
+        <v>45979</v>
       </c>
       <c r="K55" s="71" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L55" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$650</v>
+        <f>TEXT($C55,"dd.mm") &amp; " -Ped " &amp; D55 &amp; " -" &amp; F55 &amp; " -R$" &amp; G55 &amp; IF(LEN(TRIM(I55))=0, "", " -NF " &amp; TRIM(I55))</f>
+        <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$650 -NF 1068</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C56" s="16">
         <v>45966</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>_xlfn.XLOOKUP(F56,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>018725298</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G56" s="14">
         <v>1458</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
+      </c>
+      <c r="I56" s="15">
+        <v>1067</v>
+      </c>
+      <c r="J56" s="16">
+        <v>45979</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L56" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>05.11 -Ped 047805 -MAZETTO -TR MAQ -R$1458</v>
+        <f>TEXT($C56,"dd.mm") &amp; " -Ped " &amp; D56 &amp; " -" &amp; F56 &amp; " -R$" &amp; G56 &amp; IF(LEN(TRIM(I56))=0, "", " -NF " &amp; TRIM(I56))</f>
+        <v>05.11 -Ped 047805 -MAZETTO -TR MAQ -R$1458 -NF 1067</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C57" s="16">
         <v>45968</v>
       </c>
       <c r="D57" s="72" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>_xlfn.XLOOKUP(F57,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>018725298</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G57" s="14">
         <v>2890</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1070</v>
+      </c>
+      <c r="J57" s="16">
+        <v>45979</v>
       </c>
       <c r="K57" s="71" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L57" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>07.11 -Ped 047806 -MAZETTO -TR MAQ -R$2890</v>
+        <f>TEXT($C57,"dd.mm") &amp; " -Ped " &amp; D57 &amp; " -" &amp; F57 &amp; " -R$" &amp; G57 &amp; IF(LEN(TRIM(I57))=0, "", " -NF " &amp; TRIM(I57))</f>
+        <v>07.11 -Ped 047806 -MAZETTO -TR MAQ -R$2890 -NF 1070</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C58" s="16">
         <v>45972</v>
       </c>
       <c r="D58" s="72" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>_xlfn.XLOOKUP(F58,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>018725298</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G58" s="14">
         <v>1389</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
+      </c>
+      <c r="I58" s="15">
+        <v>468</v>
+      </c>
+      <c r="J58" s="16">
+        <v>45979</v>
       </c>
       <c r="K58" s="71" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L58" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>11.11 -Ped 047806 -MAZETTO -TR MAQ -R$1389</v>
+        <f>TEXT($C58,"dd.mm") &amp; " -Ped " &amp; D58 &amp; " -" &amp; F58 &amp; " -R$" &amp; G58 &amp; IF(LEN(TRIM(I58))=0, "", " -NF " &amp; TRIM(I58))</f>
+        <v>11.11 -Ped 047806 -MAZETTO -TR MAQ -R$1389 -NF 468</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="C59" s="16">
-        <v>45975</v>
+        <v>45962</v>
       </c>
       <c r="D59" s="72" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>_xlfn.XLOOKUP(F59,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>018725298</v>
+        <v>006914002</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="G59" s="14">
-        <v>3662.3</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="K59" s="71" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L59" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>14.11 -Ped 047804 -MAZETTO -TR MAQ -R$3662,3</v>
+        <f>TEXT($C59,"dd.mm") &amp; " -Ped " &amp; D59 &amp; " -" &amp; F59 &amp; " -R$" &amp; G59 &amp; IF(LEN(TRIM(I59))=0, "", " -NF " &amp; TRIM(I59))</f>
+        <v>01.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$1000</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="C60" s="16">
-        <v>45975</v>
+        <v>45966</v>
       </c>
       <c r="D60" s="72" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>_xlfn.XLOOKUP(F60,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>037969440</v>
+        <v>031370636</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="G60" s="14">
-        <v>800.04</v>
+        <v>180</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L60" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>14.11 -Ped 047733 -MEGA TRUCK ACESSORIOS - MT -R$800,04</v>
+        <f>TEXT($C60,"dd.mm") &amp; " -Ped " &amp; D60 &amp; " -" &amp; F60 &amp; " -R$" &amp; G60 &amp; IF(LEN(TRIM(I60))=0, "", " -NF " &amp; TRIM(I60))</f>
+        <v>05.11 -Ped 047328 -JORGE LUIZ 2 COURIER -R$180</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="C61" s="16">
-        <v>45973</v>
+        <v>45962</v>
       </c>
       <c r="D61" s="72" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>_xlfn.XLOOKUP(F61,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>000495608</v>
+        <v>046304055</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G61" s="14">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="K61" s="71" t="s">
-        <v>505</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K61" s="71"/>
       <c r="L61" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>12.11 -Ped 047801 -MONTPAR GUINDASTES -R$440</v>
+        <f>TEXT($C61,"dd.mm") &amp; " -Ped " &amp; D61 &amp; " -" &amp; F61 &amp; " -R$" &amp; G61 &amp; IF(LEN(TRIM(I61))=0, "", " -NF " &amp; TRIM(I61))</f>
+        <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$500</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="16">
-        <v>45972</v>
+        <v>45962</v>
       </c>
       <c r="D62" s="72" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>_xlfn.XLOOKUP(F62,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>030877442</v>
+        <v>046304055</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G62" s="14">
-        <v>1262</v>
+        <v>300</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K62" s="71" t="s">
-        <v>508</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K62" s="71"/>
       <c r="L62" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>11.11 -Ped 047573 -MUNCK IRATI -TR MAQ -R$1262</v>
+        <f>TEXT($C62,"dd.mm") &amp; " -Ped " &amp; D62 &amp; " -" &amp; F62 &amp; " -R$" &amp; G62 &amp; IF(LEN(TRIM(I62))=0, "", " -NF " &amp; TRIM(I62))</f>
+        <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$300</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="C63" s="16">
-        <v>45966</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>509</v>
+        <v>45962</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>508</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>_xlfn.XLOOKUP(F63,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>080227796</v>
+        <v>046304055</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G63" s="14">
-        <v>529.48</v>
+        <v>300</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I63" s="15">
-        <v>348407</v>
-      </c>
-      <c r="J63" s="16">
-        <v>45967</v>
-      </c>
-      <c r="K63" s="71" t="s">
-        <v>511</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K63" s="71"/>
       <c r="L63" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>05.11 -Ped 047348 -PRINCESA -TR PEÇA -R$529,48 -NF 348407</v>
+        <f>TEXT($C63,"dd.mm") &amp; " -Ped " &amp; D63 &amp; " -" &amp; F63 &amp; " -R$" &amp; G63 &amp; IF(LEN(TRIM(I63))=0, "", " -NF " &amp; TRIM(I63))</f>
+        <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$300</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C64" s="16">
-        <v>45966</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>509</v>
+        <v>45974</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>510</v>
       </c>
       <c r="E64" s="1" t="str">
         <f>_xlfn.XLOOKUP(F64,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>080227796</v>
+        <v>019320206</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G64" s="14">
-        <v>371.14</v>
+        <v>1000</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I64" s="15">
-        <v>336939</v>
-      </c>
-      <c r="J64" s="16">
-        <v>45967</v>
+        <v>406</v>
       </c>
       <c r="K64" s="71" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L64" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>05.11 -Ped 047348 -PRINCESA -TR PEÇA -R$371,14 -NF 336939</v>
+        <f>TEXT($C64,"dd.mm") &amp; " -Ped " &amp; D64 &amp; " -" &amp; F64 &amp; " -R$" &amp; G64 &amp; IF(LEN(TRIM(I64))=0, "", " -NF " &amp; TRIM(I64))</f>
+        <v>13.11 -Ped 047572 -AGROMAQ -TR MAQ -R$1000</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="C65" s="16">
-        <v>45968</v>
+        <v>45972</v>
       </c>
       <c r="D65" s="72" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>_xlfn.XLOOKUP(F65,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>080227796</v>
+        <v>030877442</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G65" s="14">
-        <v>345.91</v>
+        <v>1262</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I65" s="15">
-        <v>352387</v>
-      </c>
-      <c r="J65" s="16">
-        <v>45975</v>
+        <v>406</v>
       </c>
       <c r="K65" s="71" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L65" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$345,91 -NF 352387</v>
+        <f>TEXT($C65,"dd.mm") &amp; " -Ped " &amp; D65 &amp; " -" &amp; F65 &amp; " -R$" &amp; G65 &amp; IF(LEN(TRIM(I65))=0, "", " -NF " &amp; TRIM(I65))</f>
+        <v>11.11 -Ped 047573 -MUNCK IRATI -TR MAQ -R$1262</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C66" s="16">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="D66" s="72" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E66" s="1" t="str">
         <f>_xlfn.XLOOKUP(F66,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>080227796</v>
+        <v>024586837</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="G66" s="14">
-        <v>49.74</v>
+        <v>4175</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I66" s="15">
-        <v>352389</v>
-      </c>
-      <c r="J66" s="16">
-        <v>45975</v>
+        <v>518</v>
       </c>
       <c r="K66" s="71" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L66" s="15" t="str">
-        <f t="shared" ref="L66:L90" si="2">TEXT($C66,"dd.mm") &amp; " -Ped " &amp; D66 &amp; " -" &amp; F66 &amp; " -R$" &amp; G66 &amp; IF(LEN(TRIM(I66))=0, "", " -NF " &amp; TRIM(I66))</f>
-        <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$49,74 -NF 352389</v>
+        <f>TEXT($C66,"dd.mm") &amp; " -Ped " &amp; D66 &amp; " -" &amp; F66 &amp; " -R$" &amp; G66 &amp; IF(LEN(TRIM(I66))=0, "", " -NF " &amp; TRIM(I66))</f>
+        <v>14.11 -Ped 047732 -SUL LONAS - MT -R$4175</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C67" s="16">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="D67" s="72" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>_xlfn.XLOOKUP(F67,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>080227796</v>
+        <v>037969440</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G67" s="14">
-        <v>46.32</v>
+        <v>800.04</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I67" s="15">
-        <v>355838</v>
-      </c>
-      <c r="J67" s="16">
-        <v>45975</v>
+        <v>406</v>
       </c>
       <c r="K67" s="71" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L67" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$46,32 -NF 355838</v>
+        <f>TEXT($C67,"dd.mm") &amp; " -Ped " &amp; D67 &amp; " -" &amp; F67 &amp; " -R$" &amp; G67 &amp; IF(LEN(TRIM(I67))=0, "", " -NF " &amp; TRIM(I67))</f>
+        <v>14.11 -Ped 047733 -MEGA TRUCK ACESSORIOS - MT -R$800,04</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C68" s="16">
-        <v>45968</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>515</v>
+        <v>45975</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>524</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>_xlfn.XLOOKUP(F68,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>010273940</v>
+        <v>019320206</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G68" s="14">
-        <v>2780</v>
+        <v>300</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I68" s="15">
-        <v>2708</v>
-      </c>
-      <c r="J68" s="16">
-        <v>45972</v>
-      </c>
-      <c r="K68" s="71" t="s">
-        <v>517</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K68" s="71"/>
       <c r="L68" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>07.11 -Ped 047383 -SERIE4 - MT 1 -R$2780 -NF 2708</v>
+        <f>TEXT($C68,"dd.mm") &amp; " -Ped " &amp; D68 &amp; " -" &amp; F68 &amp; " -R$" &amp; G68 &amp; IF(LEN(TRIM(I68))=0, "", " -NF " &amp; TRIM(I68))</f>
+        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$300</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C69" s="16">
-        <v>45968</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>515</v>
+        <v>45975</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>524</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>_xlfn.XLOOKUP(F69,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>010273940</v>
+        <v>019320206</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G69" s="14">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I69" s="15">
-        <v>2374</v>
-      </c>
-      <c r="J69" s="16">
-        <v>45972</v>
-      </c>
-      <c r="K69" s="71" t="s">
-        <v>518</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K69" s="71"/>
       <c r="L69" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>07.11 -Ped 047383 -SERIE4 - MT 1 -R$840 -NF 2374</v>
+        <f>TEXT($C69,"dd.mm") &amp; " -Ped " &amp; D69 &amp; " -" &amp; F69 &amp; " -R$" &amp; G69 &amp; IF(LEN(TRIM(I69))=0, "", " -NF " &amp; TRIM(I69))</f>
+        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$300</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C70" s="16">
         <v>45975</v>
       </c>
       <c r="D70" s="72" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>_xlfn.XLOOKUP(F70,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>010273940</v>
+        <v>019320206</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G70" s="14">
-        <v>216</v>
+        <v>800</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="K70" s="71" t="s">
-        <v>520</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K70" s="71"/>
       <c r="L70" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047800 -SERIE4 - MT 1 -R$216</v>
+        <f>TEXT($C70,"dd.mm") &amp; " -Ped " &amp; D70 &amp; " -" &amp; F70 &amp; " -R$" &amp; G70 &amp; IF(LEN(TRIM(I70))=0, "", " -NF " &amp; TRIM(I70))</f>
+        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$800</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C71" s="16">
         <v>45975</v>
       </c>
       <c r="D71" s="72" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>_xlfn.XLOOKUP(F71,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>010273940</v>
+        <v>019320206</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G71" s="14">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="K71" s="71" t="s">
-        <v>521</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K71" s="71"/>
       <c r="L71" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047800 -SERIE4 - MT 1 -R$120</v>
+        <f>TEXT($C71,"dd.mm") &amp; " -Ped " &amp; D71 &amp; " -" &amp; F71 &amp; " -R$" &amp; G71 &amp; IF(LEN(TRIM(I71))=0, "", " -NF " &amp; TRIM(I71))</f>
+        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$800</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C72" s="16">
-        <v>45965</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>522</v>
+        <v>45975</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>524</v>
       </c>
       <c r="E72" s="1" t="str">
         <f>_xlfn.XLOOKUP(F72,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>032878844</v>
+        <v>019320206</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="G72" s="14">
-        <v>910</v>
+        <v>400</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I72" s="15">
-        <v>177</v>
-      </c>
-      <c r="J72" s="16">
-        <v>45967</v>
-      </c>
-      <c r="K72" s="71" t="s">
-        <v>524</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K72" s="71"/>
       <c r="L72" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>04.11 -Ped 047269 -STOSKI -TR MAQ -R$910 -NF 177</v>
+        <f>TEXT($C72,"dd.mm") &amp; " -Ped " &amp; D72 &amp; " -" &amp; F72 &amp; " -R$" &amp; G72 &amp; IF(LEN(TRIM(I72))=0, "", " -NF " &amp; TRIM(I72))</f>
+        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$400</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C73" s="16">
         <v>45975</v>
       </c>
       <c r="D73" s="72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>_xlfn.XLOOKUP(F73,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>024586837</v>
+        <v>019320206</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G73" s="14">
-        <v>4175</v>
+        <v>400</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="K73" s="71" t="s">
-        <v>527</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K73" s="71"/>
       <c r="L73" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047732 -SUL LONAS - MT -R$4175</v>
+        <f>TEXT($C73,"dd.mm") &amp; " -Ped " &amp; D73 &amp; " -" &amp; F73 &amp; " -R$" &amp; G73 &amp; IF(LEN(TRIM(I73))=0, "", " -NF " &amp; TRIM(I73))</f>
+        <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$400</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>402</v>
+        <v>483</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="C74" s="16">
-        <v>45965</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>528</v>
+        <v>45974</v>
+      </c>
+      <c r="D74" s="72" t="s">
+        <v>525</v>
       </c>
       <c r="E74" s="1" t="str">
         <f>_xlfn.XLOOKUP(F74,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>006914002</v>
+        <v>061028125</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G74" s="14">
-        <v>1295</v>
+        <v>270</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I74" s="15">
-        <v>186</v>
-      </c>
-      <c r="J74" s="16">
-        <v>45968</v>
+        <v>406</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L74" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>04.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$1295 -NF 186</v>
+        <f>TEXT($C74,"dd.mm") &amp; " -Ped " &amp; D74 &amp; " -" &amp; F74 &amp; " -R$" &amp; G74 &amp; IF(LEN(TRIM(I74))=0, "", " -NF " &amp; TRIM(I74))</f>
+        <v>13.11 -Ped 047758 -INCOMESPMUNCK -TR MAQ -R$270</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1">
@@ -36585,158 +36697,138 @@
         <v>402</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C75" s="16">
-        <v>45966</v>
-      </c>
-      <c r="D75" s="1" t="s">
+        <v>45975</v>
+      </c>
+      <c r="D75" s="72" t="s">
         <v>528</v>
       </c>
       <c r="E75" s="1" t="str">
         <f>_xlfn.XLOOKUP(F75,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>006914002</v>
+        <v>010273940</v>
       </c>
       <c r="F75" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G75" s="14">
+        <v>216</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K75" s="71" t="s">
         <v>529</v>
       </c>
-      <c r="G75" s="14">
-        <v>975</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I75" s="15">
-        <v>186</v>
-      </c>
-      <c r="J75" s="16">
-        <v>45968</v>
-      </c>
-      <c r="K75" s="71" t="s">
-        <v>531</v>
-      </c>
       <c r="L75" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>05.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$975 -NF 186</v>
+        <f>TEXT($C75,"dd.mm") &amp; " -Ped " &amp; D75 &amp; " -" &amp; F75 &amp; " -R$" &amp; G75 &amp; IF(LEN(TRIM(I75))=0, "", " -NF " &amp; TRIM(I75))</f>
+        <v>14.11 -Ped 047800 -SERIE4 - MT 1 -R$216</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C76" s="16">
         <v>45975</v>
       </c>
       <c r="D76" s="72" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E76" s="1" t="str">
         <f>_xlfn.XLOOKUP(F76,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>006914002</v>
+        <v>010273940</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="G76" s="14">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I76" s="15">
-        <v>190</v>
-      </c>
-      <c r="J76" s="16">
-        <v>45975</v>
+        <v>406</v>
       </c>
       <c r="K76" s="71" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L76" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047738 -TRANSCAPITINGA-TR MAQ -R$800 -NF 190</v>
+        <f>TEXT($C76,"dd.mm") &amp; " -Ped " &amp; D76 &amp; " -" &amp; F76 &amp; " -R$" &amp; G76 &amp; IF(LEN(TRIM(I76))=0, "", " -NF " &amp; TRIM(I76))</f>
+        <v>14.11 -Ped 047800 -SERIE4 - MT 1 -R$120</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="C77" s="16">
-        <v>45962</v>
+        <v>45973</v>
       </c>
       <c r="D77" s="72" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>_xlfn.XLOOKUP(F77,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>006914002</v>
+        <v>000495608</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G77" s="14">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K77" s="71" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L77" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>01.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$1000</v>
+        <f>TEXT($C77,"dd.mm") &amp; " -Ped " &amp; D77 &amp; " -" &amp; F77 &amp; " -R$" &amp; G77 &amp; IF(LEN(TRIM(I77))=0, "", " -NF " &amp; TRIM(I77))</f>
+        <v>12.11 -Ped 047801 -MONTPAR GUINDASTES -R$440</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="C78" s="16">
-        <v>45967</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>535</v>
+        <v>45975</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>534</v>
       </c>
       <c r="E78" s="1" t="str">
         <f>_xlfn.XLOOKUP(F78,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>012772524</v>
+        <v>032603119</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G78" s="14">
-        <v>1860</v>
+        <v>3800</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="I78" s="15">
-        <v>3300</v>
-      </c>
-      <c r="J78" s="16">
-        <v>45968</v>
-      </c>
-      <c r="K78" s="71" t="s">
-        <v>424</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K78" s="71"/>
       <c r="L78" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>06.11 -Ped 047349 -UNIBOY COURIER -R$1860 -NF 3300</v>
+        <f>TEXT($C78,"dd.mm") &amp; " -Ped " &amp; D78 &amp; " -" &amp; F78 &amp; " -R$" &amp; G78 &amp; IF(LEN(TRIM(I78))=0, "", " -NF " &amp; TRIM(I78))</f>
+        <v>14.11 -Ped 047802 -ZORTEA -TR MAQ -R$3800</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>409</v>
+        <v>499</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>205</v>
@@ -36745,65 +36837,65 @@
         <v>45975</v>
       </c>
       <c r="D79" s="72" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E79" s="1" t="str">
         <f>_xlfn.XLOOKUP(F79,UTIL!Q:Q,UTIL!N:N,"-")</f>
         <v>032603119</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G79" s="14">
-        <v>3800</v>
+        <v>1600</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="K79" s="71"/>
       <c r="L79" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047802 -ZORTEA -TR MAQ -R$3800</v>
+        <f>TEXT($C79,"dd.mm") &amp; " -Ped " &amp; D79 &amp; " -" &amp; F79 &amp; " -R$" &amp; G79 &amp; IF(LEN(TRIM(I79))=0, "", " -NF " &amp; TRIM(I79))</f>
+        <v>14.11 -Ped 047802 -ZORTEA -TR MAQ -R$1600</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="C80" s="16">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="D80" s="72" t="s">
         <v>537</v>
       </c>
       <c r="E80" s="1" t="str">
         <f>_xlfn.XLOOKUP(F80,UTIL!Q:Q,UTIL!N:N,"-")</f>
-        <v>032603119</v>
+        <v>006233947</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>538</v>
       </c>
       <c r="G80" s="14">
-        <v>1600</v>
+        <v>9600</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="K80" s="71"/>
       <c r="L80" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047802 -ZORTEA -TR MAQ -R$1600</v>
+        <f>TEXT($C80,"dd.mm") &amp; " -Ped " &amp; D80 &amp; " -" &amp; F80 &amp; " -R$" &amp; G80 &amp; IF(LEN(TRIM(I80))=0, "", " -NF " &amp; TRIM(I80))</f>
+        <v>17.11 -Ped 047803 -LUG -TR MAQ -R$9600</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C81" s="16">
         <v>45978</v>
@@ -36816,29 +36908,29 @@
         <v>051496564</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="G81" s="14">
         <v>200</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="K81" s="71"/>
       <c r="L81" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C81,"dd.mm") &amp; " -Ped " &amp; D81 &amp; " -" &amp; F81 &amp; " -R$" &amp; G81 &amp; IF(LEN(TRIM(I81))=0, "", " -NF " &amp; TRIM(I81))</f>
         <v>17.11 -Ped 047871 -MARCOS D. COURIER -R$200</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>402</v>
+        <v>497</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C82" s="16">
-        <v>45978</v>
+        <v>45975</v>
       </c>
       <c r="D82" s="72" t="s">
         <v>540</v>
@@ -36851,28 +36943,28 @@
         <v>541</v>
       </c>
       <c r="G82" s="14">
-        <v>1328</v>
+        <v>6740</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="K82" s="71" t="s">
         <v>542</v>
       </c>
       <c r="L82" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>17.11 -Ped 047872 -JAPA MARRERO -TR MAQ -R$1328</v>
+        <f>TEXT($C82,"dd.mm") &amp; " -Ped " &amp; D82 &amp; " -" &amp; F82 &amp; " -R$" &amp; G82 &amp; IF(LEN(TRIM(I82))=0, "", " -NF " &amp; TRIM(I82))</f>
+        <v>14.11 -Ped 047872 -JAPA MARRERO -TR MAQ -R$6740</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C83" s="16">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="D83" s="72" t="s">
         <v>540</v>
@@ -36885,22 +36977,22 @@
         <v>541</v>
       </c>
       <c r="G83" s="14">
-        <v>6740</v>
+        <v>1328</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="K83" s="71" t="s">
         <v>543</v>
       </c>
       <c r="L83" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>14.11 -Ped 047872 -JAPA MARRERO -TR MAQ -R$6740</v>
+        <f>TEXT($C83,"dd.mm") &amp; " -Ped " &amp; D83 &amp; " -" &amp; F83 &amp; " -R$" &amp; G83 &amp; IF(LEN(TRIM(I83))=0, "", " -NF " &amp; TRIM(I83))</f>
+        <v>17.11 -Ped 047872 -JAPA MARRERO -TR MAQ -R$1328</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>205</v>
@@ -36921,12 +37013,14 @@
       <c r="G84" s="14">
         <v>945</v>
       </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>518</v>
+      </c>
       <c r="K84" s="71" t="s">
         <v>546</v>
       </c>
       <c r="L84" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C84,"dd.mm") &amp; " -Ped " &amp; D84 &amp; " -" &amp; F84 &amp; " -R$" &amp; G84 &amp; IF(LEN(TRIM(I84))=0, "", " -NF " &amp; TRIM(I84))</f>
         <v>17.11 -Ped 047873 -MULTISOLDAS E MUNCK -R$945</v>
       </c>
     </row>
@@ -36939,7 +37033,7 @@
       <c r="H85" s="4"/>
       <c r="K85" s="71"/>
       <c r="L85" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C85,"dd.mm") &amp; " -Ped " &amp; D85 &amp; " -" &amp; F85 &amp; " -R$" &amp; G85 &amp; IF(LEN(TRIM(I85))=0, "", " -NF " &amp; TRIM(I85))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
@@ -36952,7 +37046,7 @@
       <c r="H86" s="4"/>
       <c r="K86" s="71"/>
       <c r="L86" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C86,"dd.mm") &amp; " -Ped " &amp; D86 &amp; " -" &amp; F86 &amp; " -R$" &amp; G86 &amp; IF(LEN(TRIM(I86))=0, "", " -NF " &amp; TRIM(I86))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
@@ -36965,7 +37059,7 @@
       <c r="H87" s="4"/>
       <c r="K87" s="71"/>
       <c r="L87" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C87,"dd.mm") &amp; " -Ped " &amp; D87 &amp; " -" &amp; F87 &amp; " -R$" &amp; G87 &amp; IF(LEN(TRIM(I87))=0, "", " -NF " &amp; TRIM(I87))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
@@ -36978,7 +37072,7 @@
       <c r="H88" s="4"/>
       <c r="K88" s="71"/>
       <c r="L88" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C88,"dd.mm") &amp; " -Ped " &amp; D88 &amp; " -" &amp; F88 &amp; " -R$" &amp; G88 &amp; IF(LEN(TRIM(I88))=0, "", " -NF " &amp; TRIM(I88))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
@@ -36991,7 +37085,7 @@
       <c r="H89" s="4"/>
       <c r="K89" s="71"/>
       <c r="L89" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C89,"dd.mm") &amp; " -Ped " &amp; D89 &amp; " -" &amp; F89 &amp; " -R$" &amp; G89 &amp; IF(LEN(TRIM(I89))=0, "", " -NF " &amp; TRIM(I89))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
@@ -37004,7 +37098,7 @@
       <c r="H90" s="4"/>
       <c r="K90" s="71"/>
       <c r="L90" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT($C90,"dd.mm") &amp; " -Ped " &amp; D90 &amp; " -" &amp; F90 &amp; " -R$" &amp; G90 &amp; IF(LEN(TRIM(I90))=0, "", " -NF " &amp; TRIM(I90))</f>
         <v>00.01 -Ped  - -R$</v>
       </c>
     </row>
@@ -37419,7 +37513,7 @@
         <v>597</v>
       </c>
       <c r="Q3" s="160" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="R3" s="160" t="s">
         <v>598</v>
@@ -37914,7 +38008,7 @@
         <v>654</v>
       </c>
       <c r="Q10" s="160" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="R10" s="160" t="s">
         <v>655</v>
@@ -38737,7 +38831,7 @@
         <v>733</v>
       </c>
       <c r="Q22" s="160" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="R22" s="160" t="s">
         <v>606</v>
@@ -38869,7 +38963,7 @@
         <v>748</v>
       </c>
       <c r="Q24" s="160" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="R24" s="160" t="s">
         <v>647</v>
@@ -38987,7 +39081,7 @@
         <v>758</v>
       </c>
       <c r="Q26" s="160" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="R26" s="160" t="s">
         <v>662</v>
@@ -39132,7 +39226,7 @@
       </c>
       <c r="X28" s="7"/>
       <c r="Z28" s="56" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AA28" s="55" t="s">
         <v>46</v>
@@ -39391,7 +39485,7 @@
         <v>798</v>
       </c>
       <c r="Q32" s="160" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="R32" s="160" t="s">
         <v>622</v>
@@ -39841,7 +39935,7 @@
         <v>839</v>
       </c>
       <c r="Q39" s="160" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="R39" s="160" t="s">
         <v>655</v>
@@ -40012,7 +40106,7 @@
         <v>848</v>
       </c>
       <c r="Q42" s="160" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="R42" s="160" t="s">
         <v>849</v>
@@ -40069,7 +40163,7 @@
         <v>852</v>
       </c>
       <c r="Q43" s="160" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="R43" s="160" t="s">
         <v>655</v>
@@ -40686,7 +40780,7 @@
         <v>876</v>
       </c>
       <c r="Q54" s="160" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="R54" s="160" t="s">
         <v>849</v>
@@ -40741,7 +40835,7 @@
         <v>879</v>
       </c>
       <c r="Q55" s="160" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="R55" s="160" t="s">
         <v>880</v>
@@ -41236,7 +41330,7 @@
         <v>916</v>
       </c>
       <c r="Q64" s="160" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="R64" s="160" t="s">
         <v>655</v>
@@ -42391,7 +42485,7 @@
         <v>989</v>
       </c>
       <c r="Q85" s="160" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="R85" s="160" t="s">
         <v>655</v>
@@ -42611,7 +42705,7 @@
         <v>1005</v>
       </c>
       <c r="Q89" s="160" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="R89" s="160" t="s">
         <v>655</v>
@@ -42831,7 +42925,7 @@
         <v>1019</v>
       </c>
       <c r="Q93" s="160" t="s">
-        <v>404</v>
+        <v>511</v>
       </c>
       <c r="R93" s="160" t="s">
         <v>631</v>
@@ -44096,7 +44190,7 @@
         <v>1103</v>
       </c>
       <c r="Q116" s="160" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="R116" s="160" t="s">
         <v>647</v>
@@ -44206,7 +44300,7 @@
         <v>1108</v>
       </c>
       <c r="Q118" s="160" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="R118" s="160" t="s">
         <v>622</v>
@@ -44536,7 +44630,7 @@
         <v>1126</v>
       </c>
       <c r="Q124" s="160" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="R124" s="160" t="s">
         <v>1127</v>
@@ -44701,7 +44795,7 @@
         <v>1139</v>
       </c>
       <c r="Q127" s="160" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="R127" s="160" t="s">
         <v>622</v>
@@ -44976,7 +45070,7 @@
         <v>1158</v>
       </c>
       <c r="Q132" s="160" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="R132" s="160" t="s">
         <v>647</v>
@@ -45238,7 +45332,7 @@
         <v>1175</v>
       </c>
       <c r="Q138" s="160" t="s">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="R138" s="160" t="s">
         <v>647</v>
@@ -45322,7 +45416,7 @@
         <v>1182</v>
       </c>
       <c r="Q142" s="160" t="s">
-        <v>529</v>
+        <v>452</v>
       </c>
       <c r="R142" s="160" t="s">
         <v>631</v>
@@ -45427,7 +45521,7 @@
         <v>1193</v>
       </c>
       <c r="Q147" s="160" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="R147" s="160" t="s">
         <v>1194</v>
@@ -45490,7 +45584,7 @@
         <v>1199</v>
       </c>
       <c r="Q150" s="160" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="R150" s="160" t="s">
         <v>655</v>
@@ -45574,7 +45668,7 @@
         <v>1209</v>
       </c>
       <c r="Q154" s="160" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="R154" s="160" t="s">
         <v>849</v>
@@ -45595,7 +45689,7 @@
         <v>1209</v>
       </c>
       <c r="Q155" s="160" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="R155" s="160" t="s">
         <v>849</v>
@@ -45616,7 +45710,7 @@
         <v>1210</v>
       </c>
       <c r="Q156" s="160" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="R156" s="160" t="s">
         <v>655</v>
@@ -46498,7 +46592,7 @@
         <v>1267</v>
       </c>
       <c r="Q198" s="160" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="R198" s="160" t="s">
         <v>1268</v>
@@ -46519,7 +46613,7 @@
         <v>1269</v>
       </c>
       <c r="Q199" s="160" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="R199" s="160" t="s">
         <v>849</v>
@@ -46540,7 +46634,7 @@
         <v>1270</v>
       </c>
       <c r="Q200" s="160" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="R200" s="160" t="s">
         <v>1271</v>
@@ -46561,7 +46655,7 @@
         <v>1270</v>
       </c>
       <c r="Q201" s="160" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="R201" s="160" t="s">
         <v>655</v>
@@ -46582,7 +46676,7 @@
         <v>1270</v>
       </c>
       <c r="Q202" s="160" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="R202" s="160" t="s">
         <v>1272</v>
@@ -46603,7 +46697,7 @@
         <v>1270</v>
       </c>
       <c r="Q203" s="160" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="R203" s="160" t="s">
         <v>1131</v>
@@ -46684,7 +46778,7 @@
   <dimension ref="A1:BN169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB79" sqref="AB79"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1"/>
@@ -47084,7 +47178,7 @@
     IF($AF3="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>9345.619999999999</v>
+        <v>9345.6200000000008</v>
       </c>
       <c r="AI3" s="212" t="s">
         <v>193</v>
@@ -47105,7 +47199,7 @@
     IF($AI3="QUEDAS DO IGUAÇU","QUEDAS"))))))))
   ),
 0)</f>
-        <v>7231.9999999999991</v>
+        <v>7232</v>
       </c>
       <c r="AL3" s="217" t="str">
         <f>IF(BJ3=0,"",BJ3)</f>
@@ -47125,13 +47219,13 @@
       </c>
       <c r="AQ3" s="178"/>
       <c r="AR3" s="212" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AS3" s="213">
         <v>5633.04</v>
       </c>
       <c r="AU3" s="212" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="AV3" s="213">
         <v>4175</v>
@@ -54149,7 +54243,7 @@
         <v>1382</v>
       </c>
       <c r="H25" s="127" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6">
@@ -54169,7 +54263,7 @@
         <v>1382</v>
       </c>
       <c r="H26" s="129" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6">
@@ -54189,7 +54283,7 @@
         <v>1373</v>
       </c>
       <c r="H27" s="75" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6">
@@ -54209,7 +54303,7 @@
         <v>1383</v>
       </c>
       <c r="H28" s="122" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6">
@@ -54225,7 +54319,7 @@
         <v>1383</v>
       </c>
       <c r="H29" s="122" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6">
@@ -54243,7 +54337,7 @@
       </c>
       <c r="G30" s="75"/>
       <c r="H30" s="75" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6">
@@ -54261,7 +54355,7 @@
       </c>
       <c r="G31" s="129"/>
       <c r="H31" s="129" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6">

--- a/public/data/BASE.xlsx
+++ b/public/data/BASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gondaski.sharepoint.com/sites/OperaesePeas/Documentos Compartilhados/Operações/Suprimentos/Logística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4765" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D03A6AD-B14D-428B-ADE4-20FF0AAAD444}"/>
+  <xr:revisionPtr revIDLastSave="4779" documentId="13_ncr:1_{1FFCA2AD-14E4-4B9A-98FB-D1DA18665813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA7BFC8-2946-4234-9DA4-B0C42C99C4BD}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="665" firstSheet="2" activeTab="2" xr2:uid="{79B5BA07-D2C6-4A71-9E5E-B065B1438F00}"/>
   </bookViews>
@@ -29884,7 +29884,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}" name="PEDIDOS" displayName="PEDIDOS" ref="A1:L106" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
-  <autoFilter ref="A1:L106" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}"/>
+  <autoFilter ref="A1:L106" xr:uid="{CE58ED65-99DD-4790-A9ED-259A68223EBB}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="CTE COM TOMADOR ERRADO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L89">
     <sortCondition ref="J1:J89"/>
   </sortState>
@@ -40367,8 +40373,8 @@
   <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -40428,7 +40434,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45">
+    <row r="2" spans="1:12" ht="14.45" hidden="1">
       <c r="A2" s="4" t="s">
         <v>425</v>
       </c>
@@ -40468,7 +40474,7 @@
         <v>10.11 -Ped 047116 -DER - AET VEICULOS -R$133,13 -NF BOLETO</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45">
+    <row r="3" spans="1:12" ht="14.45" hidden="1">
       <c r="A3" s="4" t="s">
         <v>432</v>
       </c>
@@ -40508,7 +40514,7 @@
         <v>05.11 -Ped 047117 -DETRAN PR -R$156,18 -NF BOLETO</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45">
+    <row r="4" spans="1:12" ht="14.45" hidden="1">
       <c r="A4" s="4" t="s">
         <v>432</v>
       </c>
@@ -40548,7 +40554,7 @@
         <v>05.11 -Ped 047117 -DETRAN PR -R$94,61 -NF BOLETO</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45">
+    <row r="5" spans="1:12" ht="14.45" hidden="1">
       <c r="A5" s="4" t="s">
         <v>425</v>
       </c>
@@ -40588,7 +40594,7 @@
         <v>04.11 -Ped 047178 -DNIT -R$87,62 -NF BOLETO</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.45">
+    <row r="6" spans="1:12" ht="14.45" hidden="1">
       <c r="A6" s="4" t="s">
         <v>440</v>
       </c>
@@ -40628,7 +40634,7 @@
         <v>03.11 -Ped 047186 -ESC -TR PEÇA -R$1100 -NF 2967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.45">
+    <row r="7" spans="1:12" ht="14.45" hidden="1">
       <c r="A7" s="4" t="s">
         <v>440</v>
       </c>
@@ -40668,7 +40674,7 @@
         <v>03.11 -Ped 047187 -ESC -TR PEÇA -R$550 -NF 2965</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.45">
+    <row r="8" spans="1:12" ht="14.45" hidden="1">
       <c r="A8" s="4" t="s">
         <v>440</v>
       </c>
@@ -40708,7 +40714,7 @@
         <v>03.11 -Ped 047188 -ESC -TR PEÇA -R$600 -NF 2964</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.45">
+    <row r="9" spans="1:12" ht="14.45" hidden="1">
       <c r="A9" s="4" t="s">
         <v>440</v>
       </c>
@@ -40748,7 +40754,7 @@
         <v>03.11 -Ped 047189 -ESC -TR PEÇA -R$550 -NF 2963</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.45">
+    <row r="10" spans="1:12" ht="14.45" hidden="1">
       <c r="A10" s="4" t="s">
         <v>440</v>
       </c>
@@ -40788,7 +40794,7 @@
         <v>03.11 -Ped 047190 -ESC -TR PEÇA -R$850 -NF 2962</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.45">
+    <row r="11" spans="1:12" ht="14.45" hidden="1">
       <c r="A11" s="4" t="s">
         <v>440</v>
       </c>
@@ -40828,7 +40834,7 @@
         <v>03.11 -Ped 047192 -ESC -TR PEÇA -R$1100 -NF 2969</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.45">
+    <row r="12" spans="1:12" ht="14.45" hidden="1">
       <c r="A12" s="4" t="s">
         <v>440</v>
       </c>
@@ -40868,7 +40874,7 @@
         <v>03.11 -Ped 047193 -ESC -TR PEÇA -R$830 -NF 2968</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.45">
+    <row r="13" spans="1:12" ht="14.45" hidden="1">
       <c r="A13" s="4" t="s">
         <v>452</v>
       </c>
@@ -40906,7 +40912,7 @@
         <v>03.11 -Ped 047258 -ANDREIA R. COURIER -R$200 -NF 48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.45">
+    <row r="14" spans="1:12" ht="14.45" hidden="1">
       <c r="A14" s="4" t="s">
         <v>452</v>
       </c>
@@ -40946,7 +40952,7 @@
         <v>04.11 -Ped 047199 -JOHN ELVIS COURIER -R$150 -NF 420</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.45">
+    <row r="15" spans="1:12" ht="14.45" hidden="1">
       <c r="A15" s="4" t="s">
         <v>452</v>
       </c>
@@ -40986,7 +40992,7 @@
         <v>03.11 -Ped 047247 -DELTA MOTOS COURIER -R$1210 -NF 247</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.45">
+    <row r="16" spans="1:12" ht="14.45" hidden="1">
       <c r="A16" s="4" t="s">
         <v>452</v>
       </c>
@@ -41026,7 +41032,7 @@
         <v>05.11 -Ped 047267 -MARCOS D. COURIER -R$520 -NF 408</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.45">
+    <row r="17" spans="1:12" ht="14.45" hidden="1">
       <c r="A17" s="4" t="s">
         <v>452</v>
       </c>
@@ -41066,7 +41072,7 @@
         <v>05.11 -Ped 047268 -MARCOS D. COURIER -R$180 -NF 409</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.45">
+    <row r="18" spans="1:12" ht="14.45" hidden="1">
       <c r="A18" s="4" t="s">
         <v>466</v>
       </c>
@@ -41106,7 +41112,7 @@
         <v>04.11 -Ped 047269 -STOSKI -TR MAQ -R$910 -NF 177</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.45">
+    <row r="19" spans="1:12" ht="14.45" hidden="1">
       <c r="A19" s="4" t="s">
         <v>452</v>
       </c>
@@ -41146,7 +41152,7 @@
         <v>05.11 -Ped 047348 -PRINCESA -TR PEÇA -R$529,48 -NF 348407</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.45">
+    <row r="20" spans="1:12" ht="14.45" hidden="1">
       <c r="A20" s="4" t="s">
         <v>452</v>
       </c>
@@ -41186,7 +41192,7 @@
         <v>05.11 -Ped 047348 -PRINCESA -TR PEÇA -R$371,14 -NF 336939</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.45">
+    <row r="21" spans="1:12" ht="14.45" hidden="1">
       <c r="A21" s="4" t="s">
         <v>452</v>
       </c>
@@ -41224,7 +41230,7 @@
         <v>03.11 -Ped 047246 -DELTA MOTOS COURIER -R$550 -NF 246</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.45">
+    <row r="22" spans="1:12" ht="14.45" hidden="1">
       <c r="A22" s="4" t="s">
         <v>466</v>
       </c>
@@ -41264,7 +41270,7 @@
         <v>04.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$1295 -NF 186</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.45">
+    <row r="23" spans="1:12" ht="14.45" hidden="1">
       <c r="A23" s="4" t="s">
         <v>466</v>
       </c>
@@ -41304,7 +41310,7 @@
         <v>05.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$975 -NF 186</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.45">
+    <row r="24" spans="1:12" ht="14.45" hidden="1">
       <c r="A24" s="4" t="s">
         <v>452</v>
       </c>
@@ -41344,7 +41350,7 @@
         <v>06.11 -Ped 047349 -UNIBOY COURIER -R$1860 -NF 3300</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.45">
+    <row r="25" spans="1:12" ht="14.45" hidden="1">
       <c r="A25" s="4" t="s">
         <v>452</v>
       </c>
@@ -41384,7 +41390,7 @@
         <v>03.11 -Ped 047233 -DELTA MOTOS COURIER -R$180 -NF 245</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.45">
+    <row r="26" spans="1:12" ht="14.45" hidden="1">
       <c r="A26" s="4" t="s">
         <v>452</v>
       </c>
@@ -41422,7 +41428,7 @@
         <v>03.11 -Ped 047243 -DELTA MOTOS COURIER -R$990 -NF 244</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.45">
+    <row r="27" spans="1:12" ht="14.45" hidden="1">
       <c r="A27" s="4" t="s">
         <v>452</v>
       </c>
@@ -41460,7 +41466,7 @@
         <v>03.11 -Ped 047244 -DELTA MOTOS COURIER -R$245 -NF 243</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.45">
+    <row r="28" spans="1:12" ht="14.45" hidden="1">
       <c r="A28" s="4" t="s">
         <v>452</v>
       </c>
@@ -41498,7 +41504,7 @@
         <v>04.11 -Ped 047437 -ANDREIA R. COURIER -R$80 -NF 51</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.45">
+    <row r="29" spans="1:12" ht="14.45" hidden="1">
       <c r="A29" s="4" t="s">
         <v>452</v>
       </c>
@@ -41536,7 +41542,7 @@
         <v>03.11 -Ped 047249 -DELTA MOTOS COURIER -R$8245 -NF 242</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.45">
+    <row r="30" spans="1:12" ht="14.45" hidden="1">
       <c r="A30" s="4" t="s">
         <v>452</v>
       </c>
@@ -41574,7 +41580,7 @@
         <v>03.11 -Ped 047267 -ANDREIA R. COURIER -R$200 -NF FIN</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.45">
+    <row r="31" spans="1:12" ht="14.45" hidden="1">
       <c r="A31" s="4" t="s">
         <v>425</v>
       </c>
@@ -41614,7 +41620,7 @@
         <v>07.11 -Ped 047383 -SERIE4 - MT 1 -R$2780 -NF 2708</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.45">
+    <row r="32" spans="1:12" ht="14.45" hidden="1">
       <c r="A32" s="4" t="s">
         <v>425</v>
       </c>
@@ -41654,7 +41660,7 @@
         <v>07.11 -Ped 047383 -SERIE4 - MT 1 -R$840 -NF 2374</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.45">
+    <row r="33" spans="1:12" ht="14.45" hidden="1">
       <c r="A33" s="4" t="s">
         <v>452</v>
       </c>
@@ -41694,7 +41700,7 @@
         <v>04.11 -Ped 047525 -MARCOS D. COURIER -R$400 -NF 420</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.45">
+    <row r="34" spans="1:12" ht="14.45" hidden="1">
       <c r="A34" s="4" t="s">
         <v>452</v>
       </c>
@@ -41734,7 +41740,7 @@
         <v>10.11 -Ped 047525 -MARCOS D. COURIER -R$250 -NF 420</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.45">
+    <row r="35" spans="1:12" ht="14.45" hidden="1">
       <c r="A35" s="4" t="s">
         <v>452</v>
       </c>
@@ -41774,7 +41780,7 @@
         <v>07.11 -Ped 047527 -MARCOS D. COURIER -R$420 -NF 421</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.45">
+    <row r="36" spans="1:12" ht="14.45" hidden="1">
       <c r="A36" s="4" t="s">
         <v>452</v>
       </c>
@@ -41812,7 +41818,7 @@
         <v>10.11 -Ped 047550 -JORGE LUIZ 2 COURIER -R$700 -NF 10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.45">
+    <row r="37" spans="1:12" ht="14.45" hidden="1">
       <c r="A37" s="4" t="s">
         <v>425</v>
       </c>
@@ -41852,7 +41858,7 @@
         <v>06.11 -Ped 047553 -ANDREANI - MT -R$500 -NF 1412</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.45">
+    <row r="38" spans="1:12" ht="14.45" hidden="1">
       <c r="A38" s="4" t="s">
         <v>425</v>
       </c>
@@ -41892,7 +41898,7 @@
         <v>06.11 -Ped 047553 -ANDREANI - MT -R$397 -NF 189</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.45">
+    <row r="39" spans="1:12" ht="14.45" hidden="1">
       <c r="A39" s="4" t="s">
         <v>452</v>
       </c>
@@ -41932,7 +41938,7 @@
         <v>11.11 -Ped 047685 -JOSEAMILTON1 COURIER -R$2390 -NF 155</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.45">
+    <row r="40" spans="1:12" ht="14.45" hidden="1">
       <c r="A40" s="4" t="s">
         <v>452</v>
       </c>
@@ -41972,7 +41978,7 @@
         <v>12.11 -Ped 047687 -ANDREIA R. COURIER -R$70 -NF 54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.45">
+    <row r="41" spans="1:12" ht="14.45" hidden="1">
       <c r="A41" s="4" t="s">
         <v>506</v>
       </c>
@@ -42012,7 +42018,7 @@
         <v>14.11 -Ped 047738 -TRANSCAPITINGA-TR MAQ -R$800 -NF 190</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.45">
+    <row r="42" spans="1:12" ht="14.45" hidden="1">
       <c r="A42" s="4" t="s">
         <v>440</v>
       </c>
@@ -42052,7 +42058,7 @@
         <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$345,91 -NF 352387</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.45">
+    <row r="43" spans="1:12" ht="14.45" hidden="1">
       <c r="A43" s="4" t="s">
         <v>440</v>
       </c>
@@ -42092,7 +42098,7 @@
         <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$49,74 -NF 352389</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.45">
+    <row r="44" spans="1:12" ht="14.45" hidden="1">
       <c r="A44" s="4" t="s">
         <v>440</v>
       </c>
@@ -42132,7 +42138,7 @@
         <v>07.11 -Ped 047750 -PRINCESA -TR PEÇA -R$46,32 -NF 355838</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.45">
+    <row r="45" spans="1:12" ht="14.45" hidden="1">
       <c r="A45" s="4" t="s">
         <v>440</v>
       </c>
@@ -42172,7 +42178,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 775</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.45">
+    <row r="46" spans="1:12" ht="14.45" hidden="1">
       <c r="A46" s="4" t="s">
         <v>440</v>
       </c>
@@ -42212,7 +42218,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 776</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+    <row r="47" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>440</v>
       </c>
@@ -42252,7 +42258,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 777</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+    <row r="48" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>440</v>
       </c>
@@ -42292,7 +42298,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 778</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+    <row r="49" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>440</v>
       </c>
@@ -42332,7 +42338,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 779</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+    <row r="50" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>440</v>
       </c>
@@ -42372,7 +42378,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 781</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+    <row r="51" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>440</v>
       </c>
@@ -42412,7 +42418,7 @@
         <v>10.11 -Ped 047757 -CARGADEDICADA -TR PEÇA -R$884,29 -NF 782</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+    <row r="52" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>466</v>
       </c>
@@ -42452,7 +42458,7 @@
         <v>14.11 -Ped 047804 -MAZETTO -TR MAQ -R$3662,3 -NF 469</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+    <row r="53" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>466</v>
       </c>
@@ -42492,7 +42498,7 @@
         <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$1352 -NF 1069</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+    <row r="54" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>520</v>
       </c>
@@ -42532,7 +42538,7 @@
         <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$650 -NF 1068</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+    <row r="55" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>522</v>
       </c>
@@ -42572,7 +42578,7 @@
         <v>03.11 -Ped 047805 -MAZETTO -TR MAQ -R$650 -NF 1068</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+    <row r="56" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>466</v>
       </c>
@@ -42612,7 +42618,7 @@
         <v>05.11 -Ped 047805 -MAZETTO -TR MAQ -R$1458 -NF 1067</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+    <row r="57" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>466</v>
       </c>
@@ -42652,7 +42658,7 @@
         <v>07.11 -Ped 047806 -MAZETTO -TR MAQ -R$2890 -NF 1070</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+    <row r="58" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>466</v>
       </c>
@@ -42692,7 +42698,7 @@
         <v>11.11 -Ped 047806 -MAZETTO -TR MAQ -R$1389 -NF 468</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+    <row r="59" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>506</v>
       </c>
@@ -42726,7 +42732,7 @@
         <v>01.11 -Ped 047315 -TRANSCAPITINGA-TR MAQ -R$1000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+    <row r="60" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>452</v>
       </c>
@@ -42760,7 +42766,7 @@
         <v>05.11 -Ped 047328 -JORGE LUIZ 2 COURIER -R$180</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+    <row r="61" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>466</v>
       </c>
@@ -42792,7 +42798,7 @@
         <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$500</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+    <row r="62" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>466</v>
       </c>
@@ -42824,7 +42830,7 @@
         <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$300</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+    <row r="63" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>466</v>
       </c>
@@ -42856,7 +42862,7 @@
         <v>01.11 -Ped 047552 -GRICZYNSKI -TR MAQ -R$300</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+    <row r="64" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>466</v>
       </c>
@@ -42890,7 +42896,7 @@
         <v>13.11 -Ped 047572 -AGROMAQ -TR MAQ -R$1000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
+    <row r="65" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>506</v>
       </c>
@@ -42924,7 +42930,7 @@
         <v>11.11 -Ped 047573 -MUNCK IRATI -TR MAQ -R$1262</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
+    <row r="66" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>432</v>
       </c>
@@ -42958,7 +42964,7 @@
         <v>14.11 -Ped 047732 -SUL LONAS - MT -R$4175</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
+    <row r="67" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>425</v>
       </c>
@@ -42992,7 +42998,7 @@
         <v>14.11 -Ped 047733 -MEGA TRUCK ACESSORIOS - MT -R$800,04</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1">
+    <row r="68" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>546</v>
       </c>
@@ -43024,7 +43030,7 @@
         <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$300</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1">
+    <row r="69" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>546</v>
       </c>
@@ -43056,7 +43062,7 @@
         <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$300</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1">
+    <row r="70" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>520</v>
       </c>
@@ -43088,7 +43094,7 @@
         <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$800</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1">
+    <row r="71" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>520</v>
       </c>
@@ -43120,7 +43126,7 @@
         <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$800</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1">
+    <row r="72" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>522</v>
       </c>
@@ -43152,7 +43158,7 @@
         <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$400</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1">
+    <row r="73" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>522</v>
       </c>
@@ -43184,7 +43190,7 @@
         <v>14.11 -Ped 047752 -AGROMAQ -TR MAQ -R$400</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1">
+    <row r="74" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>506</v>
       </c>
@@ -43218,7 +43224,7 @@
         <v>13.11 -Ped 047758 -INCOMESPMUNCK -TR MAQ -R$270</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1">
+    <row r="75" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>425</v>
       </c>
@@ -43252,7 +43258,7 @@
         <v>14.11 -Ped 047800 -SERIE4 - MT 1 -R$216</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1">
+    <row r="76" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>425</v>
       </c>
@@ -43286,7 +43292,7 @@
         <v>14.11 -Ped 047800 -SERIE4 - MT 1 -R$120</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1">
+    <row r="77" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>506</v>
       </c>
@@ -43326,7 +43332,7 @@
         <v>12.11 -Ped 047801 -MONTPAR GUINDASTES -R$440 -NF 5331</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1">
+    <row r="78" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>520</v>
       </c>
@@ -43358,7 +43364,7 @@
         <v>14.11 -Ped 047802 -ZORTEA -TR MAQ -R$3800</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1">
+    <row r="79" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>522</v>
       </c>
@@ -43390,7 +43396,7 @@
         <v>14.11 -Ped 047802 -ZORTEA -TR MAQ -R$1600</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1">
+    <row r="80" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>559</v>
       </c>
@@ -43422,7 +43428,7 @@
         <v>17.11 -Ped 047803 -LUG -TR MAQ -R$9600</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1">
+    <row r="81" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>452</v>
       </c>
@@ -43454,7 +43460,7 @@
         <v>17.11 -Ped 047871 -MARCOS D. COURIER -R$200</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1">
+    <row r="82" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>520</v>
       </c>
@@ -43488,7 +43494,7 @@
         <v>14.11 -Ped 047872 -JAPA MARRERO -TR MAQ -R$6740</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1">
+    <row r="83" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>466</v>
       </c>
@@ -43522,7 +43528,7 @@
         <v>17.11 -Ped 047872 -JAPA MARRERO -TR MAQ -R$1328</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1">
+    <row r="84" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>506</v>
       </c>
@@ -43556,7 +43562,7 @@
         <v>17.11 -Ped 047873 -MULTISOLDAS E MUNCK -R$945</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1">
+    <row r="85" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>440</v>
       </c>
@@ -43596,7 +43602,7 @@
         <v>25.10 -Ped 047889 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1">
+    <row r="86" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>466</v>
       </c>
@@ -43628,7 +43634,7 @@
         <v>14.11 -Ped 047892 -GRICZYNSKI -TR MAQ -R$300</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1">
+    <row r="87" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>466</v>
       </c>
@@ -43660,7 +43666,7 @@
         <v>14.11 -Ped 047892 -GRICZYNSKI -TR MAQ -R$450</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1">
+    <row r="88" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>466</v>
       </c>
@@ -43692,7 +43698,7 @@
         <v>19.11 -Ped 047893 -GRICZYNSKI -TR MAQ -R$550</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1">
+    <row r="89" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>466</v>
       </c>
@@ -43724,7 +43730,7 @@
         <v>14.11 -Ped 047893 -GRICZYNSKI -TR MAQ -R$430</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1">
+    <row r="90" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>520</v>
       </c>
@@ -43756,7 +43762,7 @@
         <v>18.11 -Ped 047895 -AGROMAQ -TR MAQ -R$900</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1">
+    <row r="91" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>522</v>
       </c>
@@ -43788,7 +43794,7 @@
         <v>18.11 -Ped 047895 -AGROMAQ -TR MAQ -R$300</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1">
+    <row r="92" spans="1:12" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>576</v>
       </c>
@@ -43847,14 +43853,17 @@
         <v>541</v>
       </c>
       <c r="I93" s="15">
-        <v>230365</v>
+        <v>231628</v>
+      </c>
+      <c r="J93" s="16">
+        <v>45979</v>
       </c>
       <c r="K93" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L93" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>01.11 -Ped 047901 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>01.11 -Ped 047901 -TX LOG -TR PEÇA -R$52 -NF 231628</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1">
@@ -43884,14 +43893,17 @@
         <v>541</v>
       </c>
       <c r="I94" s="15">
-        <v>230365</v>
+        <v>231958</v>
+      </c>
+      <c r="J94" s="16">
+        <v>45979</v>
       </c>
       <c r="K94" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L94" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>04.11 -Ped 047901 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>04.11 -Ped 047901 -TX LOG -TR PEÇA -R$52 -NF 231958</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1">
@@ -43921,14 +43933,17 @@
         <v>541</v>
       </c>
       <c r="I95" s="15">
-        <v>230365</v>
+        <v>232215</v>
+      </c>
+      <c r="J95" s="16">
+        <v>45979</v>
       </c>
       <c r="K95" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L95" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>05.11 -Ped 047901 -TX LOG -TR PEÇA -R$119,8 -NF 230365</v>
+        <v>05.11 -Ped 047901 -TX LOG -TR PEÇA -R$119,8 -NF 232215</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1">
@@ -43958,14 +43973,14 @@
         <v>541</v>
       </c>
       <c r="I96" s="15">
-        <v>230365</v>
+        <v>233001</v>
       </c>
       <c r="K96" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L96" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>08.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>08.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 233001</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1">
@@ -43995,14 +44010,14 @@
         <v>541</v>
       </c>
       <c r="I97" s="15">
-        <v>230365</v>
+        <v>233290</v>
       </c>
       <c r="K97" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L97" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>11.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>11.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 233290</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" customHeight="1">
@@ -44032,14 +44047,14 @@
         <v>541</v>
       </c>
       <c r="I98" s="15">
-        <v>230365</v>
+        <v>233291</v>
       </c>
       <c r="K98" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L98" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>11.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>11.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 233291</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1">
@@ -44069,14 +44084,14 @@
         <v>541</v>
       </c>
       <c r="I99" s="15">
-        <v>230365</v>
+        <v>234040</v>
       </c>
       <c r="K99" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L99" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>14.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>14.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 234040</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1">
@@ -44106,14 +44121,14 @@
         <v>541</v>
       </c>
       <c r="I100" s="15">
-        <v>230365</v>
+        <v>234045</v>
       </c>
       <c r="K100" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L100" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>14.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>14.11 -Ped 047902 -TX LOG -TR PEÇA -R$52 -NF 234045</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1">
@@ -44143,14 +44158,14 @@
         <v>541</v>
       </c>
       <c r="I101" s="15">
-        <v>230365</v>
+        <v>230691</v>
       </c>
       <c r="K101" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L101" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>28.10 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>28.10 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230691</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15" customHeight="1">
@@ -44180,14 +44195,14 @@
         <v>541</v>
       </c>
       <c r="I102" s="15">
-        <v>230365</v>
+        <v>233000</v>
       </c>
       <c r="K102" s="71" t="s">
         <v>579</v>
       </c>
       <c r="L102" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>08.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>08.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 233000</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15" customHeight="1">
@@ -44217,7 +44232,7 @@
         <v>541</v>
       </c>
       <c r="I103" s="15">
-        <v>230365</v>
+        <v>233017</v>
       </c>
       <c r="J103" s="274"/>
       <c r="K103" s="71" t="s">
@@ -44225,7 +44240,7 @@
       </c>
       <c r="L103" s="275" t="str">
         <f>TEXT($C103,"dd.mm") &amp; " -Ped " &amp; D103 &amp; " -" &amp; F103 &amp; " -R$" &amp; G103 &amp; IF(LEN(TRIM(I103))=0, "", " -NF " &amp; TRIM(I103))</f>
-        <v>08.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>08.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 233017</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1">
@@ -44255,7 +44270,7 @@
         <v>541</v>
       </c>
       <c r="I104" s="15">
-        <v>230365</v>
+        <v>233289</v>
       </c>
       <c r="J104" s="274"/>
       <c r="K104" s="71" t="s">
@@ -44263,7 +44278,7 @@
       </c>
       <c r="L104" s="275" t="str">
         <f t="shared" ref="L104:L106" si="4">TEXT($C104,"dd.mm") &amp; " -Ped " &amp; D104 &amp; " -" &amp; F104 &amp; " -R$" &amp; G104 &amp; IF(LEN(TRIM(I104))=0, "", " -NF " &amp; TRIM(I104))</f>
-        <v>11.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>11.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 233289</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1">
@@ -44293,7 +44308,7 @@
         <v>541</v>
       </c>
       <c r="I105" s="15">
-        <v>230365</v>
+        <v>233292</v>
       </c>
       <c r="J105" s="274"/>
       <c r="K105" s="71" t="s">
@@ -44301,7 +44316,7 @@
       </c>
       <c r="L105" s="275" t="str">
         <f t="shared" si="4"/>
-        <v>11.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>11.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 233292</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1">
@@ -44331,7 +44346,7 @@
         <v>541</v>
       </c>
       <c r="I106" s="15">
-        <v>230365</v>
+        <v>234044</v>
       </c>
       <c r="J106" s="274"/>
       <c r="K106" s="71" t="s">
@@ -44339,7 +44354,7 @@
       </c>
       <c r="L106" s="275" t="str">
         <f t="shared" si="4"/>
-        <v>14.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 230365</v>
+        <v>14.11 -Ped 047900 -TX LOG -TR PEÇA -R$52 -NF 234044</v>
       </c>
     </row>
   </sheetData>
